--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18E8232-FEFB-49DA-A51B-B8222C813966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD44C76-98EA-47FD-A5F5-D92C02C10269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -964,7 +955,16 @@
     <t>CN</t>
   </si>
   <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>disagree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2158,6 +2158,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3572,7 +3573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3583,29 +3584,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3621,23 +3622,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3645,15 +3647,15 @@
         <v>183020977818</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3677,15 +3679,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3699,25 +3701,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3726,16 +3728,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3744,7 +3746,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3935,7 +3937,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>24063</v>
@@ -4294,11 +4296,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7351890627773057E-2</v>
+        <v>3.044654994114384E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4343,7 +4345,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4751,7 +4753,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4759,21 +4761,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="237" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="237" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4787,10 +4789,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4839,7 +4841,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4860,7 +4862,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4878,7 +4880,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4984,7 +4986,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5020,8 +5022,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5064,17 +5066,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.53</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5084,40 +5086,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>1012106.00733354</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>2705050.0032781665</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5140,11 +5142,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5164,7 +5166,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5207,7 +5209,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5257,7 +5259,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5297,7 +5299,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5331,7 +5333,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.56183594666546477</v>
+        <v>1.6119209650599</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5347,12 +5349,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.11931878094013711</v>
+        <v>4.1588627294750762E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5379,7 +5381,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7351890627773057E-2</v>
+        <v>3.044654994114384E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5396,12 +5398,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5409,22 +5411,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1587880405246782</v>
+        <v>2.0638805488012855</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.809856071348809</v>
+        <v>6.5953487141039391</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.5300164617867456</v>
-      </c>
-      <c r="G29" s="271">
+        <v>2.8047847005064726</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.269440062042444</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>5.7350858383512522</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5472,7 +5474,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5482,7 +5484,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5509,7 +5511,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6455,12 +6457,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6946,7 +6945,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6997,7 +6996,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7048,7 +7047,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7099,7 +7098,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7201,7 +7200,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7354,7 +7353,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8425,7 +8424,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8494,7 +8493,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8698,7 +8697,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10521,11 +10520,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-697604.50624066975</v>
+        <v>-765060.30975156103</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4156977976624716</v>
+        <v>1.4558942538323747</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11592,7 +11591,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11612,11 +11611,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>1.6119209650599</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>188249</v>
+        <v>303442.5097515611</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11648,11 +11647,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11663,11 +11662,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11679,11 +11678,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11897,19 +11896,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11919,18 +11918,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12007,7 +12006,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12067,7 +12066,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12130,7 +12129,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12160,7 +12159,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12297,17 +12296,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14291878302536909</v>
+        <v>4.981442111484078E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9699304507724259E-2</v>
+        <v>3.1264742351346173E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11931878094013711</v>
+        <v>4.1588627294750762E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12348,17 +12347,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7351890627773057E-2</v>
+        <v>3.044654994114384E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9881512502218454E-2</v>
+        <v>2.4357239952915076E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7351890627773057E-2</v>
+        <v>3.044654994114384E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12389,15 +12388,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12418,14 +12417,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.58559024898719</v>
+        <v>7.4859622708708509</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.101650530606666</v>
+        <v>10.466408052432486</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12443,14 +12442,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.5237324979983935</v>
+        <v>5.6393261252244233</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.198011884832042</v>
+        <v>7.26118271051054</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12476,7 +12475,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12493,21 +12492,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1465149.9211128312</v>
+        <v>952377.95052172116</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.2629092011968623</v>
+        <v>3.7218462823977418</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.0053660437209988</v>
+        <v>5.203654585808116</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.373561222714628</v>
+        <v>7.3930515719477086</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12517,14 +12516,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>202077.33445576826</v>
+        <v>303442.5097515611</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1041211606721844</v>
+        <v>1.6579657335964562</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12556,27 +12555,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1263072.5866570629</v>
+        <v>648935.44077016006</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1587880405246782</v>
+        <v>2.0638805488012855</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1587880405246782</v>
+        <v>2.0638805488012855</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.5300164617867456</v>
+        <v>2.8047847005064726</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9012448830488138</v>
+        <v>3.5456888522116596</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.269440062042444</v>
+        <v>5.7350858383512522</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12600,7 +12599,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12617,27 +12616,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>927955.57077628502</v>
+        <v>660722.40577249287</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7406247606124885</v>
+        <v>2.725878968320917</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7406247606124885</v>
+        <v>2.8037417522214341</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.405419508023221</v>
+        <v>3.2069164333187259</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.070214255433954</v>
+        <v>3.6100911144160177</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2034672657709535</v>
+        <v>5.1290087280385768</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12661,7 +12660,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12678,27 +12677,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>722879.12752607535</v>
+        <v>445438.49659094063</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9497064005685836</v>
+        <v>2.3948797585611015</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9497064005685836</v>
+        <v>2.4338111505113598</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9677179849049828</v>
+        <v>3.0058505669125992</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.9857295692413839</v>
+        <v>3.5778899833138387</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7364536639066976</v>
+        <v>5.4320472831949145</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD44C76-98EA-47FD-A5F5-D92C02C10269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99811B33-3142-41FD-90ED-B408E974C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1523,7 +1524,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2159,6 +2160,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3573,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3587,12 +3591,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3600,7 +3604,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3624,7 +3628,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3633,7 +3637,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3641,7 +3645,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>183020977818</v>
@@ -3649,7 +3653,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>264</v>
@@ -3673,7 +3677,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3681,7 +3685,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>265</v>
@@ -3698,7 +3702,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>266</v>
@@ -3707,7 +3711,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>267</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>268</v>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>267</v>
@@ -3734,16 +3738,16 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>269</v>
@@ -3937,7 +3941,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>24063</v>
@@ -4277,7 +4281,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.22+0.23</f>
@@ -4296,11 +4300,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.044654994114384E-2</v>
+        <v>8.768251284064485E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4345,13 +4349,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4733,7 +4737,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>1489904</v>
@@ -4753,7 +4757,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4761,26 +4765,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4789,10 +4793,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4841,7 +4845,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4880,7 +4884,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4936,7 +4940,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -5023,7 +5027,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5064,19 +5068,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>5.51</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5084,42 +5088,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>2705050.0032781665</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>1008445.5877771799</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5142,16 +5146,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5166,7 +5170,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5176,40 +5180,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5222,29 +5226,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5254,12 +5258,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5269,7 +5273,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5277,7 +5281,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5291,7 +5295,7 @@
         <v>0.86263355974668987</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5299,7 +5303,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5310,14 +5314,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5329,11 +5333,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6119209650599</v>
+        <v>0.55971744620351915</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5345,16 +5349,16 @@
         <v>7.9916652607163307E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>4.1588627294750762E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>8.3493086140990496</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5377,11 +5381,11 @@
         <v>4.9816835181438444E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.044654994114384E-2</v>
+        <v>8.768251284064485E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5398,12 +5402,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5411,42 +5415,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0638805488012855</v>
+        <v>4.1676360231094316</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5953487141039391</v>
+        <v>11.838093840562999</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8047847005064726</v>
-      </c>
-      <c r="G29" s="272">
+        <v>5.5430566372840868</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7350858383512522</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>10.293994643967826</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5456,7 +5460,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5467,14 +5471,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5484,7 +5488,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5494,14 +5498,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5511,7 +5515,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5526,14 +5530,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6518,16 +6522,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6545,7 +6549,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6578,7 +6582,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6945,7 +6949,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6996,7 +7000,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7047,7 +7051,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7098,7 +7102,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7200,7 +7204,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7353,7 +7357,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8424,7 +8428,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8493,7 +8497,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8697,7 +8701,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10520,11 +10524,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-765060.30975156103</v>
+        <v>-697712.37052612298</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4558942538323747</v>
+        <v>1.4157620732591862</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10595,7 +10599,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11591,7 +11595,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11611,11 +11615,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6119209650599</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>303442.5097515611</v>
+        <v>188249</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11647,11 +11651,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11662,11 +11666,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11678,11 +11682,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11896,19 +11900,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11918,18 +11922,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12006,7 +12010,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12066,7 +12070,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12129,7 +12133,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12159,7 +12163,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12292,28 +12296,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.981442111484078E-2</v>
+        <v>0.14345972294052381</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1264742351346173E-2</v>
+        <v>9.0038811556012177E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1588627294750762E-2</v>
+        <v>0.11977039611535634</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12343,21 +12347,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.044654994114384E-2</v>
+        <v>8.768251284064485E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4357239952915076E-2</v>
+        <v>7.0146010272515893E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.044654994114384E-2</v>
+        <v>8.768251284064485E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12388,15 +12392,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12413,24 +12417,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.4859622708708509</v>
+        <v>10.603730081825985</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>10.466408052432486</v>
+        <v>16.136654358137697</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12438,18 +12442,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>5.6393261252244233</v>
+        <v>7.5342020072596982</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>7.26118271051054</v>
+        <v>10.21510467245634</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12468,14 +12472,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12492,21 +12496,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>952377.95052172116</v>
+        <v>1468335.0514228113</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7218462823977418</v>
+        <v>5.2719279040665112</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.203654585808116</v>
+        <v>8.0227691324158226</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.3930515719477086</v>
+        <v>11.398286524924906</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12516,14 +12520,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>303442.5097515611</v>
+        <v>202108.57984924316</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.6579657335964562</v>
+        <v>1.1042918809570796</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12555,27 +12559,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>648935.44077016006</v>
+        <v>1266226.4715735682</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.0638805488012855</v>
+        <v>4.1676360231094316</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.0638805488012855</v>
+        <v>4.1676360231094316</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.8047847005064726</v>
+        <v>5.5430566372840868</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5456888522116596</v>
+        <v>6.918477251458742</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.7350858383512522</v>
+        <v>10.293994643967826</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12592,14 +12596,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12616,27 +12620,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>660722.40577249287</v>
+        <v>929510.90800036269</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.725878968320917</v>
+        <v>3.7458299570471993</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8037417522214341</v>
+        <v>3.7458299570471993</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2069164333187259</v>
+        <v>4.4122711744146752</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.6100911144160177</v>
+        <v>5.0787123917821502</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1290087280385768</v>
+        <v>7.2155409265513981</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12646,21 +12650,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12673,31 +12677,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>445438.49659094063</v>
+        <v>724165.14080887218</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3948797585611015</v>
+        <v>3.9567329900783155</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4338111505113598</v>
+        <v>3.9567329900783155</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.0058505669125992</v>
+        <v>4.977663905849381</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5778899833138387</v>
+        <v>5.9985948216204461</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.4320472831949145</v>
+        <v>8.7547677852596131</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99811B33-3142-41FD-90ED-B408E974C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E591E258-048F-4CCD-8AA0-4D952D397A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -966,6 +963,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3591,28 +3592,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45605</v>
@@ -3620,7 +3621,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3628,24 +3629,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>183020977818</v>
@@ -3653,15 +3654,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3669,7 +3670,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3677,7 +3678,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3685,15 +3686,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3702,61 +3703,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>3011012</v>
@@ -3841,7 +3842,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>2597400</v>
@@ -3877,7 +3878,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>125283</v>
@@ -3913,7 +3914,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>21957</v>
@@ -3941,7 +3942,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>24063</v>
@@ -3977,7 +3978,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>20681</v>
@@ -4013,7 +4014,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-13105</v>
@@ -4049,7 +4050,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>247452</v>
@@ -4085,7 +4086,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>282519</v>
@@ -4121,7 +4122,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -4137,7 +4138,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4153,7 +4154,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4169,7 +4170,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4185,7 +4186,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4201,7 +4202,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4217,7 +4218,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4249,7 +4250,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4265,7 +4266,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4281,7 +4282,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.22+0.23</f>
@@ -4300,11 +4301,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.768251284064485E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4349,21 +4350,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>238880</v>
@@ -4375,7 +4376,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4385,7 +4386,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>142879</v>
@@ -4398,7 +4399,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>9895</v>
@@ -4410,7 +4411,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4420,7 +4421,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>11851</v>
@@ -4433,7 +4434,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -4445,7 +4446,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>182674</v>
@@ -4458,7 +4459,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4466,24 +4467,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4494,7 +4495,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120">
         <v>61345</v>
@@ -4507,7 +4508,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4518,7 +4519,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4529,7 +4530,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4540,7 +4541,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59">
         <v>693</v>
@@ -4553,7 +4554,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4563,7 +4564,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>292606</v>
@@ -4572,24 +4573,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>201156</v>
@@ -4599,12 +4600,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>1413348</v>
@@ -4617,7 +4618,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4628,7 +4629,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>91529</v>
@@ -4640,7 +4641,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>24707</v>
@@ -4653,7 +4654,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>71887</v>
@@ -4665,7 +4666,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>40594</v>
@@ -4673,19 +4674,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120">
         <v>11824</v>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>716641</v>
@@ -4701,7 +4702,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59">
         <v>70126</v>
@@ -4709,19 +4710,19 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120">
         <v>11000</v>
@@ -4729,7 +4730,7 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>373503</v>
@@ -4737,7 +4738,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>1489904</v>
@@ -4745,19 +4746,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4765,15 +4766,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4781,10 +4782,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4794,19 +4795,19 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4824,7 +4825,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4845,7 +4846,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4866,7 +4867,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4884,7 +4885,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4905,7 +4906,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4922,7 +4923,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4940,7 +4941,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -5068,7 +5069,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -5080,15 +5081,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.51</v>
+        <v>5.63</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -5097,7 +5098,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -5108,7 +5109,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5117,11 +5118,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1008445.5877771799</v>
+        <v>1030408.10511534</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5129,7 +5130,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5144,7 +5145,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5155,7 +5156,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5167,10 +5168,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,40 +5181,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5226,29 +5227,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5258,12 +5259,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5273,29 +5274,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.86263355974668987</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5303,7 +5304,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5314,58 +5315,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.55971744620351915</v>
+        <v>0.57254117461439979</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.3493086140990496</v>
+        <v>8.540600250284534</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0.02</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5374,61 +5375,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>4.9816835181438444E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.768251284064485E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1676360231094316</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.838093840562999</v>
+        <v>11.668898132957514</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.5430566372840868</v>
+        <v>5.4648854667602169</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.293994643967826</v>
+        <v>10.146867941702187</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5436,21 +5437,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5460,7 +5461,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5471,14 +5472,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5488,7 +5489,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5498,14 +5499,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5515,7 +5516,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5530,14 +5531,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6517,21 +6518,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6542,14 +6543,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6571,7 +6572,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6582,7 +6583,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6593,7 +6594,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6643,7 +6644,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6694,7 +6695,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6745,7 +6746,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6796,7 +6797,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6847,7 +6848,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6898,7 +6899,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6949,7 +6950,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7000,7 +7001,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7051,7 +7052,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7102,7 +7103,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7153,7 +7154,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7204,7 +7205,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7255,7 +7256,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7306,7 +7307,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7357,7 +7358,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7408,7 +7409,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7459,7 +7460,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7510,7 +7511,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7561,7 +7562,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7612,7 +7613,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7663,7 +7664,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7714,7 +7715,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7765,7 +7766,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7816,7 +7817,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7867,7 +7868,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7918,7 +7919,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7969,7 +7970,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8020,7 +8021,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -8071,7 +8072,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8122,7 +8123,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8173,7 +8174,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8224,7 +8225,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8275,7 +8276,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8326,7 +8327,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8377,7 +8378,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8428,7 +8429,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8446,7 +8447,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8497,7 +8498,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8548,7 +8549,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8599,7 +8600,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8650,7 +8651,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8701,7 +8702,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8752,7 +8753,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8803,7 +8804,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8821,7 +8822,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8872,7 +8873,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8923,7 +8924,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8940,7 +8941,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8990,7 +8991,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -9040,7 +9041,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -9090,7 +9091,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10449,7 +10450,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10459,12 +10460,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10478,7 +10479,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10488,7 +10489,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10506,10 +10507,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10519,21 +10520,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-697712.37052612298</v>
+        <v>-696939.91556544299</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4157620732591862</v>
+        <v>1.4153017725829784</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10544,7 +10545,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10556,7 +10557,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10574,7 +10575,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10593,32 +10594,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10635,7 +10636,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10646,7 +10647,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10663,7 +10664,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10674,7 +10675,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10691,7 +10692,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10702,7 +10703,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10719,7 +10720,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10730,7 +10731,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10747,7 +10748,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10757,7 +10758,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10779,7 +10780,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10801,7 +10802,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10822,7 +10823,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10847,7 +10848,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10874,7 +10875,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10912,7 +10913,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10924,13 +10925,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10952,7 +10953,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10972,7 +10973,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10981,7 +10982,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11001,7 +11002,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11014,7 +11015,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11034,7 +11035,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11047,7 +11048,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -11064,7 +11065,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -11080,7 +11081,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11089,7 +11090,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11105,7 +11106,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11115,7 +11116,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11132,7 +11133,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11142,7 +11143,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11159,7 +11160,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11169,7 +11170,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11189,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11199,7 +11200,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11216,7 +11217,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11226,7 +11227,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11252,7 +11253,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11279,7 +11280,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11306,7 +11307,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11327,7 +11328,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11348,7 +11349,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11369,7 +11370,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11390,7 +11391,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11407,7 +11408,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11425,7 +11426,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11444,7 +11445,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11463,7 +11464,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11480,7 +11481,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11493,7 +11494,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11510,7 +11511,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11523,7 +11524,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11540,7 +11541,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11550,7 +11551,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11567,7 +11568,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11583,14 +11584,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11602,12 +11603,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11637,7 +11638,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11648,7 +11649,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11663,7 +11664,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11674,12 +11675,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11703,11 +11704,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11717,7 +11718,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11738,7 +11739,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11759,7 +11760,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11780,7 +11781,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11795,7 +11796,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11826,11 +11827,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11840,7 +11841,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11861,7 +11862,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11876,7 +11877,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11898,7 +11899,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11906,15 +11907,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11923,22 +11924,22 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11959,7 +11960,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11989,7 +11990,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -12010,7 +12011,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12040,7 +12041,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12070,7 +12071,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12101,7 +12102,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12128,12 +12129,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12163,7 +12164,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12193,7 +12194,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12223,7 +12224,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12244,7 +12245,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12275,7 +12276,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12296,28 +12297,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14345972294052381</v>
+        <v>0.14024652429829784</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0038811556012177E-2</v>
+        <v>8.8022129932004284E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11977039611535634</v>
+        <v>0.11708778899547308</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12347,21 +12348,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.768251284064485E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0146010272515893E-2</v>
+        <v>6.8574885915481817E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.768251284064485E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12378,27 +12379,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12417,24 +12418,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.603730081825985</v>
+        <v>10.494371057861523</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.136654358137697</v>
+        <v>15.926634962811296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12442,18 +12443,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.5342020072596982</v>
+        <v>7.4707775868552311</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.21510467245634</v>
+        <v>10.112008128442115</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12472,69 +12473,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1468335.0514228113</v>
+        <v>1449224.5943979407</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.2719279040665112</v>
+        <v>5.217557141556453</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.0227691324158226</v>
+        <v>7.9183523750981202</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.398286524924906</v>
+        <v>11.249937233269256</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>202108.57984924316</v>
+        <v>201884.82034361362</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1042918809570796</v>
+        <v>1.1030692915670697</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12555,31 +12556,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1266226.4715735682</v>
+        <v>1247339.774054327</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1676360231094316</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1676360231094316</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.5430566372840868</v>
+        <v>5.4648854667602169</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.918477251458742</v>
+        <v>6.8152830835310514</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.293994643967826</v>
+        <v>10.146867941702187</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12589,58 +12590,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>929510.90800036269</v>
+        <v>920129.76455532736</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7458299570471993</v>
+        <v>3.71429681077232</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7458299570471993</v>
+        <v>3.71429681077232</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4122711744146752</v>
+        <v>4.3708759996904707</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0787123917821502</v>
+        <v>5.027455188608621</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2155409265513981</v>
+        <v>7.1427176558582977</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12650,58 +12651,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>724165.14080887218</v>
+        <v>716415.9118695833</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9567329900783155</v>
+        <v>3.9143923303808519</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9567329900783155</v>
+        <v>3.9143923303808519</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.977663905849381</v>
+        <v>4.9178807332253438</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.9985948216204461</v>
+        <v>5.9213691360698366</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7547677852596131</v>
+        <v>8.6447927987802426</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12710,7 +12711,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E591E258-048F-4CCD-8AA0-4D952D397A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DCD1DF-BC02-4B06-91CD-8A6CD7E904E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.6021525337096838E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4991,7 +4991,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1030408.10511534</v>
+        <v>1026747.6855589801</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5171,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57254117461439979</v>
+        <v>0.57052501651825915</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.540600250284534</v>
+        <v>8.5105252074684277</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.6021525337096838E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5416,20 +5416,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1144878499893833</v>
+        <v>4.1218223005630907</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.668898132957514</v>
+        <v>11.692512685833728</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4648854667602169</v>
+        <v>5.4757844128385038</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.146867941702187</v>
+        <v>10.167402335507591</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10525,11 +10525,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696939.91556544299</v>
+        <v>-696918.24974416092</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4153017725829784</v>
+        <v>1.415288862066904</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14024652429829784</v>
+        <v>0.14074213651026568</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8022129932004284E-2</v>
+        <v>8.8333188211245015E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11708778899547308</v>
+        <v>0.11750156137513677</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12352,17 +12352,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.6021525337096838E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8574885915481817E-2</v>
+        <v>6.8817220269677487E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.6021525337096838E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12422,14 +12422,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.494371057861523</v>
+        <v>10.50905428589898</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>15.926634962811296</v>
+        <v>15.955657138154644</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12447,14 +12447,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.4707775868552311</v>
+        <v>7.4790201394470968</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.112008128442115</v>
+        <v>10.125807576050976</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12497,21 +12497,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1449224.5943979407</v>
+        <v>1451865.4316111195</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.217557141556453</v>
+        <v>5.2248573009357564</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.9183523750981202</v>
+        <v>7.9327815254865808</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.249937233269256</v>
+        <v>11.270437335880256</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12521,14 +12521,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201884.82034361362</v>
+        <v>201878.5443356832</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1030692915670697</v>
+        <v>1.1030350003726652</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12560,27 +12560,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1247339.774054327</v>
+        <v>1249986.8872754364</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1144878499893833</v>
+        <v>4.1218223005630907</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1144878499893833</v>
+        <v>4.1218223005630907</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.4648854667602169</v>
+        <v>5.4757844128385038</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.8152830835310514</v>
+        <v>6.829746525113916</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.146867941702187</v>
+        <v>10.167402335507591</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12621,27 +12621,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>920129.76455532736</v>
+        <v>921385.42834812251</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.71429681077232</v>
+        <v>3.7183948161604685</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.71429681077232</v>
+        <v>3.7183948161604685</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3708759996904707</v>
+        <v>4.3763553845400915</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.027455188608621</v>
+        <v>5.0343159529197141</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1427176558582977</v>
+        <v>7.1524650331175845</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12682,27 +12682,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>716415.9118695833</v>
+        <v>717462.10150408326</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9143923303808519</v>
+        <v>3.9201085583617798</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9143923303808519</v>
+        <v>3.9201085583617798</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9178807332253438</v>
+        <v>4.9260698986892972</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.9213691360698366</v>
+        <v>5.9320312390168155</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6447927987802426</v>
+        <v>8.6599336843125876</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DCD1DF-BC02-4B06-91CD-8A6CD7E904E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{918071EA-02E0-4BB8-9979-93706EE31C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6021525337096838E-2</v>
+        <v>8.5723936875378909E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1026747.6855589801</v>
+        <v>1030408.10511534</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5171,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57052501651825915</v>
+        <v>0.57250557957014148</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5105252074684277</v>
+        <v>8.5400692787887174</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6021525337096838E-2</v>
+        <v>8.5723936875378909E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5416,20 +5416,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1218223005630907</v>
+        <v>4.1148748945728748</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.692512685833728</v>
+        <v>11.670045221290758</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4757844128385038</v>
+        <v>5.4654198716638938</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.167402335507591</v>
+        <v>10.147865409818051</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10525,11 +10525,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696918.24974416092</v>
+        <v>-696983.24720800715</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.415288862066904</v>
+        <v>1.4153275936151275</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14074213651026568</v>
+        <v>0.14025524400587383</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8333188211245015E-2</v>
+        <v>8.8027602632572532E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11750156137513677</v>
+        <v>0.11709506882850899</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12352,17 +12352,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6021525337096838E-2</v>
+        <v>8.5723936875378909E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8817220269677487E-2</v>
+        <v>6.8579149500303124E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6021525337096838E-2</v>
+        <v>8.5723936875378909E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12422,14 +12422,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.50905428589898</v>
+        <v>10.495287486447079</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>15.955657138154644</v>
+        <v>15.928144179875162</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12447,14 +12447,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.4790201394470968</v>
+        <v>7.4713911275115352</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.125807576050976</v>
+        <v>10.112885036485498</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12497,21 +12497,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1451865.4316111195</v>
+        <v>1449361.9237517149</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.2248573009357564</v>
+        <v>5.2180127685287534</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.9327815254865808</v>
+        <v>7.9191027227107895</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.270437335880256</v>
+        <v>11.25100328377393</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12521,14 +12521,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201878.5443356832</v>
+        <v>201897.37235947451</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1030350003726652</v>
+        <v>1.1031378739558786</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12560,27 +12560,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1249986.8872754364</v>
+        <v>1247464.5513922404</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1218223005630907</v>
+        <v>4.1148748945728748</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1218223005630907</v>
+        <v>4.1148748945728748</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.4757844128385038</v>
+        <v>5.4654198716638938</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.829746525113916</v>
+        <v>6.8159648487549118</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.167402335507591</v>
+        <v>10.147865409818051</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12621,27 +12621,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>921385.42834812251</v>
+        <v>920209.55772610474</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7183948161604685</v>
+        <v>3.7146018489127943</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7183948161604685</v>
+        <v>3.7146018489127943</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3763553845400915</v>
+        <v>4.3712465078997909</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0343159529197141</v>
+        <v>5.0278911668867865</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1524650331175845</v>
+        <v>7.143337068588635</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12682,27 +12682,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>717462.10150408326</v>
+        <v>716479.24469801877</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9201085583617798</v>
+        <v>3.9147383717428346</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9201085583617798</v>
+        <v>3.9147383717428346</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9260698986892972</v>
+        <v>4.9183331897818423</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.9320312390168155</v>
+        <v>5.9219280078208492</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6599336843125876</v>
+        <v>8.6456012392033426</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918071EA-02E0-4BB8-9979-93706EE31C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55734DCE-BD22-43C0-87DF-606C13B0C87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5723936875378909E-2</v>
+        <v>8.5721272134865578E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5171,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57250557957014148</v>
+        <v>0.57252337653901508</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5400692787887174</v>
+        <v>8.5403347562837091</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5723936875378909E-2</v>
+        <v>8.5721272134865578E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5416,20 +5416,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1148748945728748</v>
+        <v>4.1146813699114517</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.670045221290758</v>
+        <v>11.669471669197986</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4654198716638938</v>
+        <v>5.4651526656016172</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.147865409818051</v>
+        <v>10.147366668867814</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10525,11 +10525,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696983.24720800715</v>
+        <v>-696961.58138672495</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4153275936151275</v>
+        <v>1.4153146830990528</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14025524400587383</v>
+        <v>0.14025088415208584</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8027602632572532E-2</v>
+        <v>8.8024866282288408E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11709506882850899</v>
+        <v>0.11709142891199102</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12352,17 +12352,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5723936875378909E-2</v>
+        <v>8.5721272134865578E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8579149500303124E-2</v>
+        <v>6.8577017707892471E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5723936875378909E-2</v>
+        <v>8.5721272134865578E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12422,14 +12422,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.495287486447079</v>
+        <v>10.494829267388033</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>15.928144179875162</v>
+        <v>15.927389561585732</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12447,14 +12447,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.4713911275115352</v>
+        <v>7.471084354569391</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.112885036485498</v>
+        <v>10.112446577996948</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12497,21 +12497,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1449361.9237517149</v>
+        <v>1449293.2581869566</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.2180127685287534</v>
+        <v>5.2177849526729254</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.9191027227107895</v>
+        <v>7.9187275440532554</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.25100328377393</v>
+        <v>11.250470251629288</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12521,14 +12521,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201897.37235947451</v>
+        <v>201891.09635154405</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1031378739558786</v>
+        <v>1.1031035827614741</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12560,27 +12560,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1247464.5513922404</v>
+        <v>1247402.1618354125</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1148748945728748</v>
+        <v>4.1146813699114517</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1148748945728748</v>
+        <v>4.1146813699114517</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.4654198716638938</v>
+        <v>5.4651526656016172</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.8159648487549118</v>
+        <v>6.8156239612917826</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.147865409818051</v>
+        <v>10.147366668867814</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12621,27 +12621,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>920209.55772610474</v>
+        <v>920169.66073425987</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7146018489127943</v>
+        <v>3.714449328542941</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7146018489127943</v>
+        <v>3.714449328542941</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3712465078997909</v>
+        <v>4.3710612520349139</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0278911668867865</v>
+        <v>5.0276731755268864</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.143337068588635</v>
+        <v>7.1430273590682569</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12682,27 +12682,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>716479.24469801877</v>
+        <v>716447.57794802205</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9147383717428346</v>
+        <v>3.9145653492271961</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9147383717428346</v>
+        <v>3.9145653492271961</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9183331897818423</v>
+        <v>4.9181069588182655</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.9219280078208492</v>
+        <v>5.921648568409335</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6456012392033426</v>
+        <v>8.6451970139680352</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55734DCE-BD22-43C0-87DF-606C13B0C87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{264BE25D-8112-43D5-8371-4AB0F96128F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5721272134865578E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4784,7 +4784,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5171,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57252337653901508</v>
+        <v>0.57254117461439979</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5403347562837091</v>
+        <v>8.540600250284534</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5721272134865578E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5416,20 +5416,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1146813699114517</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.669471669197986</v>
+        <v>11.668898132957514</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4651526656016172</v>
+        <v>5.4648854667602169</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.147366668867814</v>
+        <v>10.146867941702187</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10525,11 +10525,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696961.58138672495</v>
+        <v>-696939.91556544299</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4153146830990528</v>
+        <v>1.4153017725829784</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14025088415208584</v>
+        <v>0.14024652429829784</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8024866282288408E-2</v>
+        <v>8.8022129932004284E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11709142891199102</v>
+        <v>0.11708778899547308</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12352,17 +12352,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5721272134865578E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8577017707892471E-2</v>
+        <v>6.8574885915481817E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5721272134865578E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12422,14 +12422,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.494829267388033</v>
+        <v>10.494371057861523</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>15.927389561585732</v>
+        <v>15.926634962811296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12447,14 +12447,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.471084354569391</v>
+        <v>7.4707775868552311</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.112446577996948</v>
+        <v>10.112008128442115</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12497,21 +12497,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1449293.2581869566</v>
+        <v>1449224.5943979407</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.2177849526729254</v>
+        <v>5.217557141556453</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.9187275440532554</v>
+        <v>7.9183523750981202</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.250470251629288</v>
+        <v>11.249937233269256</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12521,14 +12521,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201891.09635154405</v>
+        <v>201884.82034361362</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1031035827614741</v>
+        <v>1.1030692915670697</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12560,27 +12560,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1247402.1618354125</v>
+        <v>1247339.774054327</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1146813699114517</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1146813699114517</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.4651526656016172</v>
+        <v>5.4648854667602169</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.8156239612917826</v>
+        <v>6.8152830835310514</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.147366668867814</v>
+        <v>10.146867941702187</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12621,27 +12621,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>920169.66073425987</v>
+        <v>920129.76455532736</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.714449328542941</v>
+        <v>3.71429681077232</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.714449328542941</v>
+        <v>3.71429681077232</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3710612520349139</v>
+        <v>4.3708759996904707</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0276731755268864</v>
+        <v>5.027455188608621</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1430273590682569</v>
+        <v>7.1427176558582977</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12682,27 +12682,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>716447.57794802205</v>
+        <v>716415.9118695833</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9145653492271961</v>
+        <v>3.9143923303808519</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9145653492271961</v>
+        <v>3.9143923303808519</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9181069588182655</v>
+        <v>4.9178807332253438</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.921648568409335</v>
+        <v>5.9213691360698366</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6451970139680352</v>
+        <v>8.6447927987802426</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{264BE25D-8112-43D5-8371-4AB0F96128F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DEC3E6-1012-455E-9685-339964A4228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.5715942653838958E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5171,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5267,7 +5267,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57254117461439979</v>
+        <v>0.57255897379639908</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.540600250284534</v>
+        <v>8.5408657607927339</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.5715942653838958E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5416,20 +5416,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1144878499893833</v>
+        <v>4.3411347406839624</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.668898132957514</v>
+        <v>12.421280311485614</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4648854667602169</v>
+        <v>5.7501684175531516</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.146867941702187</v>
+        <v>10.801113314335318</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10525,11 +10525,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696939.91556544299</v>
+        <v>-696918.24974416092</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4153017725829784</v>
+        <v>1.415288862066904</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14024652429829784</v>
+        <v>0.14024216444450988</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8022129932004284E-2</v>
+        <v>8.8019393581720173E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11708778899547308</v>
+        <v>0.11708414907895512</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12352,17 +12352,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.5715942653838958E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8574885915481817E-2</v>
+        <v>6.8572754123071178E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5718607394352261E-2</v>
+        <v>8.5715942653838958E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12422,14 +12422,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.494371057861523</v>
+        <v>10.95016993864426</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>15.926634962811296</v>
+        <v>16.61830996544505</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12447,14 +12447,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.4707775868552311</v>
+        <v>7.7952739036893819</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.112008128442115</v>
+        <v>10.55120315250875</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12497,21 +12497,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1449224.5943979407</v>
+        <v>1512162.7120535336</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.217557141556453</v>
+        <v>5.4441697410566281</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.9183523750981202</v>
+        <v>8.2622370947950063</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.249937233269256</v>
+        <v>11.904148314707983</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12521,14 +12521,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201884.82034361362</v>
+        <v>201878.5443356832</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1030692915670697</v>
+        <v>1.1030350003726652</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12560,27 +12560,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1247339.774054327</v>
+        <v>1310284.1677178505</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1144878499893833</v>
+        <v>4.3411347406839624</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1144878499893833</v>
+        <v>4.3411347406839624</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.4648854667602169</v>
+        <v>5.7501684175531516</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.8152830835310514</v>
+        <v>7.1592020944223416</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.146867941702187</v>
+        <v>10.801113314335318</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12621,27 +12621,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>920129.76455532736</v>
+        <v>960093.77654535358</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.71429681077232</v>
+        <v>3.8756288301922428</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.71429681077232</v>
+        <v>3.8756288301922428</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3708759996904707</v>
+        <v>4.5607207835127834</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.027455188608621</v>
+        <v>5.2458127368333241</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1427176558582977</v>
+        <v>7.5581143622455507</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12682,27 +12682,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>716415.9118695833</v>
+        <v>751920.05162054219</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.9143923303808519</v>
+        <v>4.1083817854381026</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.9143923303808519</v>
+        <v>4.1083817854381026</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9178807332253438</v>
+        <v>5.1554446005329675</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.9213691360698366</v>
+        <v>6.2025074156278333</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6447927987802426</v>
+        <v>9.1796138382904342</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DEC3E6-1012-455E-9685-339964A4228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F34F68-756D-47F8-BDF7-6EE0897FA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -986,6 +986,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1525,7 +1526,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1825,9 +1826,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2162,6 +2160,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3603,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3607,7 +3611,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3615,7 +3619,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45605</v>
       </c>
     </row>
@@ -3623,7 +3627,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3631,16 +3635,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3648,7 +3652,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>183020977818</v>
       </c>
     </row>
@@ -3656,101 +3660,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>268</v>
       </c>
       <c r="D22" s="24"/>
@@ -3808,542 +3812,542 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>3011012</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>3239167</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>2614349</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>1933836</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>2516810</v>
       </c>
-      <c r="H25" s="150">
+      <c r="H25" s="149">
         <v>2374934</v>
       </c>
-      <c r="I25" s="150">
+      <c r="I25" s="149">
         <v>2015890</v>
       </c>
-      <c r="J25" s="150">
+      <c r="J25" s="149">
         <v>1616903</v>
       </c>
-      <c r="K25" s="150">
+      <c r="K25" s="149">
         <v>1725428</v>
       </c>
-      <c r="L25" s="150">
+      <c r="L25" s="149">
         <v>2282962</v>
       </c>
-      <c r="M25" s="150"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>2597400</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>2804756</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>2298168</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>1741508</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>2229308</v>
       </c>
-      <c r="H26" s="151">
+      <c r="H26" s="150">
         <v>2058853</v>
       </c>
-      <c r="I26" s="151">
+      <c r="I26" s="150">
         <v>1780340</v>
       </c>
-      <c r="J26" s="151">
+      <c r="J26" s="150">
         <v>1423553</v>
       </c>
-      <c r="K26" s="151">
+      <c r="K26" s="150">
         <v>1500674</v>
       </c>
-      <c r="L26" s="151">
+      <c r="L26" s="150">
         <v>1963128</v>
       </c>
-      <c r="M26" s="151"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>125283</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>118875</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>122996</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>126791</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>135865</v>
       </c>
-      <c r="H27" s="151">
+      <c r="H27" s="150">
         <v>137231</v>
       </c>
-      <c r="I27" s="151">
+      <c r="I27" s="150">
         <v>143632</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="150">
         <v>139934</v>
       </c>
-      <c r="K27" s="151">
+      <c r="K27" s="150">
         <v>142620</v>
       </c>
-      <c r="L27" s="151">
+      <c r="L27" s="150">
         <v>147802</v>
       </c>
-      <c r="M27" s="151"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>21957</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>20016</v>
       </c>
-      <c r="E28" s="151">
+      <c r="E28" s="150">
         <v>16729</v>
       </c>
-      <c r="F28" s="151">
+      <c r="F28" s="150">
         <v>15746</v>
       </c>
-      <c r="G28" s="151">
+      <c r="G28" s="150">
         <v>15666</v>
       </c>
-      <c r="H28" s="151">
+      <c r="H28" s="150">
         <v>12826</v>
       </c>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>24063</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>21554</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>19739</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>26528</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>30409</v>
       </c>
-      <c r="H29" s="151">
+      <c r="H29" s="150">
         <v>22718</v>
       </c>
-      <c r="I29" s="151">
+      <c r="I29" s="150">
         <v>21648</v>
       </c>
-      <c r="J29" s="151">
+      <c r="J29" s="150">
         <v>20652</v>
       </c>
-      <c r="K29" s="151">
+      <c r="K29" s="150">
         <v>23826</v>
       </c>
-      <c r="L29" s="151">
+      <c r="L29" s="150">
         <v>24877</v>
       </c>
-      <c r="M29" s="151"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>20681</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>20705</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>22526</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="150">
         <v>14479</v>
       </c>
-      <c r="G30" s="151">
+      <c r="G30" s="150">
         <v>21333</v>
       </c>
-      <c r="H30" s="151">
+      <c r="H30" s="150">
         <v>20944</v>
       </c>
-      <c r="I30" s="151">
+      <c r="I30" s="150">
         <v>13995</v>
       </c>
-      <c r="J30" s="151">
+      <c r="J30" s="150">
         <v>21514</v>
       </c>
-      <c r="K30" s="151">
+      <c r="K30" s="150">
         <v>6711</v>
       </c>
-      <c r="L30" s="151">
+      <c r="L30" s="150">
         <v>11861</v>
       </c>
-      <c r="M30" s="151"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-13105</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>46237</v>
       </c>
-      <c r="E31" s="151">
+      <c r="E31" s="150">
         <v>27617</v>
       </c>
-      <c r="F31" s="151">
+      <c r="F31" s="150">
         <v>-71716</v>
       </c>
-      <c r="G31" s="151">
+      <c r="G31" s="150">
         <v>-28895</v>
       </c>
-      <c r="H31" s="151">
+      <c r="H31" s="150">
         <v>-2436</v>
       </c>
-      <c r="I31" s="151">
+      <c r="I31" s="150">
         <v>-64518</v>
       </c>
-      <c r="J31" s="151">
+      <c r="J31" s="150">
         <v>-5969</v>
       </c>
-      <c r="K31" s="151">
+      <c r="K31" s="150">
         <v>-4437</v>
       </c>
-      <c r="L31" s="151">
+      <c r="L31" s="150">
         <v>-34533</v>
       </c>
-      <c r="M31" s="151"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>247452</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>238036</v>
       </c>
-      <c r="E32" s="151">
+      <c r="E32" s="150">
         <v>204743</v>
       </c>
-      <c r="F32" s="151">
+      <c r="F32" s="150">
         <v>198511</v>
       </c>
-      <c r="G32" s="151">
+      <c r="G32" s="150">
         <v>211847</v>
       </c>
-      <c r="H32" s="151">
+      <c r="H32" s="150">
         <v>202355</v>
       </c>
-      <c r="I32" s="151">
+      <c r="I32" s="150">
         <v>219432</v>
       </c>
-      <c r="J32" s="151">
+      <c r="J32" s="150">
         <v>209651</v>
       </c>
-      <c r="K32" s="151">
+      <c r="K32" s="150">
         <v>177858</v>
       </c>
-      <c r="L32" s="151">
+      <c r="L32" s="150">
         <v>173981</v>
       </c>
-      <c r="M32" s="151"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>282519</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>243752</v>
       </c>
-      <c r="E33" s="151">
+      <c r="E33" s="150">
         <v>251178</v>
       </c>
-      <c r="F33" s="151">
+      <c r="F33" s="150">
         <v>246493</v>
       </c>
-      <c r="G33" s="151">
+      <c r="G33" s="150">
         <v>296776</v>
       </c>
-      <c r="H33" s="151">
+      <c r="H33" s="150">
         <v>256106</v>
       </c>
-      <c r="I33" s="151">
+      <c r="I33" s="150">
         <v>216227</v>
       </c>
-      <c r="J33" s="151">
+      <c r="J33" s="150">
         <v>172386</v>
       </c>
-      <c r="K33" s="151">
+      <c r="K33" s="150">
         <v>202238</v>
       </c>
-      <c r="L33" s="151">
+      <c r="L33" s="150">
         <v>291729</v>
       </c>
-      <c r="M33" s="151"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.22+0.23</f>
         <v>0.45</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5715942653838958E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>8.2984133759792425E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4352,10 +4356,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4466,7 +4470,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4478,7 +4482,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4500,7 +4504,7 @@
       <c r="C59" s="120">
         <v>61345</v>
       </c>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4572,7 +4576,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4584,7 +4588,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4599,7 +4603,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4653,16 +4657,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>71887</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4760,7 +4764,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4768,19 +4772,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4794,14 +4799,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4813,12 +4818,12 @@
         <f>C25</f>
         <v>3011012</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>3011012</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>3011012</v>
       </c>
@@ -4831,15 +4836,15 @@
         <f>C26</f>
         <v>2597400</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*87.5%</f>
         <v>2634635.5</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>2597400</v>
       </c>
@@ -4852,15 +4857,15 @@
         <f>C27+C28</f>
         <v>147240</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*5.04%</f>
         <v>151755.0048</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*5.04%</f>
         <v>151755.0048</v>
       </c>
@@ -4873,12 +4878,12 @@
         <f>C29</f>
         <v>24063</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>24063</v>
       </c>
@@ -4891,15 +4896,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>35067</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*2%</f>
         <v>60220.24</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*2%</f>
         <v>60220.24</v>
       </c>
@@ -4912,12 +4917,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <v>0</v>
       </c>
     </row>
@@ -4929,12 +4934,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>27574.666666666672</v>
       </c>
@@ -4943,16 +4948,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.45</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>C98*0.8</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.45</v>
       </c>
@@ -5071,17 +5076,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.63</v>
+        <v>5.81</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -5091,40 +5096,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1030408.10511534</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1063351.88112258</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5132,11 +5137,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5147,22 +5152,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0013</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5191,7 +5196,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5202,7 +5207,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5216,11 +5221,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5229,7 +5234,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5240,7 +5245,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5251,10 +5256,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5266,10 +5271,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5291,14 +5296,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.86263355974668987</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5306,7 +5311,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>5.04E-2</v>
       </c>
@@ -5317,7 +5322,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
@@ -5329,46 +5334,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57255897379639908</v>
+        <v>0.59140741657837348</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5408657607927339</v>
+        <v>8.8220280985924919</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.02</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.73208835976624664</v>
       </c>
@@ -5377,16 +5382,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.9816835181438444E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5715942653838958E-2</v>
+        <v>8.2984133759792425E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5405,10 +5410,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5416,22 +5421,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3411347406839624</v>
+        <v>4.0436666134740076</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.421280311485614</v>
+        <v>11.443178591999368</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.7501684175531516</v>
-      </c>
-      <c r="G29" s="273">
+        <v>5.3605540178310314</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.801113314335318</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>9.9505900799994507</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5443,17 +5448,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5463,7 +5468,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5471,17 +5476,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5491,24 +5496,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5518,7 +5523,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5537,10 +5542,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6522,16 +6527,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6545,11 +6550,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85">
@@ -6582,7 +6587,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93">
@@ -6646,47 +6651,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3011012</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3239167</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2614349</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1933836</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>2516810</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2374934</v>
       </c>
-      <c r="I6" s="201">
+      <c r="I6" s="200">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>2015890</v>
       </c>
-      <c r="J6" s="201">
+      <c r="J6" s="200">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>1616903</v>
       </c>
-      <c r="K6" s="201">
+      <c r="K6" s="200">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v>1725428</v>
       </c>
-      <c r="L6" s="201">
+      <c r="L6" s="200">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v>2282962</v>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6748,47 +6753,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2597400</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2804756</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2298168</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>1741508</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2229308</v>
       </c>
-      <c r="H8" s="200">
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2058853</v>
       </c>
-      <c r="I8" s="200">
+      <c r="I8" s="199">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>1780340</v>
       </c>
-      <c r="J8" s="200">
+      <c r="J8" s="199">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>1423553</v>
       </c>
-      <c r="K8" s="200">
+      <c r="K8" s="199">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v>1500674</v>
       </c>
-      <c r="L8" s="200">
+      <c r="L8" s="199">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v>1963128</v>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6799,47 +6804,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>413612</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>434411</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>316181</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>192328</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>287502</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
         <v>316081</v>
       </c>
-      <c r="I9" s="152">
+      <c r="I9" s="151">
         <f t="shared" si="2"/>
         <v>235550</v>
       </c>
-      <c r="J9" s="152">
+      <c r="J9" s="151">
         <f t="shared" si="2"/>
         <v>193350</v>
       </c>
-      <c r="K9" s="152">
+      <c r="K9" s="151">
         <f t="shared" si="2"/>
         <v>224754</v>
       </c>
-      <c r="L9" s="152">
+      <c r="L9" s="151">
         <f t="shared" si="2"/>
         <v>319834</v>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6850,47 +6855,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>125283</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>118875</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>122996</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>126791</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>135865</v>
       </c>
-      <c r="H10" s="200">
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>137231</v>
       </c>
-      <c r="I10" s="200">
+      <c r="I10" s="199">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>143632</v>
       </c>
-      <c r="J10" s="200">
+      <c r="J10" s="199">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>139934</v>
       </c>
-      <c r="K10" s="200">
+      <c r="K10" s="199">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v>142620</v>
       </c>
-      <c r="L10" s="200">
+      <c r="L10" s="199">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v>147802</v>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6901,47 +6906,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>21957</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>20016</v>
       </c>
-      <c r="E11" s="200">
+      <c r="E11" s="199">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>16729</v>
       </c>
-      <c r="F11" s="200">
+      <c r="F11" s="199">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v>15746</v>
       </c>
-      <c r="G11" s="200">
+      <c r="G11" s="199">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v>15666</v>
       </c>
-      <c r="H11" s="200">
+      <c r="H11" s="199">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v>12826</v>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6952,47 +6957,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27606.666666666668</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>30034.666666666668</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>19305.333333333332</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>28444</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27925.333333333332</v>
       </c>
-      <c r="I12" s="200">
+      <c r="I12" s="199">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>18660</v>
       </c>
-      <c r="J12" s="200">
+      <c r="J12" s="199">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>28685.333333333332</v>
       </c>
-      <c r="K12" s="200">
+      <c r="K12" s="199">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8948</v>
       </c>
-      <c r="L12" s="200">
+      <c r="L12" s="199">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>15814.666666666666</v>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -7000,50 +7005,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>8.2710565195722632E-2</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>5.6006804498302767E-2</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>1.5764349544980374E-2</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>4.2723527004422265E-2</v>
       </c>
-      <c r="H13" s="230">
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
         <v>5.8148422931612695E-2</v>
       </c>
-      <c r="I13" s="230">
+      <c r="I13" s="229">
         <f t="shared" si="3"/>
         <v>3.6340276503182216E-2</v>
       </c>
-      <c r="J13" s="230">
+      <c r="J13" s="229">
         <f t="shared" si="3"/>
         <v>1.5295083667150515E-2</v>
       </c>
-      <c r="K13" s="230">
+      <c r="K13" s="229">
         <f t="shared" si="3"/>
         <v>4.2416142545501752E-2</v>
       </c>
-      <c r="L13" s="230">
+      <c r="L13" s="229">
         <f t="shared" si="3"/>
         <v>6.8427478570967606E-2</v>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7051,50 +7056,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>267913.33333333331</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>146421.33333333334</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>30485.666666666668</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>107527</v>
       </c>
-      <c r="H14" s="231">
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
         <v>138098.66666666666</v>
       </c>
-      <c r="I14" s="231">
+      <c r="I14" s="230">
         <f t="shared" si="4"/>
         <v>73258</v>
       </c>
-      <c r="J14" s="231">
+      <c r="J14" s="230">
         <f t="shared" si="4"/>
         <v>24730.666666666668</v>
       </c>
-      <c r="K14" s="231">
+      <c r="K14" s="230">
         <f t="shared" si="4"/>
         <v>73186</v>
       </c>
-      <c r="L14" s="231">
+      <c r="L14" s="230">
         <f t="shared" si="4"/>
         <v>156217.33333333334</v>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7102,50 +7107,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.10867693532734456</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.82974247832738368</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>3.8029565806881922</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>-0.71648361186802689</v>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
         <v>-0.22137553826249826</v>
       </c>
-      <c r="H15" s="233">
+      <c r="H15" s="232">
         <f t="shared" si="5"/>
         <v>0.8851001483341977</v>
       </c>
-      <c r="I15" s="233">
+      <c r="I15" s="232">
         <f t="shared" si="5"/>
         <v>1.9622331248652143</v>
       </c>
-      <c r="J15" s="233">
+      <c r="J15" s="232">
         <f t="shared" si="5"/>
         <v>-0.66208473387442035</v>
       </c>
-      <c r="K15" s="233">
+      <c r="K15" s="232">
         <f t="shared" si="5"/>
         <v>-0.53151165470327666</v>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7156,47 +7161,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-13105</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>46237</v>
       </c>
-      <c r="E16" s="200">
+      <c r="E16" s="199">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>27617</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="199">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-71716</v>
       </c>
-      <c r="G16" s="200">
+      <c r="G16" s="199">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-28895</v>
       </c>
-      <c r="H16" s="200">
+      <c r="H16" s="199">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-2436</v>
       </c>
-      <c r="I16" s="200">
+      <c r="I16" s="199">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v>-64518</v>
       </c>
-      <c r="J16" s="200">
+      <c r="J16" s="199">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v>-5969</v>
       </c>
-      <c r="K16" s="200">
+      <c r="K16" s="199">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v>-4437</v>
       </c>
-      <c r="L16" s="200">
+      <c r="L16" s="199">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v>-34533</v>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7207,47 +7212,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>24063</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21554</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>19739</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>26528</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>30409</v>
       </c>
-      <c r="H17" s="200">
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>22718</v>
       </c>
-      <c r="I17" s="200">
+      <c r="I17" s="199">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>21648</v>
       </c>
-      <c r="J17" s="200">
+      <c r="J17" s="199">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>20652</v>
       </c>
-      <c r="K17" s="200">
+      <c r="K17" s="199">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v>23826</v>
       </c>
-      <c r="L17" s="200">
+      <c r="L17" s="199">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v>24877</v>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7258,47 +7263,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>8.2182336038514631E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>7.3486794598734792E-2</v>
       </c>
-      <c r="E18" s="153">
+      <c r="E18" s="152">
         <f t="shared" si="6"/>
         <v>7.8315098710998413E-2</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="152">
         <f t="shared" si="6"/>
         <v>0.1026514140806149</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="152">
         <f t="shared" si="6"/>
         <v>8.41728219452402E-2</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="152">
         <f t="shared" si="6"/>
         <v>8.5204473050619511E-2</v>
       </c>
-      <c r="I18" s="153">
+      <c r="I18" s="152">
         <f t="shared" si="6"/>
         <v>0.10885117739559202</v>
       </c>
-      <c r="J18" s="153">
+      <c r="J18" s="152">
         <f t="shared" si="6"/>
         <v>0.12966207620370548</v>
       </c>
-      <c r="K18" s="153">
+      <c r="K18" s="152">
         <f t="shared" si="6"/>
         <v>0.10308051103842061</v>
       </c>
-      <c r="L18" s="153">
+      <c r="L18" s="152">
         <f t="shared" si="6"/>
         <v>7.6208452002267224E-2</v>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7309,47 +7314,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>247452</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>238036</v>
       </c>
-      <c r="E19" s="200">
+      <c r="E19" s="199">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>204743</v>
       </c>
-      <c r="F19" s="200">
+      <c r="F19" s="199">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>198511</v>
       </c>
-      <c r="G19" s="200">
+      <c r="G19" s="199">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>211847</v>
       </c>
-      <c r="H19" s="200">
+      <c r="H19" s="199">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>202355</v>
       </c>
-      <c r="I19" s="200">
+      <c r="I19" s="199">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v>219432</v>
       </c>
-      <c r="J19" s="200">
+      <c r="J19" s="199">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v>209651</v>
       </c>
-      <c r="K19" s="200">
+      <c r="K19" s="199">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v>177858</v>
       </c>
-      <c r="L19" s="200">
+      <c r="L19" s="199">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v>173981</v>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7360,47 +7365,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>9.3828586535025432E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>7.525144581924921E-2</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>9.6076690602517112E-2</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>0.1274632388682391</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0.11791752257818429</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
         <v>0.10783710199946608</v>
       </c>
-      <c r="I20" s="153">
+      <c r="I20" s="152">
         <f t="shared" si="7"/>
         <v>0.10726130890078328</v>
       </c>
-      <c r="J20" s="153">
+      <c r="J20" s="152">
         <f t="shared" si="7"/>
         <v>0.10661492989993834</v>
       </c>
-      <c r="K20" s="153">
+      <c r="K20" s="152">
         <f t="shared" si="7"/>
         <v>0.1172103385362936</v>
       </c>
-      <c r="L20" s="153">
+      <c r="L20" s="152">
         <f t="shared" si="7"/>
         <v>0.12778530698277063</v>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7411,47 +7416,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>282519</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>243752</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="199">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>251178</v>
       </c>
-      <c r="F21" s="200">
+      <c r="F21" s="199">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>246493</v>
       </c>
-      <c r="G21" s="200">
+      <c r="G21" s="199">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>296776</v>
       </c>
-      <c r="H21" s="200">
+      <c r="H21" s="199">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>256106</v>
       </c>
-      <c r="I21" s="200">
+      <c r="I21" s="199">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v>216227</v>
       </c>
-      <c r="J21" s="200">
+      <c r="J21" s="199">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v>172386</v>
       </c>
-      <c r="K21" s="200">
+      <c r="K21" s="199">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v>202238</v>
       </c>
-      <c r="L21" s="200">
+      <c r="L21" s="199">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v>291729</v>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7462,47 +7467,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>179667.33333333334</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>194406.33333333331</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>52630.333333333343</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>-44024.333333333328</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>-7811</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
         <v>61629.666666666657</v>
       </c>
-      <c r="I22" s="162">
+      <c r="I22" s="161">
         <f t="shared" si="8"/>
         <v>48405</v>
       </c>
-      <c r="J22" s="162">
+      <c r="J22" s="161">
         <f t="shared" si="8"/>
         <v>-33186.333333333328</v>
       </c>
-      <c r="K22" s="162">
+      <c r="K22" s="161">
         <f t="shared" si="8"/>
         <v>24980</v>
       </c>
-      <c r="L22" s="162">
+      <c r="L22" s="161">
         <f t="shared" si="8"/>
         <v>13592.333333333343</v>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7513,47 +7518,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.4752561597230435E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>4.5013038846098398E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>1.50985006209959E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>-1.7073965941269063E-2</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>-2.32764888887123E-3</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
         <v>1.9462540853766881E-2</v>
       </c>
-      <c r="I23" s="154">
+      <c r="I23" s="153">
         <f t="shared" si="9"/>
         <v>1.8008795122749752E-2</v>
       </c>
-      <c r="J23" s="154">
+      <c r="J23" s="153">
         <f t="shared" si="9"/>
         <v>-1.539347134614754E-2</v>
       </c>
-      <c r="K23" s="154">
+      <c r="K23" s="153">
         <f t="shared" si="9"/>
         <v>1.0858175478779758E-2</v>
       </c>
-      <c r="L23" s="154">
+      <c r="L23" s="153">
         <f t="shared" si="9"/>
         <v>4.4653612280887755E-3</v>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7564,7 +7569,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>134750.5</v>
       </c>
@@ -7612,50 +7617,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-7.5815431253097032E-2</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.6938077534501645</v>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>-4.6361968164554259</v>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="H25" s="234">
+      <c r="H25" s="233">
         <f t="shared" si="10"/>
         <v>0.27320869056226954</v>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="K25" s="234">
+      <c r="K25" s="233">
         <f t="shared" si="10"/>
         <v>0.83780072099467706</v>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7772,43 +7777,43 @@
         <f>Fin_Analysis!C28</f>
         <v>672371</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7823,43 +7828,43 @@
         <f>Fin_Analysis!C13</f>
         <v>142879</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7874,43 +7879,43 @@
         <f>Fin_Analysis!C18</f>
         <v>182674</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7925,43 +7930,43 @@
         <f>Fin_Analysis!I28</f>
         <v>716641</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7976,43 +7981,43 @@
         <f>Fin_Analysis!I48</f>
         <v>373503</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -8027,43 +8032,43 @@
         <f>Fin_Analysis!I15</f>
         <v>52418</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -8078,43 +8083,43 @@
         <f>Fin_Analysis!I34</f>
         <v>81126</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8180,43 +8185,43 @@
         <f>Fin_Analysis!D3</f>
         <v>1678153</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8231,43 +8236,43 @@
         <f>Fin_Analysis!D4</f>
         <v>188249</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8282,43 +8287,43 @@
         <f>Fin_Analysis!C63</f>
         <v>541381</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8380,47 +8385,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.10723230392764403</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8449,47 +8454,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.86588805084764076</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.87905937577576676</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.90054585807690002</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.88576730067029297</v>
       </c>
-      <c r="H42" s="157">
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
         <v>0.86690956464474378</v>
       </c>
-      <c r="I42" s="157">
+      <c r="I42" s="156">
         <f t="shared" si="34"/>
         <v>0.88315334666078005</v>
       </c>
-      <c r="J42" s="157">
+      <c r="J42" s="156">
         <f t="shared" si="34"/>
         <v>0.88041954279261037</v>
       </c>
-      <c r="K42" s="157">
+      <c r="K42" s="156">
         <f t="shared" si="34"/>
         <v>0.86974014563343127</v>
       </c>
-      <c r="L42" s="157">
+      <c r="L42" s="156">
         <f t="shared" si="34"/>
         <v>0.85990393182190505</v>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8500,47 +8505,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>4.2878616631992113E-2</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>5.3445427523257226E-2</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>7.3706870696377561E-2</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>6.0207564337395353E-2</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
         <v>6.3183650577237099E-2</v>
       </c>
-      <c r="I43" s="154">
+      <c r="I43" s="153">
         <f t="shared" si="35"/>
         <v>7.1249919390442937E-2</v>
       </c>
-      <c r="J43" s="154">
+      <c r="J43" s="153">
         <f t="shared" si="35"/>
         <v>8.6544461850834586E-2</v>
       </c>
-      <c r="K43" s="154">
+      <c r="K43" s="153">
         <f t="shared" si="35"/>
         <v>8.265775216352117E-2</v>
       </c>
-      <c r="L43" s="154">
+      <c r="L43" s="153">
         <f t="shared" si="35"/>
         <v>6.4741331655980255E-2</v>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8551,47 +8556,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>1.4274348929832885E-2</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>1.0563624060903882E-2</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I44" s="154">
+      <c r="I44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J44" s="154">
+      <c r="J44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K44" s="154">
+      <c r="K44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L44" s="154">
+      <c r="L44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8602,47 +8607,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>6.6541799172441553E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>7.5502543845523303E-3</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>1.3717812679048275E-2</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>1.2082358223306488E-2</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
         <v>9.5657395110769396E-3</v>
       </c>
-      <c r="I45" s="154">
+      <c r="I45" s="153">
         <f t="shared" si="37"/>
         <v>1.0738681178040468E-2</v>
       </c>
-      <c r="J45" s="154">
+      <c r="J45" s="153">
         <f t="shared" si="37"/>
         <v>1.2772565824913431E-2</v>
       </c>
-      <c r="K45" s="154">
+      <c r="K45" s="153">
         <f t="shared" si="37"/>
         <v>1.3808747742589085E-2</v>
       </c>
-      <c r="L45" s="154">
+      <c r="L45" s="153">
         <f t="shared" si="37"/>
         <v>1.0896808619679172E-2</v>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8653,47 +8658,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>8.522767324644475E-3</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>1.1488392202673272E-2</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>9.9829216817420574E-3</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>1.1301607987889432E-2</v>
       </c>
-      <c r="H46" s="154">
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
         <v>1.1758361846406398E-2</v>
       </c>
-      <c r="I46" s="154">
+      <c r="I46" s="153">
         <f t="shared" si="38"/>
         <v>9.2564574455947495E-3</v>
       </c>
-      <c r="J46" s="154">
+      <c r="J46" s="153">
         <f t="shared" si="38"/>
         <v>1.774091168940458E-2</v>
       </c>
-      <c r="K46" s="154">
+      <c r="K46" s="153">
         <f t="shared" si="38"/>
         <v>5.1859596575458376E-3</v>
       </c>
-      <c r="L46" s="154">
+      <c r="L46" s="153">
         <f t="shared" si="38"/>
         <v>6.9272579511470917E-3</v>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8704,47 +8709,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>1.76465122051441E-3</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>1.7761591891518692E-2</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>2.4811824787624184E-2</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>3.3744700632944082E-2</v>
       </c>
-      <c r="H47" s="154">
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
         <v>2.263262894884658E-2</v>
       </c>
-      <c r="I47" s="154">
+      <c r="I47" s="153">
         <f t="shared" si="39"/>
         <v>1.5898684948087445E-3</v>
       </c>
-      <c r="J47" s="154">
+      <c r="J47" s="153">
         <f t="shared" si="39"/>
         <v>2.3047146303767141E-2</v>
       </c>
-      <c r="K47" s="154">
+      <c r="K47" s="153">
         <f t="shared" si="39"/>
         <v>1.4129827497872992E-2</v>
       </c>
-      <c r="L47" s="154">
+      <c r="L47" s="153">
         <f t="shared" si="39"/>
         <v>5.1576854980503399E-2</v>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8755,47 +8760,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>5.9670082129640582E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>6.0017385128131186E-2</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>2.0131334161327865E-2</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>-2.2765287921692082E-2</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>-3.1035318518283063E-3</v>
       </c>
-      <c r="H48" s="154">
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
         <v>2.5950054471689174E-2</v>
       </c>
-      <c r="I48" s="154">
+      <c r="I48" s="153">
         <f t="shared" si="40"/>
         <v>2.4011726830333004E-2</v>
       </c>
-      <c r="J48" s="154">
+      <c r="J48" s="153">
         <f t="shared" si="40"/>
         <v>-2.0524628461530053E-2</v>
       </c>
-      <c r="K48" s="154">
+      <c r="K48" s="153">
         <f t="shared" si="40"/>
         <v>1.4477567305039678E-2</v>
       </c>
-      <c r="L48" s="154">
+      <c r="L48" s="153">
         <f t="shared" si="40"/>
         <v>5.9538149707850339E-3</v>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8824,47 +8829,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>4.7452152299625509E-2</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8875,47 +8880,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>6.0668638982508204E-2</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8943,47 +8948,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.39379589689979072</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8993,47 +8998,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>1.3453793007048864</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9043,47 +9048,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.13393085739941596</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.11087087354835834</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>0.37504987618040286</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>-0.6025758482051593</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>-3.8930994750992189</v>
       </c>
-      <c r="H55" s="154">
+      <c r="H55" s="153">
         <f t="shared" si="45"/>
         <v>0.36862117270362221</v>
       </c>
-      <c r="I55" s="154">
+      <c r="I55" s="153">
         <f t="shared" si="45"/>
         <v>0.44722652618531145</v>
       </c>
-      <c r="J55" s="154">
+      <c r="J55" s="153">
         <f t="shared" si="45"/>
         <v>-0.62230436223746732</v>
       </c>
-      <c r="K55" s="154">
+      <c r="K55" s="153">
         <f t="shared" si="45"/>
         <v>0.9538030424339472</v>
       </c>
-      <c r="L55" s="154">
+      <c r="L55" s="153">
         <f t="shared" si="45"/>
         <v>1.8302229197832098</v>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9093,47 +9098,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>0.93822569459464367</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10431,8 +10436,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10481,7 +10486,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>1489904</v>
       </c>
@@ -10525,11 +10530,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696918.24974416092</v>
+        <v>-696278.57863691647</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.415288862066904</v>
+        <v>1.4149076863890935</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10578,7 +10583,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10625,7 +10630,7 @@
         <f>Inputs!C48</f>
         <v>238880</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10653,7 +10658,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10681,7 +10686,7 @@
         <f>Inputs!C50</f>
         <v>142879</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10709,7 +10714,7 @@
         <f>Inputs!C51</f>
         <v>9895</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10722,7 +10727,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>11824</v>
       </c>
@@ -10737,7 +10742,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10764,7 +10769,7 @@
         <f>Inputs!C53</f>
         <v>11851</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10786,7 +10791,7 @@
         <f>Inputs!C54</f>
         <v>24847</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10808,7 +10813,7 @@
         <f>Inputs!C55</f>
         <v>182674</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10829,7 +10834,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10854,7 +10859,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10881,7 +10886,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10902,7 +10907,7 @@
         <f>Inputs!C59</f>
         <v>61345</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -11067,7 +11072,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>716641</v>
       </c>
@@ -11096,7 +11101,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11122,7 +11127,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11149,7 +11154,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11176,7 +11181,7 @@
         <f>Inputs!C63</f>
         <v>693</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11192,7 +11197,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>11000</v>
       </c>
@@ -11206,7 +11211,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11233,7 +11238,7 @@
         <f>Inputs!C65</f>
         <v>292606</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11259,7 +11264,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11286,7 +11291,7 @@
         <f>Inputs!C67</f>
         <v>201156</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11313,7 +11318,7 @@
         <f>Inputs!C68</f>
         <v>1413348</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11334,7 +11339,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11355,7 +11360,7 @@
         <f>Inputs!C70</f>
         <v>91529</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11376,7 +11381,7 @@
         <f>Inputs!C71</f>
         <v>24707</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11397,7 +11402,7 @@
         <f>Inputs!C72</f>
         <v>71887</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11543,7 +11548,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>373503</v>
       </c>
@@ -11652,11 +11657,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11667,11 +11672,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11683,11 +11688,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11783,8 +11788,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>133544</v>
@@ -11864,8 +11869,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>956600</v>
@@ -11901,19 +11906,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11923,18 +11928,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11945,17 +11950,17 @@
         <f>Data!C6</f>
         <v>3011012</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>3011012</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>3011012</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11966,23 +11971,23 @@
         <f>Data!C8</f>
         <v>2597400</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>2634635.5</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.875</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>2597400</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.86263355974668987</v>
       </c>
@@ -11992,21 +11997,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>413612</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>376376.5</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>413612</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12017,23 +12022,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>147240</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>151755.0048</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>5.04E-2</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>151755.0048</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>5.04E-2</v>
       </c>
@@ -12047,54 +12052,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>27574.666666666672</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>27574.666666666672</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>9.1579398111554088E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>197046.82853333332</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>6.5442060188844589E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>234282.32853333332</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>7.7808500442154774E-2</v>
       </c>
@@ -12108,27 +12113,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12140,23 +12145,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>24063</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>24063</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>24063</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>7.9916652607163307E-3</v>
       </c>
@@ -12170,23 +12175,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>35067</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>60220.24</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>60220.24</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0.02</v>
       </c>
@@ -12196,27 +12201,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>179667.33333333334</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>5.9670082129640582E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>112763.58853333333</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>3.745039492812826E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>149999.08853333333</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>4.9816835181438444E-2</v>
       </c>
@@ -12226,49 +12231,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>134750.5</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>4.4752561597230435E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>84572.691399999996</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>2.8087796196096197E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>112499.3164</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>3.7362626386078832E-2</v>
       </c>
@@ -12278,69 +12283,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.73625713077546118</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.46209288360430956</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.61467990031105468</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14024216444450988</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.13577257827082634</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8019393581720173E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>8.5214172583262693E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11708414907895512</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.11335262014859653</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.45</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.61119951330867051</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.77906415089540371</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.45</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.73208835976624664</v>
       </c>
@@ -12350,21 +12355,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5715942653838958E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>8.2984133759792425E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8572754123071178E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.6387307007833948E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5715942653838958E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>8.2984133759792425E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12386,22 +12391,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12411,9 +12416,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12421,15 +12426,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>10.95016993864426</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>10.349818928390933</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.61830996544505</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>15.647280820154364</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12437,24 +12442,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.7952739036893819</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>7.3876025656782893</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.55120315250875</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>9.9758330200229057</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12475,14 +12483,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12497,21 +12505,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1512162.7120535336</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>1423805.1071659741</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.4441697410566281</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>5.1456891857458489</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.2622370947950063</v>
+        <v>7.7794639944598947</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.904148314707983</v>
+        <v>11.052612652271293</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12521,16 +12529,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201878.5443356832</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>201693.24875470003</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1030350003726652</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>1.1020225722718417</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12541,17 +12549,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12560,27 +12568,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1310284.1677178505</v>
+        <v>1222111.8584112742</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3411347406839624</v>
+        <v>4.0436666134740076</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.3411347406839624</v>
+        <v>4.0436666134740076</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.7501684175531516</v>
+        <v>5.3605540178310314</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.1592020944223416</v>
+        <v>6.6774414221880543</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.801113314335318</v>
+        <v>9.9505900799994507</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12599,14 +12607,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12621,27 +12629,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>960093.77654535358</v>
+        <v>907738.67775471113</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8756288301922428</v>
+        <v>3.668895892675955</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.8756288301922428</v>
+        <v>3.672944125285202</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5607207835127834</v>
+        <v>4.3163481090305353</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.2458127368333241</v>
+        <v>4.9597520927758678</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.5581143622455507</v>
+        <v>7.0465290117393815</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12660,14 +12668,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12682,27 +12690,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>751920.05162054219</v>
+        <v>706150.82142429496</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.1083817854381026</v>
+        <v>3.8562812530749815</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.1083817854381026</v>
+        <v>3.8583053693796048</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.1554446005329675</v>
+        <v>4.8384510634307833</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.2025074156278333</v>
+        <v>5.818596757481961</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.1796138382904342</v>
+        <v>8.4985595458694156</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F34F68-756D-47F8-BDF7-6EE0897FA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{250710F3-26DC-41C9-9925-217F95125142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>中國石油股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0013</t>
@@ -3583,7 +3586,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3636,7 +3639,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3645,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3661,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3693,7 +3696,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3710,7 +3713,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3719,7 +3722,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3728,7 +3731,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3737,7 +3740,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3755,7 +3758,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4309,7 +4312,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2984133759792425E-2</v>
+        <v>8.323863200250381E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4775,7 +4778,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -5086,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.81</v>
+        <v>5.78</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5127,7 +5132,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1063351.88112258</v>
+        <v>1057861.2517880399</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5165,7 +5170,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5176,7 +5181,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5222,10 +5227,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5272,7 +5277,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5343,7 +5348,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.59140741657837348</v>
+        <v>0.58959921593133324</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5359,7 +5364,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.8220280985924919</v>
+        <v>8.7950551583335184</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5391,7 +5396,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2984133759792425E-2</v>
+        <v>8.323863200250381E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5421,20 +5426,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0436666134740076</v>
+        <v>4.0413100223912055</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.443178591999368</v>
+        <v>10.317336748238674</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3605540178310314</v>
+        <v>5.3583862257870241</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.9505900799994507</v>
+        <v>8.9715971723814558</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10530,11 +10535,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696278.57863691647</v>
+        <v>-694807.67854129465</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4149076863890935</v>
+        <v>1.4140311869902771</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12306,17 +12311,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13577257827082634</v>
+        <v>0.13618896970630653</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5214172583262693E-2</v>
+        <v>8.5475509976255443E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11335262014859653</v>
+        <v>0.11370025338072802</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12357,17 +12362,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2984133759792425E-2</v>
+        <v>8.323863200250381E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6387307007833948E-2</v>
+        <v>6.659090560200305E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2984133759792425E-2</v>
+        <v>8.323863200250381E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12416,7 +12421,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12427,14 +12432,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.349818928390933</v>
+        <v>10.340396459898232</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.647280820154364</v>
+        <v>15.638617836269015</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12448,21 +12453,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3876025656782893</v>
+        <v>7.3790362632743367</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9758330200229057</v>
+        <v>9.9664611077881897</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12505,21 +12510,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1423805.1071659741</v>
+        <v>1423016.8295833687</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1456891857458489</v>
+        <v>5.1410045536221967</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7794639944598947</v>
+        <v>7.7751569604138346</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.052612652271293</v>
+        <v>10.071291703612447</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12529,14 +12534,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201693.24875470003</v>
+        <v>201267.16840700308</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1020225722718417</v>
+        <v>1.0996945312309909</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12568,27 +12573,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1222111.8584112742</v>
+        <v>1221749.6611763656</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0436666134740076</v>
+        <v>4.0413100223912055</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.0436666134740076</v>
+        <v>4.0413100223912055</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.3605540178310314</v>
+        <v>5.3583862257870241</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.6774414221880543</v>
+        <v>6.6754624291828426</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>9.9505900799994507</v>
+        <v>8.9715971723814558</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12629,27 +12634,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>907738.67775471113</v>
+        <v>906885.89210734726</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.668895892675955</v>
+        <v>3.6651055459047233</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.672944125285202</v>
+        <v>3.6686851590224272</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3163481090305353</v>
+        <v>4.3118888775349689</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9597520927758678</v>
+        <v>4.9550925960475096</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.0465290117393815</v>
+        <v>6.4184148573829667</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12690,27 +12695,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>706150.82142429496</v>
+        <v>705545.42853719566</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.8562812530749815</v>
+        <v>3.8532077841479646</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8583053693796048</v>
+        <v>3.8549975907068164</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.8384510634307833</v>
+        <v>4.8351375516609965</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.818596757481961</v>
+        <v>5.8152775126151761</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.4985595458694156</v>
+        <v>7.6950060148822113</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{250710F3-26DC-41C9-9925-217F95125142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3873AAE5-745B-48AD-A434-240F691D8155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.323863200250381E-2</v>
+        <v>8.3495796863086502E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1057861.2517880399</v>
+        <v>1056031.0420098598</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5181,7 +5181,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58959921593133324</v>
+        <v>0.58778326583730289</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7950551583335184</v>
+        <v>8.7679666195257653</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.323863200250381E-2</v>
+        <v>8.3495796863086502E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5426,20 +5426,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0413100223912055</v>
+        <v>4.0530471803918058</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.317336748238674</v>
+        <v>10.349608665206238</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3583862257870241</v>
+        <v>5.3749173700788084</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.9715971723814558</v>
+        <v>8.9996597088749901</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10535,11 +10535,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-694807.67854129465</v>
+        <v>-695748.47615863464</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4140311869902771</v>
+        <v>1.4145918019147448</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12311,17 +12311,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13618896970630653</v>
+        <v>0.13660972406717073</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5475509976255443E-2</v>
+        <v>8.5739585647340688E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11370025338072802</v>
+        <v>0.11405152909376465</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12362,17 +12362,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.323863200250381E-2</v>
+        <v>8.3495796863086502E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.659090560200305E-2</v>
+        <v>6.6796637490469213E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.323863200250381E-2</v>
+        <v>8.3495796863086502E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12432,14 +12432,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.340396459898232</v>
+        <v>10.366999049693691</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.638617836269015</v>
+        <v>15.684505263631573</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12460,14 +12460,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3790362632743367</v>
+        <v>7.3961567753837851</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9664611077881897</v>
+        <v>9.991808116731919</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12510,21 +12510,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1423016.8295833687</v>
+        <v>1427192.2996975987</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1410045536221967</v>
+        <v>5.1542307423671829</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7751569604138346</v>
+        <v>7.7979711217411891</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.071291703612447</v>
+        <v>10.100843270850367</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12534,14 +12534,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201267.16840700308</v>
+        <v>201539.69226984182</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.0996945312309909</v>
+        <v>1.1011835619753776</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12573,27 +12573,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1221749.6611763656</v>
+        <v>1225652.6074277568</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0413100223912055</v>
+        <v>4.0530471803918058</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.0413100223912055</v>
+        <v>4.0530471803918058</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.3583862257870241</v>
+        <v>5.3749173700788084</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.6754624291828426</v>
+        <v>6.6967875597658111</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>8.9715971723814558</v>
+        <v>8.9996597088749901</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12634,27 +12634,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>906885.89210734726</v>
+        <v>909192.31206620554</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6651055459047233</v>
+        <v>3.6740789378809309</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.6686851590224272</v>
+        <v>3.6771970793396376</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3118888775349689</v>
+        <v>4.3224458092716835</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9550925960475096</v>
+        <v>4.9676945392037295</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.4184148573829667</v>
+        <v>6.4347383665037237</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12695,27 +12695,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>705545.42853719566</v>
+        <v>707398.4315940151</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.8532077841479646</v>
+        <v>3.8635630591363683</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8549975907068164</v>
+        <v>3.8651221298657217</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.8351375516609965</v>
+        <v>4.8486815896752464</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.8152775126151761</v>
+        <v>5.8322410494847698</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.6950060148822113</v>
+        <v>7.7171990376893564</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3873AAE5-745B-48AD-A434-240F691D8155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08808A93-8864-4EDF-BB45-6E52B54BA654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0857.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3586,7 +3594,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3607,7 +3615,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3615,7 +3623,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3639,7 +3647,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3648,7 +3656,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3664,7 +3672,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3696,7 +3704,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3713,7 +3721,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3722,7 +3730,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3731,7 +3739,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3740,7 +3748,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3758,7 +3766,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4312,7 +4320,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3495796863086502E-2</v>
+        <v>8.2960272409829755E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4441,7 +4449,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -4561,7 +4569,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -5091,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.77</v>
+        <v>5.81</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5132,7 +5140,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1056031.0420098598</v>
+        <v>1063351.88112258</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5181,7 +5189,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,10 +5235,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5277,7 +5285,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5348,7 +5356,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58778326583730289</v>
+        <v>0.59157751943516956</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5364,7 +5372,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7679666195257653</v>
+        <v>8.8245655239616028</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5396,7 +5404,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3495796863086502E-2</v>
+        <v>8.2960272409829755E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5426,20 +5434,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0530471803918058</v>
+        <v>5.0196377536614598</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.349608665206238</v>
+        <v>13.267585977863188</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3749173700788084</v>
+        <v>6.5860601606582323</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.9996597088749901</v>
+        <v>11.537031285098426</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10535,11 +10543,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-695748.47615863464</v>
+        <v>-696078.36992130277</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4145918019147448</v>
+        <v>1.4147883833722568</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12311,17 +12319,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13660972406717073</v>
+        <v>0.13573353807291536</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5739585647340688E-2</v>
+        <v>8.5189670005460599E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11405152909376465</v>
+        <v>0.11332002661033798</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12362,17 +12370,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3495796863086502E-2</v>
+        <v>8.2960272409829755E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6796637490469213E-2</v>
+        <v>6.6368217927863807E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3495796863086502E-2</v>
+        <v>8.2960272409829755E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12421,7 +12429,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12432,14 +12440,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.366999049693691</v>
+        <v>12.312208143582248</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.684505263631573</v>
+        <v>18.613478077530264</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12460,14 +12468,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3961567753837851</v>
+        <v>8.788542930702425</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.991808116731919</v>
+        <v>11.867344585597133</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12510,21 +12518,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1427192.2996975987</v>
+        <v>1693710.5848304217</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.1542307423671829</v>
+        <v>6.1213434491392409</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7979711217411891</v>
+        <v>9.2541882631327859</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.100843270850367</v>
+        <v>12.638736980576207</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12534,14 +12542,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201539.69226984182</v>
+        <v>201635.25365400314</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1011835619753776</v>
+        <v>1.1017056954777806</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12573,27 +12581,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1225652.6074277568</v>
+        <v>1492075.3311764186</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0530471803918058</v>
+        <v>5.0196377536614598</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.0530471803918058</v>
+        <v>5.0196377536614598</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.3749173700788084</v>
+        <v>6.5860601606582323</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.6967875597658111</v>
+        <v>8.1524825676550048</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>8.9996597088749901</v>
+        <v>11.537031285098426</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12634,27 +12642,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>909192.31206620554</v>
+        <v>1079854.4503469183</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6740789378809309</v>
+        <v>4.3645913560180691</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.6771970793396376</v>
+        <v>4.3694590823154966</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3224458092716835</v>
+        <v>5.1348133600212584</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9676945392037295</v>
+        <v>5.9001676377270194</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.4347383665037237</v>
+        <v>8.0580451568742237</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12695,27 +12703,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>707398.4315940151</v>
+        <v>859200.84187419631</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.8635630591363683</v>
+        <v>4.6921145548397645</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8651221298657217</v>
+        <v>4.6945484179884787</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.8486815896752464</v>
+        <v>5.8604367603397449</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.8322410494847698</v>
+        <v>7.0263251026910121</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.7171990376893564</v>
+        <v>9.7975382209863255</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08808A93-8864-4EDF-BB45-6E52B54BA654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ADC204-5612-4F1F-8015-1C8F4917AD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3593,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3615,7 +3619,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3623,7 +3627,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3647,7 +3651,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3656,7 +3660,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3672,7 +3676,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +3725,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3730,7 +3734,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3739,7 +3743,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3748,7 +3752,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3766,7 +3770,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2960272409829755E-2</v>
+        <v>8.3328577267669887E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5099,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.81</v>
+        <v>5.78</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5140,7 +5144,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1063351.88112258</v>
+        <v>1057861.2517880399</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5189,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5210,7 +5214,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5221,7 +5225,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5248,7 +5252,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5356,7 +5360,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.59157751943516956</v>
+        <v>0.5889627997154615</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5372,7 +5376,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.8245655239616028</v>
+        <v>8.785561733696909</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5404,7 +5408,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2960272409829755E-2</v>
+        <v>8.3328577267669887E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5434,20 +5438,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0196377536614598</v>
+        <v>5.0265548703502718</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.267585977863188</v>
+        <v>13.290520952910168</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.5860601606582323</v>
+        <v>6.5969302796741633</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.537031285098426</v>
+        <v>11.556974741661016</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5482,8 +5486,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6509,12 +6513,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8940,118 +8944,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>5.743902171769192E-2</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>7.400074901811407E-2</v>
+      </c>
+      <c r="E52" s="153">
+        <f t="shared" si="43"/>
+        <v>4.0582619288683681E-2</v>
+      </c>
+      <c r="F52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.12301749306144014</v>
+      </c>
+      <c r="G52" s="153">
+        <f t="shared" si="43"/>
+        <v>-0.2036637627223773</v>
+      </c>
+      <c r="H52" s="153">
+        <f t="shared" si="43"/>
+        <v>-6.7846837713483581E-3</v>
+      </c>
+      <c r="I52" s="153">
+        <f t="shared" si="43"/>
+        <v>-0.16170451668851366</v>
+      </c>
+      <c r="J52" s="153">
+        <f t="shared" si="43"/>
+        <v>5.5001151808339095E-2</v>
+      </c>
+      <c r="K52" s="153">
+        <f t="shared" si="43"/>
+        <v>7.9582590478786946E-3</v>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.39379589689979072</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.3453793007048864</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9059,107 +9064,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.13393085739941596</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.3453793007048864</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.11087087354835834</v>
-      </c>
-      <c r="E55" s="153">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.37504987618040286</v>
-      </c>
-      <c r="F55" s="153">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-0.6025758482051593</v>
-      </c>
-      <c r="G55" s="153">
+        <v/>
+      </c>
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-3.8930994750992189</v>
-      </c>
-      <c r="H55" s="153">
+        <v/>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.36862117270362221</v>
-      </c>
-      <c r="I55" s="153">
+        <v/>
+      </c>
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.44722652618531145</v>
-      </c>
-      <c r="J55" s="153">
+        <v/>
+      </c>
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-0.62230436223746732</v>
-      </c>
-      <c r="K55" s="153">
+        <v/>
+      </c>
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.9538030424339472</v>
-      </c>
-      <c r="L55" s="153">
+        <v/>
+      </c>
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>1.8302229197832098</v>
-      </c>
-      <c r="M55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.13393085739941596</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.11087087354835834</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.37504987618040286</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>-0.6025758482051593</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>-3.8930994750992189</v>
+      </c>
+      <c r="H56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.36862117270362221</v>
+      </c>
+      <c r="I56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.44722652618531145</v>
+      </c>
+      <c r="J56" s="153">
+        <f t="shared" si="46"/>
+        <v>-0.62230436223746732</v>
+      </c>
+      <c r="K56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.9538030424339472</v>
+      </c>
+      <c r="L56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.8302229197832098</v>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>0.93822569459464367</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9727,7 +9779,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10410,6 +10464,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10543,11 +10598,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-696078.36992130277</v>
+        <v>-695558.46768069256</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4147883833722568</v>
+        <v>1.4144785771504103</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12319,17 +12374,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13573353807291536</v>
+        <v>0.13633613157932434</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5189670005460599E-2</v>
+        <v>8.5567872347249094E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11332002661033798</v>
+        <v>0.11382311459545186</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12370,17 +12425,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2960272409829755E-2</v>
+        <v>8.3328577267669887E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6368217927863807E-2</v>
+        <v>6.6662861814135915E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2960272409829755E-2</v>
+        <v>8.3328577267669887E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12440,14 +12495,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.312208143582248</v>
+        <v>12.324465858404666</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.613478077530264</v>
+        <v>18.641637591638396</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12468,14 +12523,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.788542930702425</v>
+        <v>8.7941180229724072</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.867344585597133</v>
+        <v>11.878659367012872</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12518,21 +12573,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1693710.5848304217</v>
+        <v>1696272.9252436406</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.1213434491392409</v>
+        <v>6.127437699776868</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.2541882631327859</v>
+        <v>9.2681885184246529</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.638736980576207</v>
+        <v>12.657857571087613</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12542,14 +12597,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>201635.25365400314</v>
+        <v>201484.65190470219</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1017056954777806</v>
+        <v>1.1008828294265964</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12581,27 +12636,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1492075.3311764186</v>
+        <v>1494788.2733389384</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.0196377536614598</v>
+        <v>5.0265548703502718</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>5.0196377536614598</v>
+        <v>5.0265548703502718</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.5860601606582323</v>
+        <v>6.5969302796741633</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.1524825676550048</v>
+        <v>8.1673056889980558</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.537031285098426</v>
+        <v>11.556974741661016</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12642,27 +12697,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1079854.4503469183</v>
+        <v>1080884.0249900375</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.3645913560180691</v>
+        <v>4.3681601882280026</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3694590823154966</v>
+        <v>4.3722308884892724</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.1348133600212584</v>
+        <v>5.1390119861505914</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9001676377270194</v>
+        <v>5.9057930838119104</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0580451568742237</v>
+        <v>8.0657280061359575</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12703,27 +12758,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>859200.84187419631</v>
+        <v>860087.47994235333</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.6921145548397645</v>
+        <v>4.6973575292891372</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.6945484179884787</v>
+        <v>4.6993928794197721</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.8604367603397449</v>
+        <v>5.8679711329123769</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.0263251026910121</v>
+        <v>7.0365493864049835</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.7975382209863255</v>
+        <v>9.8113513738984857</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ADC204-5612-4F1F-8015-1C8F4917AD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFA3BCA-3F1F-4A11-9B9E-5136CEA334AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3328577267669887E-2</v>
+        <v>8.3297436418830306E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.5889627997154615</v>
+        <v>0.58918298418099357</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.785561733696909</v>
+        <v>8.7888462267339342</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3328577267669887E-2</v>
+        <v>8.3297436418830306E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5438,20 +5438,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0265548703502718</v>
+        <v>5.0237742961029772</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.290520952910168</v>
+        <v>13.28277580579563</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.5969302796741633</v>
+        <v>6.5931294002515823</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.556974741661016</v>
+        <v>11.550239831126635</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10504,8 +10504,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10598,11 +10598,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-695558.46768069256</v>
+        <v>-695298.52947208076</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4144785771504103</v>
+        <v>1.4143236817334777</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12374,17 +12374,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13633613157932434</v>
+        <v>0.13628518119706534</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5567872347249094E-2</v>
+        <v>8.5535894648053182E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11382311459545186</v>
+        <v>0.1137805775868734</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12425,17 +12425,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3328577267669887E-2</v>
+        <v>8.3297436418830306E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6662861814135915E-2</v>
+        <v>6.6637949135064253E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3328577267669887E-2</v>
+        <v>8.3297436418830306E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12495,14 +12495,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.324465858404666</v>
+        <v>12.318045632737395</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.641637591638396</v>
+        <v>18.631112969675613</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12523,14 +12523,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.7941180229724072</v>
+        <v>8.7898050267565946</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.878659367012872</v>
+        <v>11.872513619869014</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12573,21 +12573,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1696272.9252436406</v>
+        <v>1695315.2501898191</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.127437699776868</v>
+        <v>6.124245712939735</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.2681885184246529</v>
+        <v>9.2629559212369479</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.657857571087613</v>
+        <v>12.650711247963393</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12596,15 +12596,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>201484.65190470219</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-201409.35477022329</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1008828294265964</v>
+        <v>-1.100471416836758</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12635,28 +12635,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>1494788.2733389384</v>
+        <f>C97+C98+$C$99</f>
+        <v>1493905.8954195958</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.0265548703502718</v>
+        <v>5.0237742961029772</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>5.0265548703502718</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>5.0237742961029772</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.5969302796741633</v>
+        <v>6.5931294002515823</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.1673056889980558</v>
+        <v>8.1624845044001884</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>11.556974741661016</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>11.550239831126635</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12697,27 +12697,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1080884.0249900375</v>
+        <v>1080324.8002741684</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.3681601882280026</v>
+        <v>4.3659502545794773</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3722308884892724</v>
+        <v>4.3700865671113416</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.1390119861505914</v>
+        <v>5.1364120642111502</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9057930838119104</v>
+        <v>5.9027375613109587</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0657280061359575</v>
+        <v>8.0615549826216633</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12758,27 +12758,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>860087.47994235333</v>
+        <v>859636.80033586302</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.6973575292891372</v>
+        <v>4.6948622753412277</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.6993928794197721</v>
+        <v>4.696930431607159</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.8679711329123769</v>
+        <v>5.8647707322313662</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.0365493864049835</v>
+        <v>7.0326110328555735</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8113513738984857</v>
+        <v>9.8058974068741485</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFA3BCA-3F1F-4A11-9B9E-5136CEA334AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88C6CDC-6C0A-4349-BF5A-61CBAADC61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3297436418830306E-2</v>
+        <v>8.5242001356276798E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.78</v>
+        <v>5.65</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>273</v>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1057861.2517880399</v>
+        <v>1034068.5246717001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58918298418099357</v>
+        <v>0.57574237327851296</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7888462267339342</v>
+        <v>8.5883525505978664</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3297436418830306E-2</v>
+        <v>8.5242001356276798E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5438,20 +5438,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0237742961029772</v>
+        <v>5.0819775558726281</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.28277580579563</v>
+        <v>13.461501985180298</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.5931294002515823</v>
+        <v>6.6790803731267205</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.550239831126635</v>
+        <v>11.705653900156783</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10598,11 +10598,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-695298.52947208076</v>
+        <v>-695526.88567899063</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4143236817334777</v>
+        <v>1.4144597576496247</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12374,17 +12374,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13628518119706534</v>
+        <v>0.13946673631140072</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5535894648053182E-2</v>
+        <v>8.7532716024276466E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1137805775868734</v>
+        <v>0.11643676643553558</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12425,17 +12425,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3297436418830306E-2</v>
+        <v>8.5242001356276798E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6637949135064253E-2</v>
+        <v>6.8193601085021441E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3297436418830306E-2</v>
+        <v>8.5242001356276798E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12495,14 +12495,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.318045632737395</v>
+        <v>12.435840135875692</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.631112969675613</v>
+        <v>18.860528597196726</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12523,14 +12523,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.7898050267565946</v>
+        <v>8.8569982346103462</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.872513619869014</v>
+        <v>11.98338959384162</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12573,21 +12573,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1695315.2501898191</v>
+        <v>1716190.6435493808</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.124245712939735</v>
+        <v>6.1828103994461179</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.2629559212369479</v>
+        <v>9.3770160339543036</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.650711247963393</v>
+        <v>12.806486743730272</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12597,14 +12597,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-201409.35477022329</v>
+        <v>-201475.50344498953</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.100471416836758</v>
+        <v>-1.1008328435734898</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12636,27 +12636,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1493905.8954195958</v>
+        <v>1514715.1401043914</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.0237742961029772</v>
+        <v>5.0819775558726281</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.0237742961029772</v>
+        <v>5.0819775558726281</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.5931294002515823</v>
+        <v>6.6790803731267205</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.1624845044001884</v>
+        <v>8.276183190380813</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.550239831126635</v>
+        <v>11.705653900156783</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12697,27 +12697,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1080324.8002741684</v>
+        <v>1090413.8233970141</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.3659502545794773</v>
+        <v>4.4034934668262888</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3700865671113416</v>
+        <v>4.4034934668262888</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.1364120642111502</v>
+        <v>5.1806779914499828</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9027375613109587</v>
+        <v>5.9578625160736767</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0615549826216633</v>
+        <v>8.1368408731289623</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12758,27 +12758,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>859636.80033586302</v>
+        <v>868020.09081933007</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.6948622753412277</v>
+        <v>4.7427355113494585</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.696930431607159</v>
+        <v>4.7427355113494585</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.8647707322313662</v>
+        <v>5.9298791822883512</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.0326110328555735</v>
+        <v>7.1170228532272448</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8058974068741485</v>
+        <v>9.9212473866428716</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88C6CDC-6C0A-4349-BF5A-61CBAADC61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE0AE38-D86D-4E64-86E7-DA870F1A9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5242001356276798E-2</v>
+        <v>8.523403859771457E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,10 +5239,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5289,7 +5289,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57574237327851296</v>
+        <v>0.57579616044603288</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5883525505978664</v>
+        <v>8.5891548941091305</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5242001356276798E-2</v>
+        <v>8.523403859771457E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5438,20 +5438,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0819775558726281</v>
+        <v>4.5447194433639062</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.461501985180298</v>
+        <v>11.829311744549871</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.6790803731267205</v>
+        <v>6.0029671238148996</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.705653900156783</v>
+        <v>10.286358038739019</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10598,11 +10598,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-695526.88567899063</v>
+        <v>-695461.9140385309</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4144597576496247</v>
+        <v>1.4144210414893821</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12374,17 +12374,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13946673631140072</v>
+        <v>0.13945370822746275</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7532716024276466E-2</v>
+        <v>8.7524539281908773E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11643676643553558</v>
+        <v>0.11642588966300395</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12425,17 +12425,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5242001356276798E-2</v>
+        <v>8.523403859771457E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8193601085021441E-2</v>
+        <v>6.8187230878171662E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5242001356276798E-2</v>
+        <v>8.523403859771457E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12495,14 +12495,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.435840135875692</v>
+        <v>11.355015336424788</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.860528597196726</v>
+        <v>17.221129242885407</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12523,14 +12523,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8569982346103462</v>
+        <v>8.0872809302190323</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.98338959384162</v>
+        <v>10.941898133746214</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12573,21 +12573,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1716190.6435493808</v>
+        <v>1567015.5120884229</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.1828103994461179</v>
+        <v>5.6454494542256892</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3770160339543036</v>
+        <v>8.5619448151276778</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.806486743730272</v>
+        <v>11.387088049600802</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12597,14 +12597,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-201475.50344498953</v>
+        <v>-201456.68290154138</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.1008328435734898</v>
+        <v>-1.1007300108617835</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12636,27 +12636,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1514715.1401043914</v>
+        <v>1365558.8291868814</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.0819775558726281</v>
+        <v>4.5447194433639062</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.0819775558726281</v>
+        <v>4.5447194433639062</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.6790803731267205</v>
+        <v>6.0029671238148996</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.276183190380813</v>
+        <v>7.4612148042658939</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.705653900156783</v>
+        <v>10.286358038739019</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12697,27 +12697,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1090413.8233970141</v>
+        <v>995644.58668442362</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4034934668262888</v>
+        <v>4.0208079303264155</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4034934668262888</v>
+        <v>4.0208079303264155</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.1806779914499828</v>
+        <v>4.7304325612144051</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9578625160736767</v>
+        <v>5.4400571921023939</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.1368408731289623</v>
+        <v>7.2350863710174824</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12758,27 +12758,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>868020.09081933007</v>
+        <v>783835.59772982425</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.7427355113494585</v>
+        <v>4.2827636868451613</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.7427355113494585</v>
+        <v>4.2827636868451613</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.9298791822883512</v>
+        <v>5.3666998425146524</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.1170228532272448</v>
+        <v>6.4506359981841435</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9212473866428716</v>
+        <v>8.7607222048782507</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE0AE38-D86D-4E64-86E7-DA870F1A9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F47581C-6B09-4632-B8E2-F3B9EA636C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4324,7 +4335,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.523403859771457E-2</v>
+        <v>8.3968037086007474E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5103,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>273</v>
@@ -5144,7 +5155,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1034068.5246717001</v>
+        <v>1048710.2028971401</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5193,7 +5204,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5360,7 +5371,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57579616044603288</v>
+        <v>0.58447754487345682</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5376,7 +5387,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5891548941091305</v>
+        <v>8.7186551594194945</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5408,7 +5419,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.523403859771457E-2</v>
+        <v>8.3968037086007474E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5438,20 +5449,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5447194433639062</v>
+        <v>4.5069781113569043</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.829311744549871</v>
+        <v>11.717600652765711</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.0029671238148996</v>
+        <v>5.9477001460306234</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.286358038739019</v>
+        <v>10.189217958926706</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10598,11 +10609,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-695461.9140385309</v>
+        <v>-694833.03710684774</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4144210414893821</v>
+        <v>1.4140462979876374</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12374,17 +12385,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13945370822746275</v>
+        <v>0.13738236902620307</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7524539281908773E-2</v>
+        <v>8.6224516417037336E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11642588966300395</v>
+        <v>0.11469658814520449</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12425,17 +12436,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.523403859771457E-2</v>
+        <v>8.3968037086007474E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8187230878171662E-2</v>
+        <v>6.7174429668805991E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.523403859771457E-2</v>
+        <v>8.3968037086007474E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12495,14 +12506,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.355015336424788</v>
+        <v>11.277102045098632</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.221129242885407</v>
+        <v>17.072715284359848</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12523,14 +12534,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0872809302190323</v>
+        <v>8.0417354229925362</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.941898133746214</v>
+        <v>10.868387693955967</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12573,21 +12584,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1567015.5120884229</v>
+        <v>1553510.7661487174</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6454494542256892</v>
+        <v>5.6067127784078057</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.5619448151276778</v>
+        <v>8.4881568477552438</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.387088049600802</v>
+        <v>11.288952625977608</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12597,14 +12608,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-201456.68290154138</v>
+        <v>-201274.51410400867</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.1007300108617835</v>
+        <v>-1.0997346670509016</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12636,27 +12647,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1365558.8291868814</v>
+        <v>1352236.2520447087</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.5447194433639062</v>
+        <v>4.5069781113569043</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.5447194433639062</v>
+        <v>4.5069781113569043</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.0029671238148996</v>
+        <v>5.9477001460306234</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.4612148042658939</v>
+        <v>7.3884221807043433</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.286358038739019</v>
+        <v>10.189217958926706</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12697,27 +12708,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>995644.58668442362</v>
+        <v>988955.59446869243</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.0208079303264155</v>
+        <v>3.9957111420336004</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0208079303264155</v>
+        <v>3.9981637637360414</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.7304325612144051</v>
+        <v>4.7008366376865887</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.4400571921023939</v>
+        <v>5.4035095116371368</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2350863710174824</v>
+        <v>7.1864792304141885</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12758,27 +12769,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>783835.59772982425</v>
+        <v>778309.69123016438</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.2827636868451613</v>
+        <v>4.2513446266952526</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2827636868451613</v>
+        <v>4.2525709375464729</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3666998425146524</v>
+        <v>5.324268391858606</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4506359981841435</v>
+        <v>6.39596584617074</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7607222048782507</v>
+        <v>8.6878485946704469</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F47581C-6B09-4632-B8E2-F3B9EA636C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9D8164-B108-4A39-9361-9C44CB857DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1552,7 +1567,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2192,6 +2207,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3608,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3622,28 +3647,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3659,24 +3684,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>183020977818</v>
@@ -3684,10 +3709,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3708,7 +3733,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3716,15 +3741,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3733,61 +3758,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3872,7 +3897,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>2597400</v>
@@ -3908,7 +3933,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>125283</v>
@@ -3944,7 +3969,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>21957</v>
@@ -3972,7 +3997,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>24063</v>
@@ -4008,7 +4033,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>20681</v>
@@ -4044,7 +4069,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-13105</v>
@@ -4080,7 +4105,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>247452</v>
@@ -4116,7 +4141,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>282519</v>
@@ -4168,7 +4193,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4184,7 +4209,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4216,7 +4241,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4264,7 +4289,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4280,7 +4305,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4296,7 +4321,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4312,7 +4337,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.22+0.23</f>
@@ -4331,11 +4356,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3968037086007474E-2</v>
+        <v>8.3681192605391794E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4380,21 +4405,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>238880</v>
@@ -4406,7 +4431,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4416,7 +4441,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>142879</v>
@@ -4429,7 +4454,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>9895</v>
@@ -4441,7 +4466,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4451,7 +4476,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>11851</v>
@@ -4464,7 +4489,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -4476,7 +4501,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>182674</v>
@@ -4489,7 +4514,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4497,24 +4522,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4525,7 +4550,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120">
         <v>61345</v>
@@ -4538,7 +4563,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4549,7 +4574,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4560,7 +4585,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4571,7 +4596,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59">
         <v>693</v>
@@ -4584,7 +4609,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4594,7 +4619,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>292606</v>
@@ -4603,24 +4628,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>201156</v>
@@ -4630,12 +4655,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>1413348</v>
@@ -4648,7 +4673,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4659,7 +4684,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>91529</v>
@@ -4671,7 +4696,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>24707</v>
@@ -4684,7 +4709,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>71887</v>
@@ -4696,7 +4721,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>40594</v>
@@ -4704,19 +4729,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120">
         <v>11824</v>
@@ -4732,7 +4757,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>70126</v>
@@ -4740,19 +4765,19 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120">
         <v>11000</v>
@@ -4760,7 +4785,7 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>373503</v>
@@ -4768,7 +4793,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>1489904</v>
@@ -4776,19 +4801,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4796,10 +4821,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4807,18 +4832,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4827,20 +4852,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4858,7 +4883,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4879,7 +4904,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4900,7 +4925,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4918,7 +4943,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4939,7 +4964,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4956,7 +4981,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4974,7 +4999,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5102,62 +5127,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1048710.2028971401</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1052370.6224535001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5180,16 +5205,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5204,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5214,40 +5239,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5260,29 +5285,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5292,12 +5317,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5307,29 +5332,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.86263355974668987</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5337,7 +5362,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5348,58 +5373,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58447754487345682</v>
+        <v>0.58648103158977716</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7186551594194945</v>
+        <v>8.7485411831842868</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.02</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5408,18 +5433,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.9816835181438444E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3968037086007474E-2</v>
+        <v>8.3681192605391794E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5429,62 +5454,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5069781113569043</v>
+        <v>4.4996609295163159</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.717600652765711</v>
+        <v>11.695529569429468</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9477001460306234</v>
-      </c>
-      <c r="G29" s="274">
+        <v>5.9368177280558019</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.189217958926706</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>10.170025712547364</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5494,25 +5519,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5522,7 +5547,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5532,14 +5557,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5549,7 +5574,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5564,14 +5589,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6524,12 +6549,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6556,16 +6581,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6583,7 +6608,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6616,7 +6641,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6627,7 +6652,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6779,7 +6804,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6830,7 +6855,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6881,7 +6906,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6932,7 +6957,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6983,7 +7008,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7034,7 +7059,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7085,7 +7110,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7136,7 +7161,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7187,7 +7212,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7238,7 +7263,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7289,7 +7314,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7340,7 +7365,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7391,7 +7416,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7442,7 +7467,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7493,7 +7518,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7544,7 +7569,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7595,7 +7620,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7646,7 +7671,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7697,7 +7722,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7850,7 +7875,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7901,7 +7926,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8003,7 +8028,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8207,7 +8232,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8258,7 +8283,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8309,7 +8334,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8360,7 +8385,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8411,7 +8436,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8462,7 +8487,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8480,7 +8505,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8531,7 +8556,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8582,7 +8607,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8633,7 +8658,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8684,7 +8709,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8735,7 +8760,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8786,7 +8811,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8837,7 +8862,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8854,50 +8879,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>4.7452152299625509E-2</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.3520994954457195</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8906,11 +8931,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>6.0668638982508204E-2</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>4.7452152299625509E-2</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8957,167 +8982,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>6.0668638982508204E-2</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>5.743902171769192E-2</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>7.400074901811407E-2</v>
       </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153">
+        <f t="shared" si="44"/>
         <v>4.0582619288683681E-2</v>
       </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153">
+        <f t="shared" si="44"/>
         <v>0.12301749306144014</v>
       </c>
-      <c r="G52" s="153">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153">
+        <f t="shared" si="44"/>
         <v>-0.2036637627223773</v>
       </c>
-      <c r="H52" s="153">
-        <f t="shared" si="43"/>
+      <c r="H53" s="153">
+        <f t="shared" si="44"/>
         <v>-6.7846837713483581E-3</v>
       </c>
-      <c r="I52" s="153">
-        <f t="shared" si="43"/>
+      <c r="I53" s="153">
+        <f t="shared" si="44"/>
         <v>-0.16170451668851366</v>
       </c>
-      <c r="J52" s="153">
-        <f t="shared" si="43"/>
+      <c r="J53" s="153">
+        <f t="shared" si="44"/>
         <v>5.5001151808339095E-2</v>
       </c>
-      <c r="K52" s="153">
-        <f t="shared" si="43"/>
+      <c r="K53" s="153">
+        <f t="shared" si="44"/>
         <v>7.9582590478786946E-3</v>
       </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.39379589689979072</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.3453793007048864</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.5382023677372767</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9125,112 +9151,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.13393085739941596</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.3453793007048864</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.11087087354835834</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.37504987618040286</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-0.6025758482051593</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-3.8930994750992189</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.36862117270362221</v>
-      </c>
-      <c r="I56" s="153">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.44722652618531145</v>
-      </c>
-      <c r="J56" s="153">
+        <v/>
+      </c>
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-0.62230436223746732</v>
-      </c>
-      <c r="K56" s="153">
+        <v/>
+      </c>
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.9538030424339472</v>
-      </c>
-      <c r="L56" s="153">
+        <v/>
+      </c>
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.8302229197832098</v>
-      </c>
-      <c r="M56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.13393085739941596</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.11087087354835834</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.37504987618040286</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.6025758482051593</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>-3.8930994750992189</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.36862117270362221</v>
+      </c>
+      <c r="I57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.44722652618531145</v>
+      </c>
+      <c r="J57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.62230436223746732</v>
+      </c>
+      <c r="K57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.9538030424339472</v>
+      </c>
+      <c r="L57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.8302229197832098</v>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>0.93822569459464367</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.16027699323804309</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.12058987245710687</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9793,7 +10009,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10476,6 +10694,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10515,8 +10734,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10534,7 +10753,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10549,7 +10768,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10563,7 +10782,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10573,7 +10792,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10591,10 +10810,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10603,22 +10822,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-694833.03710684774</v>
+        <f>(E49-I49-E53)</f>
+        <v>-649866.79999999993</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4140462979876374</v>
+        <v>1.3872512220280271</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10628,8 +10848,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10641,7 +10862,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10659,7 +10880,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10678,32 +10899,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10720,7 +10941,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10731,7 +10952,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10748,7 +10969,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10759,7 +10980,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10776,7 +10997,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10787,7 +11008,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10804,7 +11025,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10815,7 +11036,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10832,7 +11053,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10842,7 +11063,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10864,7 +11085,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10886,7 +11107,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10907,7 +11128,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10932,7 +11153,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10959,7 +11180,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10980,7 +11201,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10997,7 +11218,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -11009,13 +11230,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -11037,7 +11258,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -11057,7 +11278,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -11066,7 +11287,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11086,7 +11307,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11099,7 +11320,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11119,7 +11340,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11165,7 +11386,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11174,7 +11395,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11190,7 +11411,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11200,7 +11421,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11217,7 +11438,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11227,7 +11448,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11244,7 +11465,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11254,7 +11475,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11274,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11284,7 +11505,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11301,7 +11522,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11311,7 +11532,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11337,7 +11558,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11364,7 +11585,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11391,7 +11612,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11412,7 +11633,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11433,7 +11654,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11454,7 +11675,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11475,7 +11696,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11492,7 +11713,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11510,7 +11731,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11529,7 +11750,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11548,7 +11769,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11565,7 +11786,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11578,7 +11799,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11595,7 +11816,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11608,7 +11829,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11625,7 +11846,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11652,7 +11873,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11668,14 +11889,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11692,7 +11913,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11722,7 +11943,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11733,14 +11954,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11748,30 +11969,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11788,11 +12009,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11802,7 +12023,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11823,7 +12044,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11844,7 +12065,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11865,7 +12086,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11880,7 +12101,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11911,11 +12132,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11925,7 +12146,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11946,7 +12167,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11961,7 +12182,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11983,21 +12204,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12007,23 +12228,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -12044,7 +12265,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12074,7 +12295,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12095,7 +12316,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12125,7 +12346,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12155,7 +12376,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12186,7 +12407,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12213,12 +12434,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12248,7 +12469,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12278,7 +12499,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12308,7 +12529,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12329,7 +12550,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12360,7 +12581,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12381,28 +12602,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13738236902620307</v>
+        <v>0.13691305503892112</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6224516417037336E-2</v>
+        <v>8.5929963543273605E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11469658814520449</v>
+        <v>0.11430477139687199</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12432,21 +12653,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3968037086007474E-2</v>
+        <v>8.3681192605391794E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7174429668805991E-2</v>
+        <v>6.6944954084313446E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3968037086007474E-2</v>
+        <v>8.3681192605391794E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12463,29 +12684,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12502,24 +12723,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.277102045098632</v>
+        <v>11.262522522491986</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.072715284359848</v>
+        <v>17.043793835105753</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12530,18 +12751,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0417354229925362</v>
+        <v>8.0335939936396201</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.868387693955967</v>
+        <v>10.854691980667289</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12560,69 +12781,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1553510.7661487174</v>
+        <v>1550879.0943823629</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6067127784078057</v>
+        <v>5.5994641789560262</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4881568477552438</v>
+        <v>8.4737777760349982</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.288952625977608</v>
+        <v>11.269828961987075</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-201274.51410400867</v>
+        <v>-201287.06611986956</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0997346670509016</v>
+        <v>-1.0998032494397105</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12643,31 +12864,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1352236.2520447087</v>
+        <v>1349592.0282624934</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.5069781113569043</v>
+        <v>4.4996609295163159</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.5069781113569043</v>
+        <v>4.4996609295163159</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9477001460306234</v>
+        <v>5.9368177280558019</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.3884221807043433</v>
+        <v>7.3739745265952887</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.189217958926706</v>
+        <v>10.170025712547364</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12677,58 +12898,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>988955.59446869243</v>
+        <v>987709.36985300179</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9957111420336004</v>
+        <v>3.9910969513367149</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9981637637360414</v>
+        <v>3.9941160344696969</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.7008366376865887</v>
+        <v>4.695408178043194</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.4035095116371368</v>
+        <v>5.3967003216166907</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1864792304141885</v>
+        <v>7.1774232451230562</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12738,58 +12959,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>778309.69123016438</v>
+        <v>777269.68265836185</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.2513446266952526</v>
+        <v>4.2453789404265159</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2525709375464729</v>
+        <v>4.2468884819930066</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.324268391858606</v>
+        <v>5.3161129530494975</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.39596584617074</v>
+        <v>6.3853374241059893</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6878485946704469</v>
+        <v>8.6737244788352097</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12798,7 +13019,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12807,6 +13028,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9D8164-B108-4A39-9361-9C44CB857DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA33D99E-B223-4BBC-B3B3-39B10B2B9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1303,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1561,13 +1559,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2217,6 +2331,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2456,981 +2594,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.86263355974668987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.04E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.1579398111554088E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9916652607163307E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9816835181438444E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3633,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3647,28 +2810,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3684,24 +2847,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>183020977818</v>
@@ -3709,10 +2872,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3733,7 +2896,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3741,10 +2904,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3758,55 +2921,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3997,7 +3160,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>24063</v>
@@ -4209,7 +3372,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4305,7 +3468,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4337,7 +3500,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.22+0.23</f>
@@ -4356,11 +3519,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3681192605391794E-2</v>
+        <v>8.3819137633054527E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4405,13 +3568,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4476,7 +3639,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>11851</v>
@@ -4489,7 +3652,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -4596,7 +3759,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>693</v>
@@ -4609,7 +3772,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4793,7 +3956,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>1489904</v>
@@ -4813,7 +3976,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4821,10 +3984,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4834,16 +3997,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4852,10 +4015,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4904,7 +4067,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4925,7 +4088,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4943,7 +4106,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4981,7 +4144,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4999,7 +4162,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5085,8 +4248,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5127,62 +4290,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1052370.6224535001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>1050540.4126753202</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5205,16 +4368,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5229,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,40 +4402,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5285,29 +4448,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5317,12 +4480,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5330,9 +4493,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5340,91 +4503,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.86263355974668987</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.16027699323804309</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>5.04E-2</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.5382023677372767</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.1579398111554088E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>1.0876766474117481</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>7.9307997886867723E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58648103158977716</v>
+        <v>0.58551583265775664</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7485411831842868</v>
+        <v>8.7341433047331147</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>0.02</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5433,18 +4596,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>4.9816835181438444E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0.02</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3681192605391794E-2</v>
+        <v>8.3819137633054527E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5454,62 +4617,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4996609295163159</v>
+        <v>4.5028927070646958</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.695529569429468</v>
+        <v>11.705396081250337</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9368177280558019</v>
-      </c>
-      <c r="G29" s="278">
+        <v>5.9416718672160354</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.170025712547364</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>10.178605288043771</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5519,7 +4682,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5530,14 +4693,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5547,7 +4710,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5557,14 +4720,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5574,7 +4737,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5589,14 +4752,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6540,7 +5703,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6554,7 +5716,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6581,16 +5743,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6608,7 +5770,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6641,7 +5803,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -7008,7 +6170,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7059,7 +6221,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7110,7 +6272,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7161,7 +6323,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7263,7 +6425,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7416,7 +6578,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7926,7 +7088,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8436,7 +7598,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8487,7 +7649,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8556,7 +7718,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8760,7 +7922,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8862,7 +8024,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8880,14 +8042,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.3520994954457195</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>1.0876766474117481</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8931,7 +8093,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8982,7 +8144,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -9033,7 +8195,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -9084,7 +8246,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9101,7 +8263,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9301,11 +8463,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9351,7 +8513,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9401,7 +8563,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10905,7 +10067,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -11063,7 +10225,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11475,7 +10637,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11943,7 +11105,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11957,11 +11119,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11972,11 +11134,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11988,11 +11150,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -12009,7 +11171,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -12086,7 +11248,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12132,7 +11294,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12167,7 +11329,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12206,19 +11368,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12228,18 +11390,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12316,7 +11478,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12346,7 +11508,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12376,7 +11538,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12439,7 +11601,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12469,7 +11631,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12550,7 +11712,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12581,7 +11743,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12602,28 +11764,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13691305503892112</v>
+        <v>0.13713875061730268</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5929963543273605E-2</v>
+        <v>8.6071615577965915E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11430477139687199</v>
+        <v>0.11449319814321005</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12653,21 +11815,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3681192605391794E-2</v>
+        <v>8.3819137633054527E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6944954084313446E-2</v>
+        <v>6.7055310106443625E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3681192605391794E-2</v>
+        <v>8.3819137633054527E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12689,24 +11851,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12723,24 +11885,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.262522522491986</v>
+        <v>11.268815865971321</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.043793835105753</v>
+        <v>17.056613475962539</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12751,18 +11913,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0335939936396201</v>
+        <v>8.0369976616674705</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.854691980667289</v>
+        <v>10.860586396735822</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12781,14 +11943,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12805,21 +11967,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1550879.0943823629</v>
+        <v>1552045.6018627179</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5994641789560262</v>
+        <v>5.6025930829211932</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4737777760349982</v>
+        <v>8.4801514032238714</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.269828961987075</v>
+        <v>11.278305663900268</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12829,14 +11991,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-201287.06611986956</v>
+        <v>-201268.23809607825</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0998032494397105</v>
+        <v>-1.0997003758564972</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12868,27 +12030,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1349592.0282624934</v>
+        <v>1350777.3637666397</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.4996609295163159</v>
+        <v>4.5028927070646958</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4996609295163159</v>
+        <v>4.5028927070646958</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9368177280558019</v>
+        <v>5.9416718672160354</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.3739745265952887</v>
+        <v>7.3804510273673749</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.170025712547364</v>
+        <v>10.178605288043771</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12898,21 +12060,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12925,31 +12087,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>987709.36985300179</v>
+        <v>988245.72500624531</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9910969513367149</v>
+        <v>3.9930616375523318</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9941160344696969</v>
+        <v>3.9958082590278226</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.695408178043194</v>
+        <v>4.6977195735909785</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3967003216166907</v>
+        <v>5.3996308881541335</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1774232451230562</v>
+        <v>7.181320796429171</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12959,21 +12121,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12986,31 +12148,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>777269.68265836185</v>
+        <v>777720.28049851686</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.2453789404265159</v>
+        <v>4.2479771723085138</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2468884819930066</v>
+        <v>4.2493504830462587</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3161129530494975</v>
+        <v>5.3196957204035069</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.3853374241059893</v>
+        <v>6.3900409577607542</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6737244788352097</v>
+        <v>8.6799630422364711</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -13019,7 +12181,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA33D99E-B223-4BBC-B3B3-39B10B2B9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A171E6A-0CE0-4C9C-97C8-C1B05F9155CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2405,7 +2409,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2502,12 +2506,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2796,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2810,28 +2830,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -2847,24 +2867,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>183020977818</v>
@@ -2872,10 +2892,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2896,7 +2916,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2904,10 +2924,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2921,61 +2941,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3160,7 +3180,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>24063</v>
@@ -3338,9 +3358,9 @@
       </c>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3356,7 +3376,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3372,7 +3392,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3387,10 +3407,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3402,9 +3423,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3451,10 +3472,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3468,9 +3490,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3484,7 +3506,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3500,7 +3522,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.22+0.23</f>
@@ -3519,11 +3541,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3819137633054527E-2</v>
+        <v>8.3522889763116837E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3568,13 +3590,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3594,7 +3616,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3604,7 +3626,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>142879</v>
@@ -3639,7 +3661,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>11851</v>
@@ -3652,7 +3674,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -3690,7 +3712,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3759,7 +3781,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>693</v>
@@ -3772,7 +3794,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3823,7 +3845,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>1413348</v>
@@ -3956,7 +3978,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>1489904</v>
@@ -3976,7 +3998,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3984,10 +4006,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3995,7 +4017,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -4003,10 +4025,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4028,7 +4050,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4067,7 +4089,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4088,7 +4110,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4106,7 +4128,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4144,7 +4166,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4162,7 +4184,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4185,28 +4207,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4248,8 +4275,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4290,7 +4317,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4302,15 +4329,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4330,7 +4357,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4343,7 +4370,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1050540.4126753202</v>
+        <v>1054200.8322316799</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4377,7 +4404,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4392,7 +4419,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4402,40 +4429,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4448,29 +4475,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4480,12 +4507,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4495,7 +4522,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4503,21 +4530,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.16027699323804309</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4525,69 +4552,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.5382023677372767</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>1.0876766474117481</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>7.9307997886867723E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58551583265775664</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7341433047331147</v>
+        <v>8.7651224932776692</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4596,18 +4623,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.02</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3819137633054527E-2</v>
+        <v>8.3522889763116837E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4617,40 +4644,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5028927070646958</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>11.705396081250337</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9416718672160354</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.178605288043771</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4658,21 +4685,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4682,25 +4709,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4710,7 +4737,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4720,14 +4747,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4737,7 +4764,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4752,14 +4779,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5659,27 +5686,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5711,12 +5738,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5743,16 +5770,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5770,7 +5797,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5803,7 +5830,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5814,7 +5841,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6170,7 +6197,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6221,7 +6248,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6272,7 +6299,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6323,7 +6350,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6425,7 +6452,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6578,7 +6605,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6833,7 +6860,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6884,7 +6911,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6938,15 +6965,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>2768297</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6986,50 +7013,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>672371</v>
+        <f>Fin_Analysis!C13</f>
+        <v>142879</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -7037,50 +7064,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>142879</v>
+        <f>Fin_Analysis!C18</f>
+        <v>182674</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7088,101 +7115,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>182674</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>716641</v>
+        <f>Fin_Analysis!I15</f>
+        <v>52418</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7190,101 +7217,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>373503</v>
+        <f>Fin_Analysis!I34</f>
+        <v>81126</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>52418</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>133544</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7292,50 +7319,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>81126</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7343,50 +7370,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>133544</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7394,50 +7421,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>1678153</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7445,272 +7472,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>188249</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>2226916</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>541381</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.10723230392764403</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>2226916</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.10723230392764403</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.86263355974668987</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.86588805084764076</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.87905937577576676</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.90054585807690002</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.88576730067029297</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.86690956464474378</v>
+      </c>
+      <c r="I40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.88315334666078005</v>
+      </c>
+      <c r="J40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.88041954279261037</v>
+      </c>
+      <c r="K40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.86974014563343127</v>
+      </c>
+      <c r="L40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.85990393182190505</v>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>4.8900502555287058E-2</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>4.2878616631992113E-2</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>5.3445427523257226E-2</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>7.3706870696377561E-2</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>6.0207564337395353E-2</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>6.3183650577237099E-2</v>
+      </c>
+      <c r="I41" s="153">
+        <f t="shared" si="35"/>
+        <v>7.1249919390442937E-2</v>
+      </c>
+      <c r="J41" s="153">
+        <f t="shared" si="35"/>
+        <v>8.6544461850834586E-2</v>
+      </c>
+      <c r="K41" s="153">
+        <f t="shared" si="35"/>
+        <v>8.265775216352117E-2</v>
+      </c>
+      <c r="L41" s="153">
+        <f t="shared" si="35"/>
+        <v>6.4741331655980255E-2</v>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.86263355974668987</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.86588805084764076</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.87905937577576676</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.90054585807690002</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.88576730067029297</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.86690956464474378</v>
-      </c>
-      <c r="I42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.88315334666078005</v>
-      </c>
-      <c r="J42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.88041954279261037</v>
-      </c>
-      <c r="K42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.86974014563343127</v>
-      </c>
-      <c r="L42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.85990393182190505</v>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.4274348929832885E-2</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.0563624060903882E-2</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7718,50 +7745,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>4.8900502555287058E-2</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>4.2878616631992113E-2</v>
+        <f t="shared" si="37"/>
+        <v>6.6541799172441553E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>5.3445427523257226E-2</v>
+        <f t="shared" si="37"/>
+        <v>7.5502543845523303E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>7.3706870696377561E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.3717812679048275E-2</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>6.0207564337395353E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.2082358223306488E-2</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>6.3183650577237099E-2</v>
+        <f t="shared" si="37"/>
+        <v>9.5657395110769396E-3</v>
       </c>
       <c r="I43" s="153">
-        <f t="shared" si="35"/>
-        <v>7.1249919390442937E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.0738681178040468E-2</v>
       </c>
       <c r="J43" s="153">
-        <f t="shared" si="35"/>
-        <v>8.6544461850834586E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.2772565824913431E-2</v>
       </c>
       <c r="K43" s="153">
-        <f t="shared" si="35"/>
-        <v>8.265775216352117E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.3808747742589085E-2</v>
       </c>
       <c r="L43" s="153">
-        <f t="shared" si="35"/>
-        <v>6.4741331655980255E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.0896808619679172E-2</v>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7769,50 +7796,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.1579398111554088E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.4274348929832885E-2</v>
+        <f t="shared" si="38"/>
+        <v>8.522767324644475E-3</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.0563624060903882E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.1488392202673272E-2</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9.9829216817420574E-3</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.1301607987889432E-2</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.1758361846406398E-2</v>
       </c>
       <c r="I44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9.2564574455947495E-3</v>
       </c>
       <c r="J44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.774091168940458E-2</v>
       </c>
       <c r="K44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>5.1859596575458376E-3</v>
       </c>
       <c r="L44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>6.9272579511470917E-3</v>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7820,50 +7847,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>7.9916652607163307E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.1646250496510809E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>6.6541799172441553E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.76465122051441E-3</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>7.5502543845523303E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.7761591891518692E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.3717812679048275E-2</v>
+        <f t="shared" si="39"/>
+        <v>2.4811824787624184E-2</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.2082358223306488E-2</v>
+        <f t="shared" si="39"/>
+        <v>3.3744700632944082E-2</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>9.5657395110769396E-3</v>
+        <f t="shared" si="39"/>
+        <v>2.263262894884658E-2</v>
       </c>
       <c r="I45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.0738681178040468E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.5898684948087445E-3</v>
       </c>
       <c r="J45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.2772565824913431E-2</v>
+        <f t="shared" si="39"/>
+        <v>2.3047146303767141E-2</v>
       </c>
       <c r="K45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.3808747742589085E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.4129827497872992E-2</v>
       </c>
       <c r="L45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.0896808619679172E-2</v>
+        <f t="shared" si="39"/>
+        <v>5.1576854980503399E-2</v>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7871,221 +7898,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.1579398111554088E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>5.9670082129640582E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>8.522767324644475E-3</v>
+        <f t="shared" si="40"/>
+        <v>6.0017385128131186E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.1488392202673272E-2</v>
+        <f t="shared" si="40"/>
+        <v>2.0131334161327865E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>9.9829216817420574E-3</v>
+        <f t="shared" si="40"/>
+        <v>-2.2765287921692082E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.1301607987889432E-2</v>
+        <f t="shared" si="40"/>
+        <v>-3.1035318518283063E-3</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.1758361846406398E-2</v>
+        <f t="shared" si="40"/>
+        <v>2.5950054471689174E-2</v>
       </c>
       <c r="I46" s="153">
-        <f t="shared" si="38"/>
-        <v>9.2564574455947495E-3</v>
+        <f t="shared" si="40"/>
+        <v>2.4011726830333004E-2</v>
       </c>
       <c r="J46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.774091168940458E-2</v>
+        <f t="shared" si="40"/>
+        <v>-2.0524628461530053E-2</v>
       </c>
       <c r="K46" s="153">
-        <f t="shared" si="38"/>
-        <v>5.1859596575458376E-3</v>
+        <f t="shared" si="40"/>
+        <v>1.4477567305039678E-2</v>
       </c>
       <c r="L46" s="153">
-        <f t="shared" si="38"/>
-        <v>6.9272579511470917E-3</v>
+        <f t="shared" si="40"/>
+        <v>5.9538149707850339E-3</v>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.1646250496510809E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.76465122051441E-3</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.7761591891518692E-2</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>2.4811824787624184E-2</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>3.3744700632944082E-2</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>2.263262894884658E-2</v>
-      </c>
-      <c r="I47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.5898684948087445E-3</v>
-      </c>
-      <c r="J47" s="153">
-        <f t="shared" si="39"/>
-        <v>2.3047146303767141E-2</v>
-      </c>
-      <c r="K47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.4129827497872992E-2</v>
-      </c>
-      <c r="L47" s="153">
-        <f t="shared" si="39"/>
-        <v>5.1576854980503399E-2</v>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>5.9670082129640582E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.0017385128131186E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>2.0131334161327865E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>-2.2765287921692082E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>-3.1035318518283063E-3</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>2.5950054471689174E-2</v>
-      </c>
-      <c r="I48" s="153">
-        <f t="shared" si="40"/>
-        <v>2.4011726830333004E-2</v>
-      </c>
-      <c r="J48" s="153">
-        <f t="shared" si="40"/>
-        <v>-2.0524628461530053E-2</v>
-      </c>
-      <c r="K48" s="153">
-        <f t="shared" si="40"/>
-        <v>1.4477567305039678E-2</v>
-      </c>
-      <c r="L48" s="153">
-        <f t="shared" si="40"/>
-        <v>5.9538149707850339E-3</v>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>4.7452152299625509E-2</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>1.0876766474117481</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>6.0668638982508204E-2</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8093,522 +8120,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>4.7452152299625509E-2</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>5.743902171769192E-2</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>7.400074901811407E-2</v>
+      </c>
+      <c r="E51" s="153">
+        <f t="shared" si="44"/>
+        <v>4.0582619288683681E-2</v>
+      </c>
+      <c r="F51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.12301749306144014</v>
+      </c>
+      <c r="G51" s="153">
+        <f t="shared" si="44"/>
+        <v>-0.2036637627223773</v>
+      </c>
+      <c r="H51" s="153">
+        <f t="shared" si="44"/>
+        <v>-6.7846837713483581E-3</v>
+      </c>
+      <c r="I51" s="153">
+        <f t="shared" si="44"/>
+        <v>-0.16170451668851366</v>
+      </c>
+      <c r="J51" s="153">
+        <f t="shared" si="44"/>
+        <v>5.5001151808339095E-2</v>
+      </c>
+      <c r="K51" s="153">
+        <f t="shared" si="44"/>
+        <v>7.9582590478786946E-3</v>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>6.0668638982508204E-2</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>5.743902171769192E-2</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>7.400074901811407E-2</v>
-      </c>
-      <c r="E53" s="153">
-        <f t="shared" si="44"/>
-        <v>4.0582619288683681E-2</v>
-      </c>
-      <c r="F53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.12301749306144014</v>
-      </c>
-      <c r="G53" s="153">
-        <f t="shared" si="44"/>
-        <v>-0.2036637627223773</v>
-      </c>
-      <c r="H53" s="153">
-        <f t="shared" si="44"/>
-        <v>-6.7846837713483581E-3</v>
-      </c>
-      <c r="I53" s="153">
-        <f t="shared" si="44"/>
-        <v>-0.16170451668851366</v>
-      </c>
-      <c r="J53" s="153">
-        <f t="shared" si="44"/>
-        <v>5.5001151808339095E-2</v>
-      </c>
-      <c r="K53" s="153">
-        <f t="shared" si="44"/>
-        <v>7.9582590478786946E-3</v>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>1.3453793007048864</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.5382023677372767</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.13393085739941596</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.11087087354835834</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.37504987618040286</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.6025758482051593</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>-3.8930994750992189</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.36862117270362221</v>
+      </c>
+      <c r="I55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.44722652618531145</v>
+      </c>
+      <c r="J55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.62230436223746732</v>
+      </c>
+      <c r="K55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.9538030424339472</v>
+      </c>
+      <c r="L55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.8302229197832098</v>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.3453793007048864</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.13393085739941596</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.11087087354835834</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.37504987618040286</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.6025758482051593</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>-3.8930994750992189</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.36862117270362221</v>
-      </c>
-      <c r="I57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.44722652618531145</v>
-      </c>
-      <c r="J57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.62230436223746732</v>
-      </c>
-      <c r="K57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.9538030424339472</v>
-      </c>
-      <c r="L57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.8302229197832098</v>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>0.93822569459464367</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.16027699323804309</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.12058987245710687</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9168,12 +9099,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9855,27 +9782,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9989,13 +9919,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-649866.79999999993</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.3872512220280271</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10015,9 +9945,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10067,7 +9997,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10114,7 +10044,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10142,7 +10072,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10225,7 +10155,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10247,7 +10177,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10315,7 +10245,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10637,7 +10567,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10774,7 +10704,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11061,9 +10991,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11081,13 +11011,13 @@
         <f>MAX(D4,0)</f>
         <v>188249</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>188249</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11105,7 +11035,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11171,7 +11101,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11206,7 +11136,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11227,7 +11157,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11248,7 +11178,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11263,7 +11193,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11294,7 +11224,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11308,7 +11238,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11329,7 +11259,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11344,7 +11274,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11366,7 +11296,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11374,11 +11304,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11406,7 +11336,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11478,7 +11408,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11508,7 +11438,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11538,7 +11468,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11596,12 +11526,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11631,7 +11561,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11661,7 +11591,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11712,7 +11642,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11743,7 +11673,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11764,28 +11694,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13713875061730268</v>
+        <v>0.1366540514912612</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6071615577965915E-2</v>
+        <v>8.5767406616896719E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11449319814321005</v>
+        <v>0.11408853678507526</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11815,21 +11745,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3819137633054527E-2</v>
+        <v>8.3522889763116837E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7055310106443625E-2</v>
+        <v>6.6818311810493469E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3819137633054527E-2</v>
+        <v>8.3522889763116837E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11846,27 +11776,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11885,24 +11815,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.268815865971321</v>
+        <v>11.252340920653525</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.056613475962539</v>
+        <v>17.024608724235613</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11913,18 +11843,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0369976616674705</v>
+        <v>8.0275756716748479</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.860586396735822</v>
+        <v>10.845075117265411</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11943,14 +11873,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11963,49 +11893,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1552045.6018627179</v>
+        <v>1549133.3687733952</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6025930829211932</v>
+        <v>5.5944021233938734</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4801514032238714</v>
+        <v>8.4642393852462465</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.278305663900268</v>
+        <v>11.25714323484117</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-201268.23809607825</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0997003758564972</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12028,29 +11958,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>1350777.3637666397</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.5028927070646958</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.5028927070646958</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>5.9416718672160354</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.3804510273673749</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.178605288043771</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12060,21 +11990,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12087,31 +12017,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>988245.72500624531</v>
+        <v>986834.29517492256</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9930616375523318</v>
+        <v>3.9877932349097556</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9958082590278226</v>
+        <v>3.9911238648032774</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.6977195735909785</v>
+        <v>4.6915214528350067</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3996308881541335</v>
+        <v>5.3919190408667355</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.181320796429171</v>
+        <v>7.1710643084485977</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12121,21 +12051,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12148,31 +12078,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>777720.28049851686</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>4.2479771723085138</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>4.2493504830462587</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>5.3196957204035069</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>6.3900409577607542</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>8.6799630422364711</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12181,7 +12111,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A171E6A-0CE0-4C9C-97C8-C1B05F9155CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2F4A24-D866-47BF-8382-23ADC62E8D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="278">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1920,7 +1928,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2156,12 +2163,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2363,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2599,8 +2607,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2816,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,162 +2842,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45605</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>183020977818</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>271</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>273</v>
+      <c r="C19" s="239" t="s">
+        <v>275</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>272</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>274</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>276</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3046,556 +3054,560 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>3011012</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>3239167</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>2614349</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>1933836</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>2516810</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>2374934</v>
       </c>
-      <c r="I25" s="149">
+      <c r="I25" s="148">
         <v>2015890</v>
       </c>
-      <c r="J25" s="149">
+      <c r="J25" s="148">
         <v>1616903</v>
       </c>
-      <c r="K25" s="149">
+      <c r="K25" s="148">
         <v>1725428</v>
       </c>
-      <c r="L25" s="149">
+      <c r="L25" s="148">
         <v>2282962</v>
       </c>
-      <c r="M25" s="149"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2597400</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>2804756</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>2298168</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>1741508</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>2229308</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>2058853</v>
       </c>
-      <c r="I26" s="150">
+      <c r="I26" s="149">
         <v>1780340</v>
       </c>
-      <c r="J26" s="150">
+      <c r="J26" s="149">
         <v>1423553</v>
       </c>
-      <c r="K26" s="150">
+      <c r="K26" s="149">
         <v>1500674</v>
       </c>
-      <c r="L26" s="150">
+      <c r="L26" s="149">
         <v>1963128</v>
       </c>
-      <c r="M26" s="150"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>125283</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>118875</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>122996</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>126791</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>135865</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>137231</v>
       </c>
-      <c r="I27" s="150">
+      <c r="I27" s="149">
         <v>143632</v>
       </c>
-      <c r="J27" s="150">
+      <c r="J27" s="149">
         <v>139934</v>
       </c>
-      <c r="K27" s="150">
+      <c r="K27" s="149">
         <v>142620</v>
       </c>
-      <c r="L27" s="150">
+      <c r="L27" s="149">
         <v>147802</v>
       </c>
-      <c r="M27" s="150"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>21957</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>20016</v>
       </c>
-      <c r="E28" s="150">
+      <c r="E28" s="149">
         <v>16729</v>
       </c>
-      <c r="F28" s="150">
+      <c r="F28" s="149">
         <v>15746</v>
       </c>
-      <c r="G28" s="150">
+      <c r="G28" s="149">
         <v>15666</v>
       </c>
-      <c r="H28" s="150">
+      <c r="H28" s="149">
         <v>12826</v>
       </c>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>24063</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>21554</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>19739</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>26528</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>30409</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>22718</v>
       </c>
-      <c r="I29" s="150">
+      <c r="I29" s="149">
         <v>21648</v>
       </c>
-      <c r="J29" s="150">
+      <c r="J29" s="149">
         <v>20652</v>
       </c>
-      <c r="K29" s="150">
+      <c r="K29" s="149">
         <v>23826</v>
       </c>
-      <c r="L29" s="150">
+      <c r="L29" s="149">
         <v>24877</v>
       </c>
-      <c r="M29" s="150"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>20681</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>20705</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>22526</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>14479</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>21333</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <v>20944</v>
       </c>
-      <c r="I30" s="150">
+      <c r="I30" s="149">
         <v>13995</v>
       </c>
-      <c r="J30" s="150">
+      <c r="J30" s="149">
         <v>21514</v>
       </c>
-      <c r="K30" s="150">
+      <c r="K30" s="149">
         <v>6711</v>
       </c>
-      <c r="L30" s="150">
+      <c r="L30" s="149">
         <v>11861</v>
       </c>
-      <c r="M30" s="150"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-13105</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>46237</v>
       </c>
-      <c r="E31" s="150">
+      <c r="E31" s="149">
         <v>27617</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="149">
         <v>-71716</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="149">
         <v>-28895</v>
       </c>
-      <c r="H31" s="150">
+      <c r="H31" s="149">
         <v>-2436</v>
       </c>
-      <c r="I31" s="150">
+      <c r="I31" s="149">
         <v>-64518</v>
       </c>
-      <c r="J31" s="150">
+      <c r="J31" s="149">
         <v>-5969</v>
       </c>
-      <c r="K31" s="150">
+      <c r="K31" s="149">
         <v>-4437</v>
       </c>
-      <c r="L31" s="150">
+      <c r="L31" s="149">
         <v>-34533</v>
       </c>
-      <c r="M31" s="150"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>247452</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>238036</v>
       </c>
-      <c r="E32" s="150">
+      <c r="E32" s="149">
         <v>204743</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="149">
         <v>198511</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="149">
         <v>211847</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="149">
         <v>202355</v>
       </c>
-      <c r="I32" s="150">
+      <c r="I32" s="149">
         <v>219432</v>
       </c>
-      <c r="J32" s="150">
+      <c r="J32" s="149">
         <v>209651</v>
       </c>
-      <c r="K32" s="150">
+      <c r="K32" s="149">
         <v>177858</v>
       </c>
-      <c r="L32" s="150">
+      <c r="L32" s="149">
         <v>173981</v>
       </c>
-      <c r="M32" s="150"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>282519</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>243752</v>
       </c>
-      <c r="E33" s="150">
+      <c r="E33" s="149">
         <v>251178</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="149">
         <v>246493</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="149">
         <v>296776</v>
       </c>
-      <c r="H33" s="150">
+      <c r="H33" s="149">
         <v>256106</v>
       </c>
-      <c r="I33" s="150">
+      <c r="I33" s="149">
         <v>216227</v>
       </c>
-      <c r="J33" s="150">
+      <c r="J33" s="149">
         <v>172386</v>
       </c>
-      <c r="K33" s="150">
+      <c r="K33" s="149">
         <v>202238</v>
       </c>
-      <c r="L33" s="150">
+      <c r="L33" s="149">
         <v>291729</v>
       </c>
-      <c r="M33" s="150"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>1090144</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>1678153</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>188249</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.22+0.23</f>
         <v>0.45</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3522889763116837E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>8.2737521337354861E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3674,7 +3686,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -3706,7 +3718,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3718,7 +3730,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3737,10 +3749,10 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120">
+      <c r="C59" s="119">
         <v>61345</v>
       </c>
-      <c r="D59" s="195">
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3794,7 +3806,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3812,7 +3824,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3824,7 +3836,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3839,7 +3851,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3893,16 +3905,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>71887</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3928,7 +3940,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>11824</v>
       </c>
     </row>
@@ -3964,23 +3976,23 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120">
+      <c r="C81" s="119">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214">
         <v>373503</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>267</v>
+      </c>
+      <c r="C83" s="214">
         <v>1489904</v>
       </c>
     </row>
@@ -3998,20 +4010,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -4041,10 +4053,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4056,12 +4068,12 @@
         <f>C25</f>
         <v>3011012</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>3011012</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>3011012</v>
       </c>
@@ -4074,75 +4086,75 @@
         <f>C26</f>
         <v>2597400</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*87.5%</f>
         <v>2634635.5</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2597400</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>147240</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*5.04%</f>
         <v>151755.0048</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*5.04%</f>
         <v>151755.0048</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>24063</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>24063</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>35067</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*2%</f>
         <v>60220.24</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*2%</f>
         <v>60220.24</v>
       </c>
@@ -4155,12 +4167,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <v>0</v>
       </c>
     </row>
@@ -4172,12 +4184,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>27574.666666666672</v>
       </c>
@@ -4186,16 +4198,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.45</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>C98*0.8</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.45</v>
       </c>
@@ -4276,7 +4288,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4328,11 +4340,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>5.76</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>275</v>
+      <c r="G3" s="131">
+        <v>5.81</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4370,7 +4382,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1054200.8322316799</v>
+        <v>1063351.88112258</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4380,11 +4392,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4406,11 +4418,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0013</v>
       </c>
@@ -4418,8 +4430,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4428,10 +4440,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4439,7 +4451,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4447,13 +4459,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4462,12 +4474,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4477,7 +4489,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4488,7 +4500,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4496,13 +4508,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4512,129 +4524,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.16027699323804309</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.5382023677372767</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>1.0876766474117481</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.59317020102359808</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7651224932776692</v>
+        <v>8.8483235650874974</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.73208835976624664</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.02</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3522889763116837E-2</v>
+        <v>8.2737521337354861E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4651,10 +4663,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4662,22 +4674,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>4.4704268826730722</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>11.609586851242117</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>5.8942358872105602</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>10.095292914123581</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4685,23 +4697,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4709,9 +4721,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4719,17 +4731,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4737,26 +4749,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4764,9 +4776,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4779,16 +4791,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5740,10 +5752,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5769,16 +5781,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5792,11 +5804,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85">
@@ -5821,7 +5833,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5829,7 +5841,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93">
@@ -5893,47 +5905,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3011012</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3239167</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2614349</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1933836</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>2516810</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2374934</v>
       </c>
-      <c r="I6" s="200">
+      <c r="I6" s="199">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>2015890</v>
       </c>
-      <c r="J6" s="200">
+      <c r="J6" s="199">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>1616903</v>
       </c>
-      <c r="K6" s="200">
+      <c r="K6" s="199">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v>1725428</v>
       </c>
-      <c r="L6" s="200">
+      <c r="L6" s="199">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v>2282962</v>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5995,47 +6007,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2597400</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2804756</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2298168</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>1741508</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2229308</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2058853</v>
       </c>
-      <c r="I8" s="199">
+      <c r="I8" s="198">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>1780340</v>
       </c>
-      <c r="J8" s="199">
+      <c r="J8" s="198">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>1423553</v>
       </c>
-      <c r="K8" s="199">
+      <c r="K8" s="198">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v>1500674</v>
       </c>
-      <c r="L8" s="199">
+      <c r="L8" s="198">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v>1963128</v>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6046,47 +6058,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>413612</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>434411</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>316181</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>192328</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>287502</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>316081</v>
       </c>
-      <c r="I9" s="151">
+      <c r="I9" s="150">
         <f t="shared" si="2"/>
         <v>235550</v>
       </c>
-      <c r="J9" s="151">
+      <c r="J9" s="150">
         <f t="shared" si="2"/>
         <v>193350</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="150">
         <f t="shared" si="2"/>
         <v>224754</v>
       </c>
-      <c r="L9" s="151">
+      <c r="L9" s="150">
         <f t="shared" si="2"/>
         <v>319834</v>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6097,47 +6109,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>125283</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>118875</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>122996</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>126791</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>135865</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>137231</v>
       </c>
-      <c r="I10" s="199">
+      <c r="I10" s="198">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>143632</v>
       </c>
-      <c r="J10" s="199">
+      <c r="J10" s="198">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>139934</v>
       </c>
-      <c r="K10" s="199">
+      <c r="K10" s="198">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v>142620</v>
       </c>
-      <c r="L10" s="199">
+      <c r="L10" s="198">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v>147802</v>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6148,47 +6160,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>21957</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>20016</v>
       </c>
-      <c r="E11" s="199">
+      <c r="E11" s="198">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>16729</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F11" s="198">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v>15746</v>
       </c>
-      <c r="G11" s="199">
+      <c r="G11" s="198">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v>15666</v>
       </c>
-      <c r="H11" s="199">
+      <c r="H11" s="198">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v>12826</v>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6197,49 +6209,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27606.666666666668</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>30034.666666666668</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>19305.333333333332</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>28444</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27925.333333333332</v>
       </c>
-      <c r="I12" s="199">
+      <c r="I12" s="198">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>18660</v>
       </c>
-      <c r="J12" s="199">
+      <c r="J12" s="198">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>28685.333333333332</v>
       </c>
-      <c r="K12" s="199">
+      <c r="K12" s="198">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8948</v>
       </c>
-      <c r="L12" s="199">
+      <c r="L12" s="198">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>15814.666666666666</v>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6247,50 +6259,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>8.2710565195722632E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>5.6006804498302767E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>1.5764349544980374E-2</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>4.2723527004422265E-2</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>5.8148422931612695E-2</v>
       </c>
-      <c r="I13" s="229">
+      <c r="I13" s="226">
         <f t="shared" si="3"/>
         <v>3.6340276503182216E-2</v>
       </c>
-      <c r="J13" s="229">
+      <c r="J13" s="226">
         <f t="shared" si="3"/>
         <v>1.5295083667150515E-2</v>
       </c>
-      <c r="K13" s="229">
+      <c r="K13" s="226">
         <f t="shared" si="3"/>
         <v>4.2416142545501752E-2</v>
       </c>
-      <c r="L13" s="229">
+      <c r="L13" s="226">
         <f t="shared" si="3"/>
         <v>6.8427478570967606E-2</v>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6298,50 +6310,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>267913.33333333331</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>146421.33333333334</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>30485.666666666668</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>107527</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>138098.66666666666</v>
       </c>
-      <c r="I14" s="230">
+      <c r="I14" s="227">
         <f t="shared" si="4"/>
         <v>73258</v>
       </c>
-      <c r="J14" s="230">
+      <c r="J14" s="227">
         <f t="shared" si="4"/>
         <v>24730.666666666668</v>
       </c>
-      <c r="K14" s="230">
+      <c r="K14" s="227">
         <f t="shared" si="4"/>
         <v>73186</v>
       </c>
-      <c r="L14" s="230">
+      <c r="L14" s="227">
         <f t="shared" si="4"/>
         <v>156217.33333333334</v>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6349,50 +6361,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.10867693532734456</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.82974247832738368</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>3.8029565806881922</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>-0.71648361186802689</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>-0.22137553826249826</v>
       </c>
-      <c r="H15" s="232">
+      <c r="H15" s="229">
         <f t="shared" si="5"/>
         <v>0.8851001483341977</v>
       </c>
-      <c r="I15" s="232">
+      <c r="I15" s="229">
         <f t="shared" si="5"/>
         <v>1.9622331248652143</v>
       </c>
-      <c r="J15" s="232">
+      <c r="J15" s="229">
         <f t="shared" si="5"/>
         <v>-0.66208473387442035</v>
       </c>
-      <c r="K15" s="232">
+      <c r="K15" s="229">
         <f t="shared" si="5"/>
         <v>-0.53151165470327666</v>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6403,47 +6415,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-13105</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>46237</v>
       </c>
-      <c r="E16" s="199">
+      <c r="E16" s="198">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>27617</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="198">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-71716</v>
       </c>
-      <c r="G16" s="199">
+      <c r="G16" s="198">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-28895</v>
       </c>
-      <c r="H16" s="199">
+      <c r="H16" s="198">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-2436</v>
       </c>
-      <c r="I16" s="199">
+      <c r="I16" s="198">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v>-64518</v>
       </c>
-      <c r="J16" s="199">
+      <c r="J16" s="198">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v>-5969</v>
       </c>
-      <c r="K16" s="199">
+      <c r="K16" s="198">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v>-4437</v>
       </c>
-      <c r="L16" s="199">
+      <c r="L16" s="198">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v>-34533</v>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6452,49 +6464,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>24063</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21554</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>19739</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>26528</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>30409</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>22718</v>
       </c>
-      <c r="I17" s="199">
+      <c r="I17" s="198">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>21648</v>
       </c>
-      <c r="J17" s="199">
+      <c r="J17" s="198">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>20652</v>
       </c>
-      <c r="K17" s="199">
+      <c r="K17" s="198">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v>23826</v>
       </c>
-      <c r="L17" s="199">
+      <c r="L17" s="198">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v>24877</v>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6505,47 +6517,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>8.2182336038514631E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>7.3486794598734792E-2</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="151">
         <f t="shared" si="6"/>
         <v>7.8315098710998413E-2</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="151">
         <f t="shared" si="6"/>
         <v>0.1026514140806149</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <f t="shared" si="6"/>
         <v>8.41728219452402E-2</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="151">
         <f t="shared" si="6"/>
         <v>8.5204473050619511E-2</v>
       </c>
-      <c r="I18" s="152">
+      <c r="I18" s="151">
         <f t="shared" si="6"/>
         <v>0.10885117739559202</v>
       </c>
-      <c r="J18" s="152">
+      <c r="J18" s="151">
         <f t="shared" si="6"/>
         <v>0.12966207620370548</v>
       </c>
-      <c r="K18" s="152">
+      <c r="K18" s="151">
         <f t="shared" si="6"/>
         <v>0.10308051103842061</v>
       </c>
-      <c r="L18" s="152">
+      <c r="L18" s="151">
         <f t="shared" si="6"/>
         <v>7.6208452002267224E-2</v>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6556,47 +6568,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>247452</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>238036</v>
       </c>
-      <c r="E19" s="199">
+      <c r="E19" s="198">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>204743</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="198">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>198511</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="198">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>211847</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="198">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>202355</v>
       </c>
-      <c r="I19" s="199">
+      <c r="I19" s="198">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v>219432</v>
       </c>
-      <c r="J19" s="199">
+      <c r="J19" s="198">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v>209651</v>
       </c>
-      <c r="K19" s="199">
+      <c r="K19" s="198">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v>177858</v>
       </c>
-      <c r="L19" s="199">
+      <c r="L19" s="198">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v>173981</v>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6605,49 +6617,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>9.3828586535025432E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>7.525144581924921E-2</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>9.6076690602517112E-2</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0.1274632388682391</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0.11791752257818429</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>0.10783710199946608</v>
       </c>
-      <c r="I20" s="152">
+      <c r="I20" s="151">
         <f t="shared" si="7"/>
         <v>0.10726130890078328</v>
       </c>
-      <c r="J20" s="152">
+      <c r="J20" s="151">
         <f t="shared" si="7"/>
         <v>0.10661492989993834</v>
       </c>
-      <c r="K20" s="152">
+      <c r="K20" s="151">
         <f t="shared" si="7"/>
         <v>0.1172103385362936</v>
       </c>
-      <c r="L20" s="152">
+      <c r="L20" s="151">
         <f t="shared" si="7"/>
         <v>0.12778530698277063</v>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6658,47 +6670,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>282519</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>243752</v>
       </c>
-      <c r="E21" s="199">
+      <c r="E21" s="198">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>251178</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="198">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>246493</v>
       </c>
-      <c r="G21" s="199">
+      <c r="G21" s="198">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>296776</v>
       </c>
-      <c r="H21" s="199">
+      <c r="H21" s="198">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>256106</v>
       </c>
-      <c r="I21" s="199">
+      <c r="I21" s="198">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v>216227</v>
       </c>
-      <c r="J21" s="199">
+      <c r="J21" s="198">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v>172386</v>
       </c>
-      <c r="K21" s="199">
+      <c r="K21" s="198">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v>202238</v>
       </c>
-      <c r="L21" s="199">
+      <c r="L21" s="198">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v>291729</v>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6709,47 +6721,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>179667.33333333334</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>194406.33333333331</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>52630.333333333343</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>-44024.333333333328</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>-7811</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>61629.666666666657</v>
       </c>
-      <c r="I22" s="161">
+      <c r="I22" s="160">
         <f t="shared" si="8"/>
         <v>48405</v>
       </c>
-      <c r="J22" s="161">
+      <c r="J22" s="160">
         <f t="shared" si="8"/>
         <v>-33186.333333333328</v>
       </c>
-      <c r="K22" s="161">
+      <c r="K22" s="160">
         <f t="shared" si="8"/>
         <v>24980</v>
       </c>
-      <c r="L22" s="161">
+      <c r="L22" s="160">
         <f t="shared" si="8"/>
         <v>13592.333333333343</v>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6760,47 +6772,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.4752561597230435E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>4.5013038846098398E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>1.50985006209959E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>-1.7073965941269063E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>-2.32764888887123E-3</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>1.9462540853766881E-2</v>
       </c>
-      <c r="I23" s="153">
+      <c r="I23" s="152">
         <f t="shared" si="9"/>
         <v>1.8008795122749752E-2</v>
       </c>
-      <c r="J23" s="153">
+      <c r="J23" s="152">
         <f t="shared" si="9"/>
         <v>-1.539347134614754E-2</v>
       </c>
-      <c r="K23" s="153">
+      <c r="K23" s="152">
         <f t="shared" si="9"/>
         <v>1.0858175478779758E-2</v>
       </c>
-      <c r="L23" s="153">
+      <c r="L23" s="152">
         <f t="shared" si="9"/>
         <v>4.4653612280887755E-3</v>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6811,7 +6823,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>134750.5</v>
       </c>
@@ -6859,50 +6871,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-7.5815431253097032E-2</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.6938077534501645</v>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>-4.6361968164554259</v>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="H25" s="233">
+      <c r="H25" s="230">
         <f t="shared" si="10"/>
         <v>0.27320869056226954</v>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="K25" s="233">
+      <c r="K25" s="230">
         <f t="shared" si="10"/>
         <v>0.83780072099467706</v>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6966,7 +6978,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>2768297</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -7019,43 +7031,43 @@
         <f>Fin_Analysis!C13</f>
         <v>142879</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7070,43 +7082,43 @@
         <f>Fin_Analysis!C18</f>
         <v>182674</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7115,49 +7127,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>1090144</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7172,43 +7184,43 @@
         <f>Fin_Analysis!I15</f>
         <v>52418</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7223,43 +7235,43 @@
         <f>Fin_Analysis!I34</f>
         <v>81126</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7323,45 +7335,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>1678153</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7374,45 +7386,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>188249</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7427,43 +7439,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7525,47 +7537,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.10723230392764403</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7574,7 +7586,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7594,47 +7606,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.86588805084764076</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.87905937577576676</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.90054585807690002</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.88576730067029297</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.86690956464474378</v>
       </c>
-      <c r="I40" s="156">
+      <c r="I40" s="155">
         <f t="shared" si="34"/>
         <v>0.88315334666078005</v>
       </c>
-      <c r="J40" s="156">
+      <c r="J40" s="155">
         <f t="shared" si="34"/>
         <v>0.88041954279261037</v>
       </c>
-      <c r="K40" s="156">
+      <c r="K40" s="155">
         <f t="shared" si="34"/>
         <v>0.86974014563343127</v>
       </c>
-      <c r="L40" s="156">
+      <c r="L40" s="155">
         <f t="shared" si="34"/>
         <v>0.85990393182190505</v>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7643,49 +7655,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>4.2878616631992113E-2</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>5.3445427523257226E-2</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>7.3706870696377561E-2</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>6.0207564337395353E-2</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>6.3183650577237099E-2</v>
       </c>
-      <c r="I41" s="153">
+      <c r="I41" s="152">
         <f t="shared" si="35"/>
         <v>7.1249919390442937E-2</v>
       </c>
-      <c r="J41" s="153">
+      <c r="J41" s="152">
         <f t="shared" si="35"/>
         <v>8.6544461850834586E-2</v>
       </c>
-      <c r="K41" s="153">
+      <c r="K41" s="152">
         <f t="shared" si="35"/>
         <v>8.265775216352117E-2</v>
       </c>
-      <c r="L41" s="153">
+      <c r="L41" s="152">
         <f t="shared" si="35"/>
         <v>6.4741331655980255E-2</v>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7696,47 +7708,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>1.4274348929832885E-2</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>1.0563624060903882E-2</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153">
+      <c r="I42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J42" s="153">
+      <c r="J42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K42" s="153">
+      <c r="K42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L42" s="153">
+      <c r="L42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7747,47 +7759,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>6.6541799172441553E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>7.5502543845523303E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>1.3717812679048275E-2</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>1.2082358223306488E-2</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>9.5657395110769396E-3</v>
       </c>
-      <c r="I43" s="153">
+      <c r="I43" s="152">
         <f t="shared" si="37"/>
         <v>1.0738681178040468E-2</v>
       </c>
-      <c r="J43" s="153">
+      <c r="J43" s="152">
         <f t="shared" si="37"/>
         <v>1.2772565824913431E-2</v>
       </c>
-      <c r="K43" s="153">
+      <c r="K43" s="152">
         <f t="shared" si="37"/>
         <v>1.3808747742589085E-2</v>
       </c>
-      <c r="L43" s="153">
+      <c r="L43" s="152">
         <f t="shared" si="37"/>
         <v>1.0896808619679172E-2</v>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7798,47 +7810,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>8.522767324644475E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>1.1488392202673272E-2</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>9.9829216817420574E-3</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>1.1301607987889432E-2</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>1.1758361846406398E-2</v>
       </c>
-      <c r="I44" s="153">
+      <c r="I44" s="152">
         <f t="shared" si="38"/>
         <v>9.2564574455947495E-3</v>
       </c>
-      <c r="J44" s="153">
+      <c r="J44" s="152">
         <f t="shared" si="38"/>
         <v>1.774091168940458E-2</v>
       </c>
-      <c r="K44" s="153">
+      <c r="K44" s="152">
         <f t="shared" si="38"/>
         <v>5.1859596575458376E-3</v>
       </c>
-      <c r="L44" s="153">
+      <c r="L44" s="152">
         <f t="shared" si="38"/>
         <v>6.9272579511470917E-3</v>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7847,49 +7859,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.76465122051441E-3</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>1.7761591891518692E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>2.4811824787624184E-2</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>3.3744700632944082E-2</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>2.263262894884658E-2</v>
       </c>
-      <c r="I45" s="153">
+      <c r="I45" s="152">
         <f t="shared" si="39"/>
         <v>1.5898684948087445E-3</v>
       </c>
-      <c r="J45" s="153">
+      <c r="J45" s="152">
         <f t="shared" si="39"/>
         <v>2.3047146303767141E-2</v>
       </c>
-      <c r="K45" s="153">
+      <c r="K45" s="152">
         <f t="shared" si="39"/>
         <v>1.4129827497872992E-2</v>
       </c>
-      <c r="L45" s="153">
+      <c r="L45" s="152">
         <f t="shared" si="39"/>
         <v>5.1576854980503399E-2</v>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7900,47 +7912,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>5.9670082129640582E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>6.0017385128131186E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>2.0131334161327865E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>-2.2765287921692082E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>-3.1035318518283063E-3</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>2.5950054471689174E-2</v>
       </c>
-      <c r="I46" s="153">
+      <c r="I46" s="152">
         <f t="shared" si="40"/>
         <v>2.4011726830333004E-2</v>
       </c>
-      <c r="J46" s="153">
+      <c r="J46" s="152">
         <f t="shared" si="40"/>
         <v>-2.0524628461530053E-2</v>
       </c>
-      <c r="K46" s="153">
+      <c r="K46" s="152">
         <f t="shared" si="40"/>
         <v>1.4477567305039678E-2</v>
       </c>
-      <c r="L46" s="153">
+      <c r="L46" s="152">
         <f t="shared" si="40"/>
         <v>5.9538149707850339E-3</v>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7949,9 +7961,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7966,50 +7980,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>1.0876766474117481</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="e">
+      <c r="I48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="272" t="e">
+      <c r="J48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="272" t="e">
+      <c r="K48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L48" s="272" t="e">
+      <c r="L48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8018,49 +8032,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>4.7452152299625509E-2</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8069,49 +8083,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>6.0668638982508204E-2</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8120,49 +8134,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>5.743902171769192E-2</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>7.400074901811407E-2</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="152">
         <f t="shared" si="44"/>
         <v>4.0582619288683681E-2</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="152">
         <f t="shared" si="44"/>
         <v>0.12301749306144014</v>
       </c>
-      <c r="G51" s="153">
+      <c r="G51" s="152">
         <f t="shared" si="44"/>
         <v>-0.2036637627223773</v>
       </c>
-      <c r="H51" s="153">
+      <c r="H51" s="152">
         <f t="shared" si="44"/>
         <v>-6.7846837713483581E-3</v>
       </c>
-      <c r="I51" s="153">
+      <c r="I51" s="152">
         <f t="shared" si="44"/>
         <v>-0.16170451668851366</v>
       </c>
-      <c r="J51" s="153">
+      <c r="J51" s="152">
         <f t="shared" si="44"/>
         <v>5.5001151808339095E-2</v>
       </c>
-      <c r="K51" s="153">
+      <c r="K51" s="152">
         <f t="shared" si="44"/>
         <v>7.9582590478786946E-3</v>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8171,7 +8185,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8188,49 +8202,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.5382023677372767</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8240,47 +8254,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.3453793007048864</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8290,47 +8304,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.13393085739941596</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.11087087354835834</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>0.37504987618040286</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>-0.6025758482051593</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>-3.8930994750992189</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>0.36862117270362221</v>
       </c>
-      <c r="I55" s="153">
+      <c r="I55" s="152">
         <f t="shared" si="47"/>
         <v>0.44722652618531145</v>
       </c>
-      <c r="J55" s="153">
+      <c r="J55" s="152">
         <f t="shared" si="47"/>
         <v>-0.62230436223746732</v>
       </c>
-      <c r="K55" s="153">
+      <c r="K55" s="152">
         <f t="shared" si="47"/>
         <v>0.9538030424339472</v>
       </c>
-      <c r="L55" s="153">
+      <c r="L55" s="152">
         <f t="shared" si="47"/>
         <v>1.8302229197832098</v>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8340,47 +8354,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8388,149 +8402,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>0.16027699323804309</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="e">
+      <c r="I58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="274" t="e">
+      <c r="J58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="274" t="e">
+      <c r="K58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L58" s="274" t="e">
+      <c r="L58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>0.12058987245710687</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="e">
+      <c r="I59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="274" t="e">
+      <c r="J59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="274" t="e">
+      <c r="K59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L59" s="274" t="e">
+      <c r="L59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9826,8 +9840,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9863,8 +9877,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>1678153</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9876,8 +9890,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>1489904</v>
       </c>
       <c r="K3" s="24"/>
@@ -9887,8 +9901,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>188249</v>
       </c>
       <c r="E4" s="37"/>
@@ -9919,13 +9933,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-649866.79999999993</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.3872512220280271</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9945,9 +9959,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9975,11 +9989,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -10022,7 +10036,7 @@
         <f>Inputs!C48</f>
         <v>238880</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10050,7 +10064,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10078,7 +10092,7 @@
         <f>Inputs!C50</f>
         <v>142879</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10106,7 +10120,7 @@
         <f>Inputs!C51</f>
         <v>9895</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10119,7 +10133,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>11824</v>
       </c>
@@ -10134,7 +10148,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10161,7 +10175,7 @@
         <f>Inputs!C53</f>
         <v>11851</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10183,7 +10197,7 @@
         <f>Inputs!C54</f>
         <v>24847</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10205,7 +10219,7 @@
         <f>Inputs!C55</f>
         <v>182674</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10226,7 +10240,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10234,7 +10248,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10251,7 +10265,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10259,7 +10273,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10278,7 +10292,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10299,7 +10313,7 @@
         <f>Inputs!C59</f>
         <v>61345</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10464,7 +10478,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>716641</v>
       </c>
@@ -10493,7 +10507,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10519,7 +10533,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10546,7 +10560,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10573,7 +10587,7 @@
         <f>Inputs!C63</f>
         <v>693</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10589,7 +10603,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>11000</v>
       </c>
@@ -10603,7 +10617,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10630,7 +10644,7 @@
         <f>Inputs!C65</f>
         <v>292606</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10638,7 +10652,7 @@
         <f t="shared" si="1"/>
         <v>29260.600000000002</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10656,7 +10670,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10664,7 +10678,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10683,7 +10697,7 @@
         <f>Inputs!C67</f>
         <v>201156</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10691,7 +10705,7 @@
         <f t="shared" si="1"/>
         <v>20115.600000000002</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10710,7 +10724,7 @@
         <f>Inputs!C68</f>
         <v>1413348</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10731,7 +10745,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10752,7 +10766,7 @@
         <f>Inputs!C70</f>
         <v>91529</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10773,7 +10787,7 @@
         <f>Inputs!C71</f>
         <v>24707</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10794,7 +10808,7 @@
         <f>Inputs!C72</f>
         <v>71887</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10940,8 +10954,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>373503</v>
       </c>
       <c r="J48" s="8"/>
@@ -10967,8 +10981,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>1090144</v>
       </c>
       <c r="J49" s="87"/>
@@ -10991,9 +11005,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11011,13 +11025,13 @@
         <f>MAX(D4,0)</f>
         <v>188249</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>188249</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11038,7 +11052,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11138,7 +11152,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>238880</v>
       </c>
@@ -11146,7 +11160,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>214992</v>
       </c>
@@ -11177,11 +11191,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>133544</v>
@@ -11258,12 +11272,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>956600</v>
       </c>
@@ -11342,17 +11356,17 @@
         <f>Data!C6</f>
         <v>3011012</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>3011012</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>3011012</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11363,23 +11377,23 @@
         <f>Data!C8</f>
         <v>2597400</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2634635.5</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.875</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2597400</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.86263355974668987</v>
       </c>
@@ -11389,48 +11403,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>413612</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>376376.5</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>413612</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>147240</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>151755.0048</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>5.04E-2</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>151755.0048</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>5.04E-2</v>
       </c>
@@ -11444,54 +11458,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>27574.666666666672</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>27574.666666666672</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.1579398111554088E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>197046.82853333332</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>6.5442060188844589E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>234282.32853333332</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>7.7808500442154774E-2</v>
       </c>
@@ -11505,55 +11519,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>24063</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>24063</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>24063</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>7.9916652607163307E-3</v>
       </c>
@@ -11561,29 +11575,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>35067</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>60220.24</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>60220.24</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0.02</v>
       </c>
@@ -11593,27 +11607,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>179667.33333333334</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>5.9670082129640582E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>112763.58853333333</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>3.745039492812826E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>149999.08853333333</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>4.9816835181438444E-2</v>
       </c>
@@ -11623,49 +11637,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>134750.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>4.4752561597230435E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>84572.691399999996</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>2.8087796196096197E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>112499.3164</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>3.7362626386078832E-2</v>
       </c>
@@ -11675,69 +11689,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.73625713077546118</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.46209288360430956</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.61467990031105468</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1366540514912612</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.13536908903847641</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5767406616896719E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.4960932926780891E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11408853678507526</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.11301575859473122</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.45</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.61119951330867051</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.77906415089540371</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.45</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.73208835976624664</v>
       </c>
@@ -11745,23 +11759,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3522889763116837E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.2737521337354861E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6818311810493469E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.6190017069883894E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3522889763116837E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.2737521337354861E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11783,7 +11797,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11806,27 +11820,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.252340920653525</v>
+        <v>11.201599082499687</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.024608724235613</v>
+        <v>16.92917603230708</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11834,27 +11848,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0275756716748479</v>
+        <v>7.9975286033154367</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.845075117265411</v>
+        <v>10.797138979276522</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11868,25 +11882,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11897,21 +11911,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1549133.3687733952</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>1540449.5881395468</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5944021233938734</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>5.5691744619575134</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4642393852462465</v>
-      </c>
-      <c r="I97" s="123">
+        <v>8.4167924710324904</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.25714323484117</v>
+        <v>11.194040493408021</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11919,18 +11933,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-201093.85633579889</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-1.098747579284441</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11941,46 +11955,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>1339355.7318037478</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>4.4704268826730722</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>4.4704268826730722</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>5.8942358872105602</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>7.3180448917480483</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>10.095292914123581</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11992,25 +12006,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -12021,27 +12035,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>986834.29517492256</v>
+        <v>982472.40515256906</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9877932349097556</v>
-      </c>
-      <c r="E103" s="123">
+        <v>3.9713153746351102</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9911238648032774</v>
+        <v>3.976185161451061</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.6915214528350067</v>
-      </c>
-      <c r="H103" s="123">
+        <v>4.6721357348648356</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3919190408667355</v>
+        <v>5.3680863082786106</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1710643084485977</v>
+        <v>7.1393676051523949</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12053,25 +12067,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -12080,29 +12094,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>772953.59778244735</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>4.2208711286540908</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>4.2233060220620668</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>5.2831858110376979</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>6.343065600013329</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>8.6173302596379884</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12113,14 +12127,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2F4A24-D866-47BF-8382-23ADC62E8D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6C8390-0C0F-456B-85DD-C31991320C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2737521337354861E-2</v>
+        <v>8.2877585600162382E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>277</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1063351.88112258</v>
+        <v>1061521.6713443999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4431,7 +4431,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.59317020102359808</v>
+        <v>0.59216773520218069</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.8483235650874974</v>
+        <v>8.833369776216216</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2737521337354861E-2</v>
+        <v>8.2877585600162382E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4676,20 +4676,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4704268826730722</v>
+        <v>4.4739796248302746</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>11.609586851242117</v>
+        <v>11.620292111897497</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8942358872105602</v>
+        <v>5.8995161987297067</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.095292914123581</v>
+        <v>10.104601836432607</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11712,17 +11712,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13536908903847641</v>
+        <v>0.13559825195460717</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4960932926780891E-2</v>
+        <v>8.5104761146982302E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11301575859473122</v>
+        <v>0.11320708012161936</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11763,17 +11763,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2737521337354861E-2</v>
+        <v>8.2877585600162382E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6190017069883894E-2</v>
+        <v>6.6302068480129914E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2737521337354861E-2</v>
+        <v>8.2877585600162382E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11833,14 +11833,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.201599082499687</v>
+        <v>11.208675944132576</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.92917603230708</v>
+        <v>16.94320241204607</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11861,14 +11861,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9975286033154367</v>
+        <v>8.0014822656385434</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.797138979276522</v>
+        <v>10.803787252828377</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11911,21 +11911,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1540449.5881395468</v>
+        <v>1541725.9013429056</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5691744619575134</v>
+        <v>5.5726929129203109</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4167924710324904</v>
+        <v>8.423766060719176</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.194040493408021</v>
+        <v>11.203315124522645</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11935,14 +11935,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-201093.85633579889</v>
+        <v>-201087.58032786846</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.098747579284441</v>
+        <v>-1.0987132880900368</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11974,27 +11974,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>1339355.7318037478</v>
+        <v>1340638.3210150371</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.4704268826730722</v>
+        <v>4.4739796248302746</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4704268826730722</v>
+        <v>4.4739796248302746</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.8942358872105602</v>
+        <v>5.8995161987297067</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.3180448917480483</v>
+        <v>7.3250527726291397</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.095292914123581</v>
+        <v>10.104601836432607</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12035,27 +12035,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>982472.40515256906</v>
+        <v>983077.35664195358</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9713153746351102</v>
+        <v>3.9735555648782266</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.976185161451061</v>
+        <v>3.9781508303773347</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.6721357348648356</v>
+        <v>4.6747712527979139</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3680863082786106</v>
+        <v>5.3713916752184927</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1393676051523949</v>
+        <v>7.1437636279244838</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12096,27 +12096,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>772953.59778244735</v>
+        <v>773458.59027869697</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.2208711286540908</v>
+        <v>4.2237675948542508</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>4.2233060220620668</v>
+        <v>4.2260652276038044</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.2831858110376979</v>
+        <v>5.2871437257638103</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>6.343065600013329</v>
+        <v>6.3482222239238162</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>8.6173302596379884</v>
+        <v>8.6241827321785465</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6C8390-0C0F-456B-85DD-C31991320C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A9588A-B0C2-4D6B-AE07-6673825C029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1693,7 +1690,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1841,7 +1838,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2031,9 +2027,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2369,6 +2362,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2824,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2838,172 +2832,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>183020977818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>183020977818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C19" s="237" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>276</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3051,572 +3045,573 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>3011012</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>3239167</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>2614349</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>1933836</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>2516810</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>2374934</v>
       </c>
-      <c r="I25" s="148">
+      <c r="I25" s="147">
         <v>2015890</v>
       </c>
-      <c r="J25" s="148">
+      <c r="J25" s="147">
         <v>1616903</v>
       </c>
-      <c r="K25" s="148">
+      <c r="K25" s="147">
         <v>1725428</v>
       </c>
-      <c r="L25" s="148">
+      <c r="L25" s="147">
         <v>2282962</v>
       </c>
-      <c r="M25" s="148"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>2597400</v>
+      </c>
+      <c r="D26" s="148">
+        <v>2804756</v>
+      </c>
+      <c r="E26" s="148">
+        <v>2298168</v>
+      </c>
+      <c r="F26" s="148">
+        <v>1741508</v>
+      </c>
+      <c r="G26" s="148">
+        <v>2229308</v>
+      </c>
+      <c r="H26" s="148">
+        <v>2058853</v>
+      </c>
+      <c r="I26" s="148">
+        <v>1780340</v>
+      </c>
+      <c r="J26" s="148">
+        <v>1423553</v>
+      </c>
+      <c r="K26" s="148">
+        <v>1500674</v>
+      </c>
+      <c r="L26" s="148">
+        <v>1963128</v>
+      </c>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>125283</v>
+      </c>
+      <c r="D27" s="148">
+        <v>118875</v>
+      </c>
+      <c r="E27" s="148">
+        <v>122996</v>
+      </c>
+      <c r="F27" s="148">
+        <v>126791</v>
+      </c>
+      <c r="G27" s="148">
+        <v>135865</v>
+      </c>
+      <c r="H27" s="148">
+        <v>137231</v>
+      </c>
+      <c r="I27" s="148">
+        <v>143632</v>
+      </c>
+      <c r="J27" s="148">
+        <v>139934</v>
+      </c>
+      <c r="K27" s="148">
+        <v>142620</v>
+      </c>
+      <c r="L27" s="148">
+        <v>147802</v>
+      </c>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>2597400</v>
-      </c>
-      <c r="D26" s="149">
-        <v>2804756</v>
-      </c>
-      <c r="E26" s="149">
-        <v>2298168</v>
-      </c>
-      <c r="F26" s="149">
-        <v>1741508</v>
-      </c>
-      <c r="G26" s="149">
-        <v>2229308</v>
-      </c>
-      <c r="H26" s="149">
-        <v>2058853</v>
-      </c>
-      <c r="I26" s="149">
-        <v>1780340</v>
-      </c>
-      <c r="J26" s="149">
-        <v>1423553</v>
-      </c>
-      <c r="K26" s="149">
-        <v>1500674</v>
-      </c>
-      <c r="L26" s="149">
-        <v>1963128</v>
-      </c>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148">
+        <v>21957</v>
+      </c>
+      <c r="D28" s="148">
+        <v>20016</v>
+      </c>
+      <c r="E28" s="148">
+        <v>16729</v>
+      </c>
+      <c r="F28" s="148">
+        <v>15746</v>
+      </c>
+      <c r="G28" s="148">
+        <v>15666</v>
+      </c>
+      <c r="H28" s="148">
+        <v>12826</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>24063</v>
+      </c>
+      <c r="D29" s="148">
+        <v>21554</v>
+      </c>
+      <c r="E29" s="148">
+        <v>19739</v>
+      </c>
+      <c r="F29" s="148">
+        <v>26528</v>
+      </c>
+      <c r="G29" s="148">
+        <v>30409</v>
+      </c>
+      <c r="H29" s="148">
+        <v>22718</v>
+      </c>
+      <c r="I29" s="148">
+        <v>21648</v>
+      </c>
+      <c r="J29" s="148">
+        <v>20652</v>
+      </c>
+      <c r="K29" s="148">
+        <v>23826</v>
+      </c>
+      <c r="L29" s="148">
+        <v>24877</v>
+      </c>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>20681</v>
+      </c>
+      <c r="D30" s="148">
+        <v>20705</v>
+      </c>
+      <c r="E30" s="148">
+        <v>22526</v>
+      </c>
+      <c r="F30" s="148">
+        <v>14479</v>
+      </c>
+      <c r="G30" s="148">
+        <v>21333</v>
+      </c>
+      <c r="H30" s="148">
+        <v>20944</v>
+      </c>
+      <c r="I30" s="148">
+        <v>13995</v>
+      </c>
+      <c r="J30" s="148">
+        <v>21514</v>
+      </c>
+      <c r="K30" s="148">
+        <v>6711</v>
+      </c>
+      <c r="L30" s="148">
+        <v>11861</v>
+      </c>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-13105</v>
+      </c>
+      <c r="D31" s="148">
+        <v>46237</v>
+      </c>
+      <c r="E31" s="148">
+        <v>27617</v>
+      </c>
+      <c r="F31" s="148">
+        <v>-71716</v>
+      </c>
+      <c r="G31" s="148">
+        <v>-28895</v>
+      </c>
+      <c r="H31" s="148">
+        <v>-2436</v>
+      </c>
+      <c r="I31" s="148">
+        <v>-64518</v>
+      </c>
+      <c r="J31" s="148">
+        <v>-5969</v>
+      </c>
+      <c r="K31" s="148">
+        <v>-4437</v>
+      </c>
+      <c r="L31" s="148">
+        <v>-34533</v>
+      </c>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>125283</v>
-      </c>
-      <c r="D27" s="149">
-        <v>118875</v>
-      </c>
-      <c r="E27" s="149">
-        <v>122996</v>
-      </c>
-      <c r="F27" s="149">
-        <v>126791</v>
-      </c>
-      <c r="G27" s="149">
-        <v>135865</v>
-      </c>
-      <c r="H27" s="149">
-        <v>137231</v>
-      </c>
-      <c r="I27" s="149">
-        <v>143632</v>
-      </c>
-      <c r="J27" s="149">
-        <v>139934</v>
-      </c>
-      <c r="K27" s="149">
-        <v>142620</v>
-      </c>
-      <c r="L27" s="149">
-        <v>147802</v>
-      </c>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>247452</v>
+      </c>
+      <c r="D32" s="148">
+        <v>238036</v>
+      </c>
+      <c r="E32" s="148">
+        <v>204743</v>
+      </c>
+      <c r="F32" s="148">
+        <v>198511</v>
+      </c>
+      <c r="G32" s="148">
+        <v>211847</v>
+      </c>
+      <c r="H32" s="148">
+        <v>202355</v>
+      </c>
+      <c r="I32" s="148">
+        <v>219432</v>
+      </c>
+      <c r="J32" s="148">
+        <v>209651</v>
+      </c>
+      <c r="K32" s="148">
+        <v>177858</v>
+      </c>
+      <c r="L32" s="148">
+        <v>173981</v>
+      </c>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>21957</v>
-      </c>
-      <c r="D28" s="149">
-        <v>20016</v>
-      </c>
-      <c r="E28" s="149">
-        <v>16729</v>
-      </c>
-      <c r="F28" s="149">
-        <v>15746</v>
-      </c>
-      <c r="G28" s="149">
-        <v>15666</v>
-      </c>
-      <c r="H28" s="149">
-        <v>12826</v>
-      </c>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>24063</v>
-      </c>
-      <c r="D29" s="149">
-        <v>21554</v>
-      </c>
-      <c r="E29" s="149">
-        <v>19739</v>
-      </c>
-      <c r="F29" s="149">
-        <v>26528</v>
-      </c>
-      <c r="G29" s="149">
-        <v>30409</v>
-      </c>
-      <c r="H29" s="149">
-        <v>22718</v>
-      </c>
-      <c r="I29" s="149">
-        <v>21648</v>
-      </c>
-      <c r="J29" s="149">
-        <v>20652</v>
-      </c>
-      <c r="K29" s="149">
-        <v>23826</v>
-      </c>
-      <c r="L29" s="149">
-        <v>24877</v>
-      </c>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>20681</v>
-      </c>
-      <c r="D30" s="149">
-        <v>20705</v>
-      </c>
-      <c r="E30" s="149">
-        <v>22526</v>
-      </c>
-      <c r="F30" s="149">
-        <v>14479</v>
-      </c>
-      <c r="G30" s="149">
-        <v>21333</v>
-      </c>
-      <c r="H30" s="149">
-        <v>20944</v>
-      </c>
-      <c r="I30" s="149">
-        <v>13995</v>
-      </c>
-      <c r="J30" s="149">
-        <v>21514</v>
-      </c>
-      <c r="K30" s="149">
-        <v>6711</v>
-      </c>
-      <c r="L30" s="149">
-        <v>11861</v>
-      </c>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-13105</v>
-      </c>
-      <c r="D31" s="149">
-        <v>46237</v>
-      </c>
-      <c r="E31" s="149">
-        <v>27617</v>
-      </c>
-      <c r="F31" s="149">
-        <v>-71716</v>
-      </c>
-      <c r="G31" s="149">
-        <v>-28895</v>
-      </c>
-      <c r="H31" s="149">
-        <v>-2436</v>
-      </c>
-      <c r="I31" s="149">
-        <v>-64518</v>
-      </c>
-      <c r="J31" s="149">
-        <v>-5969</v>
-      </c>
-      <c r="K31" s="149">
-        <v>-4437</v>
-      </c>
-      <c r="L31" s="149">
-        <v>-34533</v>
-      </c>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>247452</v>
-      </c>
-      <c r="D32" s="149">
-        <v>238036</v>
-      </c>
-      <c r="E32" s="149">
-        <v>204743</v>
-      </c>
-      <c r="F32" s="149">
-        <v>198511</v>
-      </c>
-      <c r="G32" s="149">
-        <v>211847</v>
-      </c>
-      <c r="H32" s="149">
-        <v>202355</v>
-      </c>
-      <c r="I32" s="149">
-        <v>219432</v>
-      </c>
-      <c r="J32" s="149">
-        <v>209651</v>
-      </c>
-      <c r="K32" s="149">
-        <v>177858</v>
-      </c>
-      <c r="L32" s="149">
-        <v>173981</v>
-      </c>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>282519</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>243752</v>
       </c>
-      <c r="E33" s="149">
+      <c r="E33" s="148">
         <v>251178</v>
       </c>
-      <c r="F33" s="149">
+      <c r="F33" s="148">
         <v>246493</v>
       </c>
-      <c r="G33" s="149">
+      <c r="G33" s="148">
         <v>296776</v>
       </c>
-      <c r="H33" s="149">
+      <c r="H33" s="148">
         <v>256106</v>
       </c>
-      <c r="I33" s="149">
+      <c r="I33" s="148">
         <v>216227</v>
       </c>
-      <c r="J33" s="149">
+      <c r="J33" s="148">
         <v>172386</v>
       </c>
-      <c r="K33" s="149">
+      <c r="K33" s="148">
         <v>202238</v>
       </c>
-      <c r="L33" s="149">
+      <c r="L33" s="148">
         <v>291729</v>
       </c>
-      <c r="M33" s="149"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <v>1090144</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>1678153</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>1678153</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>188249</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.22+0.23</f>
         <v>0.45</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2877585600162382E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>8.3290294096829365E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>238880</v>
@@ -3624,21 +3619,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>142879</v>
@@ -3647,11 +3642,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>9895</v>
@@ -3659,21 +3654,21 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>11851</v>
@@ -3682,11 +3677,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59">
         <v>24847</v>
@@ -3694,11 +3689,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>182674</v>
@@ -3707,93 +3702,93 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118">
         <v>61345</v>
       </c>
-      <c r="D59" s="194">
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59">
         <v>693</v>
@@ -3802,21 +3797,21 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>292606</v>
@@ -3824,25 +3819,25 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>201156</v>
@@ -3851,13 +3846,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>1413348</v>
@@ -3866,22 +3861,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>91529</v>
@@ -3889,11 +3884,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>24707</v>
@@ -3902,23 +3897,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>71887</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>40594</v>
@@ -3926,21 +3921,21 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
         <v>11824</v>
       </c>
     </row>
@@ -3948,13 +3943,13 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>716641</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>70126</v>
@@ -3962,85 +3957,85 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119">
+      <c r="C81" s="118">
         <v>11000</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214">
+        <v>263</v>
+      </c>
+      <c r="C82" s="212">
         <v>373503</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214">
+        <v>264</v>
+      </c>
+      <c r="C83" s="212">
         <v>1489904</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4049,165 +4044,165 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>3011012</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>3011012</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>3011012</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2597400</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*87.5%</f>
         <v>2634635.5</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2597400</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>147240</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*5.04%</f>
         <v>151755.0048</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*5.04%</f>
         <v>151755.0048</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>24063</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>24063</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>35067</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*2%</f>
         <v>60220.24</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*2%</f>
         <v>60220.24</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>27574.666666666672</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.45</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>C98*0.8</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.45</v>
       </c>
@@ -4220,32 +4215,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4304,13 +4299,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4321,82 +4316,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0857.HK : 中國石油股份</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>5.8</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>277</v>
+      <c r="G3" s="130">
+        <v>5.77</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>1061521.6713443999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>1056031.0420098598</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4407,31 +4402,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0013</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4440,280 +4435,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.16027699323804309</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.5382023677372767</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>1.0876766474117481</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.59216773520218069</v>
+        <v>0.58923350789010198</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.833369776216216</v>
+        <v>8.7895998892158449</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.73208835976624664</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.02</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2877585600162382E-2</v>
+        <v>8.3290294096829365E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4739796248302746</v>
-      </c>
-      <c r="D29" s="128">
+        <v>4.483890849102341</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>11.620292111897497</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>11.650402340401341</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8995161987297067</v>
-      </c>
-      <c r="G29" s="286">
+        <v>5.9143450013742296</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.104601836432607</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>10.130784643827253</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4721,9 +4716,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4731,17 +4726,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4749,26 +4744,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4776,9 +4771,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4791,16 +4786,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5752,10 +5747,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5781,59 +5776,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>138098.66666666666</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5841,19 +5836,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>9.5569662989496651E-2</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5902,928 +5897,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3011012</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3239167</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2614349</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1933836</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>2516810</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2374934</v>
       </c>
-      <c r="I6" s="199">
+      <c r="I6" s="197">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>2015890</v>
       </c>
-      <c r="J6" s="199">
+      <c r="J6" s="197">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>1616903</v>
       </c>
-      <c r="K6" s="199">
+      <c r="K6" s="197">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v>1725428</v>
       </c>
-      <c r="L6" s="199">
+      <c r="L6" s="197">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v>2282962</v>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-7.0436318967191269E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>0.23899563524227263</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.35189798928140759</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>-0.23163210572113113</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>5.973892327113095E-2</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <f t="shared" si="1"/>
         <v>0.17810694035884889</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <f t="shared" si="1"/>
         <v>0.24676000972229017</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="91">
         <f t="shared" si="1"/>
         <v>-6.289743762127431E-2</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="91">
         <f t="shared" si="1"/>
         <v>-0.24421519061640096</v>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2597400</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2804756</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2298168</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>1741508</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2229308</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2058853</v>
       </c>
-      <c r="I8" s="198">
+      <c r="I8" s="196">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>1780340</v>
       </c>
-      <c r="J8" s="198">
+      <c r="J8" s="196">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>1423553</v>
       </c>
-      <c r="K8" s="198">
+      <c r="K8" s="196">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v>1500674</v>
       </c>
-      <c r="L8" s="198">
+      <c r="L8" s="196">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v>1963128</v>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>413612</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>434411</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>316181</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>192328</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>287502</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>316081</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="149">
         <f t="shared" si="2"/>
         <v>235550</v>
       </c>
-      <c r="J9" s="150">
+      <c r="J9" s="149">
         <f t="shared" si="2"/>
         <v>193350</v>
       </c>
-      <c r="K9" s="150">
+      <c r="K9" s="149">
         <f t="shared" si="2"/>
         <v>224754</v>
       </c>
-      <c r="L9" s="150">
+      <c r="L9" s="149">
         <f t="shared" si="2"/>
         <v>319834</v>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>125283</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>118875</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>122996</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>126791</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>135865</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>137231</v>
       </c>
-      <c r="I10" s="198">
+      <c r="I10" s="196">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>143632</v>
       </c>
-      <c r="J10" s="198">
+      <c r="J10" s="196">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>139934</v>
       </c>
-      <c r="K10" s="198">
+      <c r="K10" s="196">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v>142620</v>
       </c>
-      <c r="L10" s="198">
+      <c r="L10" s="196">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v>147802</v>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>21957</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>20016</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="196">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>16729</v>
       </c>
-      <c r="F11" s="198">
+      <c r="F11" s="196">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v>15746</v>
       </c>
-      <c r="G11" s="198">
+      <c r="G11" s="196">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v>15666</v>
       </c>
-      <c r="H11" s="198">
+      <c r="H11" s="196">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v>12826</v>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27606.666666666668</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>30034.666666666668</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>19305.333333333332</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>28444</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>27925.333333333332</v>
       </c>
-      <c r="I12" s="198">
+      <c r="I12" s="196">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>18660</v>
       </c>
-      <c r="J12" s="198">
+      <c r="J12" s="196">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>28685.333333333332</v>
       </c>
-      <c r="K12" s="198">
+      <c r="K12" s="196">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8948</v>
       </c>
-      <c r="L12" s="198">
+      <c r="L12" s="196">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>15814.666666666666</v>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>8.2710565195722632E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>5.6006804498302767E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>1.5764349544980374E-2</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>4.2723527004422265E-2</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>5.8148422931612695E-2</v>
       </c>
-      <c r="I13" s="226">
+      <c r="I13" s="224">
         <f t="shared" si="3"/>
         <v>3.6340276503182216E-2</v>
       </c>
-      <c r="J13" s="226">
+      <c r="J13" s="224">
         <f t="shared" si="3"/>
         <v>1.5295083667150515E-2</v>
       </c>
-      <c r="K13" s="226">
+      <c r="K13" s="224">
         <f t="shared" si="3"/>
         <v>4.2416142545501752E-2</v>
       </c>
-      <c r="L13" s="226">
+      <c r="L13" s="224">
         <f t="shared" si="3"/>
         <v>6.8427478570967606E-2</v>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>267913.33333333331</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>146421.33333333334</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>30485.666666666668</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>107527</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>138098.66666666666</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="225">
         <f t="shared" si="4"/>
         <v>73258</v>
       </c>
-      <c r="J14" s="227">
+      <c r="J14" s="225">
         <f t="shared" si="4"/>
         <v>24730.666666666668</v>
       </c>
-      <c r="K14" s="227">
+      <c r="K14" s="225">
         <f t="shared" si="4"/>
         <v>73186</v>
       </c>
-      <c r="L14" s="227">
+      <c r="L14" s="225">
         <f t="shared" si="4"/>
         <v>156217.33333333334</v>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.10867693532734456</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.82974247832738368</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>3.8029565806881922</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>-0.71648361186802689</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>-0.22137553826249826</v>
       </c>
-      <c r="H15" s="229">
+      <c r="H15" s="227">
         <f t="shared" si="5"/>
         <v>0.8851001483341977</v>
       </c>
-      <c r="I15" s="229">
+      <c r="I15" s="227">
         <f t="shared" si="5"/>
         <v>1.9622331248652143</v>
       </c>
-      <c r="J15" s="229">
+      <c r="J15" s="227">
         <f t="shared" si="5"/>
         <v>-0.66208473387442035</v>
       </c>
-      <c r="K15" s="229">
+      <c r="K15" s="227">
         <f t="shared" si="5"/>
         <v>-0.53151165470327666</v>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-13105</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>46237</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="196">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>27617</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>-71716</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="196">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-28895</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="196">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-2436</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="196">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v>-64518</v>
       </c>
-      <c r="J16" s="198">
+      <c r="J16" s="196">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v>-5969</v>
       </c>
-      <c r="K16" s="198">
+      <c r="K16" s="196">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v>-4437</v>
       </c>
-      <c r="L16" s="198">
+      <c r="L16" s="196">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v>-34533</v>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>24063</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21554</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>19739</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>26528</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>30409</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>22718</v>
       </c>
-      <c r="I17" s="198">
+      <c r="I17" s="196">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>21648</v>
       </c>
-      <c r="J17" s="198">
+      <c r="J17" s="196">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>20652</v>
       </c>
-      <c r="K17" s="198">
+      <c r="K17" s="196">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v>23826</v>
       </c>
-      <c r="L17" s="198">
+      <c r="L17" s="196">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v>24877</v>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>8.2182336038514631E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>7.3486794598734792E-2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f t="shared" si="6"/>
         <v>7.8315098710998413E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f t="shared" si="6"/>
         <v>0.1026514140806149</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f t="shared" si="6"/>
         <v>8.41728219452402E-2</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="150">
         <f t="shared" si="6"/>
         <v>8.5204473050619511E-2</v>
       </c>
-      <c r="I18" s="151">
+      <c r="I18" s="150">
         <f t="shared" si="6"/>
         <v>0.10885117739559202</v>
       </c>
-      <c r="J18" s="151">
+      <c r="J18" s="150">
         <f t="shared" si="6"/>
         <v>0.12966207620370548</v>
       </c>
-      <c r="K18" s="151">
+      <c r="K18" s="150">
         <f t="shared" si="6"/>
         <v>0.10308051103842061</v>
       </c>
-      <c r="L18" s="151">
+      <c r="L18" s="150">
         <f t="shared" si="6"/>
         <v>7.6208452002267224E-2</v>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>247452</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>238036</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="196">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>204743</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="196">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>198511</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="196">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>211847</v>
       </c>
-      <c r="H19" s="198">
+      <c r="H19" s="196">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>202355</v>
       </c>
-      <c r="I19" s="198">
+      <c r="I19" s="196">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v>219432</v>
       </c>
-      <c r="J19" s="198">
+      <c r="J19" s="196">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v>209651</v>
       </c>
-      <c r="K19" s="198">
+      <c r="K19" s="196">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v>177858</v>
       </c>
-      <c r="L19" s="198">
+      <c r="L19" s="196">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v>173981</v>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>9.3828586535025432E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>7.525144581924921E-2</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>9.6076690602517112E-2</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0.1274632388682391</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0.11791752257818429</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>0.10783710199946608</v>
       </c>
-      <c r="I20" s="151">
+      <c r="I20" s="150">
         <f t="shared" si="7"/>
         <v>0.10726130890078328</v>
       </c>
-      <c r="J20" s="151">
+      <c r="J20" s="150">
         <f t="shared" si="7"/>
         <v>0.10661492989993834</v>
       </c>
-      <c r="K20" s="151">
+      <c r="K20" s="150">
         <f t="shared" si="7"/>
         <v>0.1172103385362936</v>
       </c>
-      <c r="L20" s="151">
+      <c r="L20" s="150">
         <f t="shared" si="7"/>
         <v>0.12778530698277063</v>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>282519</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>243752</v>
       </c>
-      <c r="E21" s="198">
+      <c r="E21" s="196">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>251178</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="196">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>246493</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="196">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>296776</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="196">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>256106</v>
       </c>
-      <c r="I21" s="198">
+      <c r="I21" s="196">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v>216227</v>
       </c>
-      <c r="J21" s="198">
+      <c r="J21" s="196">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v>172386</v>
       </c>
-      <c r="K21" s="198">
+      <c r="K21" s="196">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v>202238</v>
       </c>
-      <c r="L21" s="198">
+      <c r="L21" s="196">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v>291729</v>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>179667.33333333334</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>194406.33333333331</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>52630.333333333343</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>-44024.333333333328</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>-7811</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>61629.666666666657</v>
       </c>
-      <c r="I22" s="160">
+      <c r="I22" s="158">
         <f t="shared" si="8"/>
         <v>48405</v>
       </c>
-      <c r="J22" s="160">
+      <c r="J22" s="158">
         <f t="shared" si="8"/>
         <v>-33186.333333333328</v>
       </c>
-      <c r="K22" s="160">
+      <c r="K22" s="158">
         <f t="shared" si="8"/>
         <v>24980</v>
       </c>
-      <c r="L22" s="160">
+      <c r="L22" s="158">
         <f t="shared" si="8"/>
         <v>13592.333333333343</v>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.4752561597230435E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>4.5013038846098398E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>1.50985006209959E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>-1.7073965941269063E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>-2.32764888887123E-3</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>1.9462540853766881E-2</v>
       </c>
-      <c r="I23" s="152">
+      <c r="I23" s="151">
         <f t="shared" si="9"/>
         <v>1.8008795122749752E-2</v>
       </c>
-      <c r="J23" s="152">
+      <c r="J23" s="151">
         <f t="shared" si="9"/>
         <v>-1.539347134614754E-2</v>
       </c>
-      <c r="K23" s="152">
+      <c r="K23" s="151">
         <f t="shared" si="9"/>
         <v>1.0858175478779758E-2</v>
       </c>
-      <c r="L23" s="152">
+      <c r="L23" s="151">
         <f t="shared" si="9"/>
         <v>4.4653612280887755E-3</v>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>134750.5</v>
       </c>
@@ -6867,63 +6862,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-7.5815431253097032E-2</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.6938077534501645</v>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>-4.6361968164554259</v>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="H25" s="230">
+      <c r="H25" s="228">
         <f t="shared" si="10"/>
         <v>0.27320869056226954</v>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="K25" s="230">
+      <c r="K25" s="228">
         <f t="shared" si="10"/>
         <v>0.83780072099467706</v>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6969,11 +6964,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -7020,266 +7015,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>142879</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>182674</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>1090144</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>52418</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>81126</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7326,165 +7321,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>1678153</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>188249</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7530,63 +7525,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.10723230392764403</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7599,372 +7594,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.86588805084764076</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.87905937577576676</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.90054585807690002</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.88576730067029297</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.86690956464474378</v>
       </c>
-      <c r="I40" s="155">
+      <c r="I40" s="154">
         <f t="shared" si="34"/>
         <v>0.88315334666078005</v>
       </c>
-      <c r="J40" s="155">
+      <c r="J40" s="154">
         <f t="shared" si="34"/>
         <v>0.88041954279261037</v>
       </c>
-      <c r="K40" s="155">
+      <c r="K40" s="154">
         <f t="shared" si="34"/>
         <v>0.86974014563343127</v>
       </c>
-      <c r="L40" s="155">
+      <c r="L40" s="154">
         <f t="shared" si="34"/>
         <v>0.85990393182190505</v>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>4.2878616631992113E-2</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>5.3445427523257226E-2</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>7.3706870696377561E-2</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>6.0207564337395353E-2</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>6.3183650577237099E-2</v>
       </c>
-      <c r="I41" s="152">
+      <c r="I41" s="151">
         <f t="shared" si="35"/>
         <v>7.1249919390442937E-2</v>
       </c>
-      <c r="J41" s="152">
+      <c r="J41" s="151">
         <f t="shared" si="35"/>
         <v>8.6544461850834586E-2</v>
       </c>
-      <c r="K41" s="152">
+      <c r="K41" s="151">
         <f t="shared" si="35"/>
         <v>8.265775216352117E-2</v>
       </c>
-      <c r="L41" s="152">
+      <c r="L41" s="151">
         <f t="shared" si="35"/>
         <v>6.4741331655980255E-2</v>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>1.4274348929832885E-2</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>1.0563624060903882E-2</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152">
+      <c r="I42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J42" s="152">
+      <c r="J42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K42" s="152">
+      <c r="K42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L42" s="152">
+      <c r="L42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>6.6541799172441553E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>7.5502543845523303E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>1.3717812679048275E-2</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>1.2082358223306488E-2</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>9.5657395110769396E-3</v>
       </c>
-      <c r="I43" s="152">
+      <c r="I43" s="151">
         <f t="shared" si="37"/>
         <v>1.0738681178040468E-2</v>
       </c>
-      <c r="J43" s="152">
+      <c r="J43" s="151">
         <f t="shared" si="37"/>
         <v>1.2772565824913431E-2</v>
       </c>
-      <c r="K43" s="152">
+      <c r="K43" s="151">
         <f t="shared" si="37"/>
         <v>1.3808747742589085E-2</v>
       </c>
-      <c r="L43" s="152">
+      <c r="L43" s="151">
         <f t="shared" si="37"/>
         <v>1.0896808619679172E-2</v>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>8.522767324644475E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>1.1488392202673272E-2</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>9.9829216817420574E-3</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>1.1301607987889432E-2</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>1.1758361846406398E-2</v>
       </c>
-      <c r="I44" s="152">
+      <c r="I44" s="151">
         <f t="shared" si="38"/>
         <v>9.2564574455947495E-3</v>
       </c>
-      <c r="J44" s="152">
+      <c r="J44" s="151">
         <f t="shared" si="38"/>
         <v>1.774091168940458E-2</v>
       </c>
-      <c r="K44" s="152">
+      <c r="K44" s="151">
         <f t="shared" si="38"/>
         <v>5.1859596575458376E-3</v>
       </c>
-      <c r="L44" s="152">
+      <c r="L44" s="151">
         <f t="shared" si="38"/>
         <v>6.9272579511470917E-3</v>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.76465122051441E-3</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>1.7761591891518692E-2</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>2.4811824787624184E-2</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>3.3744700632944082E-2</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>2.263262894884658E-2</v>
       </c>
-      <c r="I45" s="152">
+      <c r="I45" s="151">
         <f t="shared" si="39"/>
         <v>1.5898684948087445E-3</v>
       </c>
-      <c r="J45" s="152">
+      <c r="J45" s="151">
         <f t="shared" si="39"/>
         <v>2.3047146303767141E-2</v>
       </c>
-      <c r="K45" s="152">
+      <c r="K45" s="151">
         <f t="shared" si="39"/>
         <v>1.4129827497872992E-2</v>
       </c>
-      <c r="L45" s="152">
+      <c r="L45" s="151">
         <f t="shared" si="39"/>
         <v>5.1576854980503399E-2</v>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>5.9670082129640582E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>6.0017385128131186E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>2.0131334161327865E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>-2.2765287921692082E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>-3.1035318518283063E-3</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>2.5950054471689174E-2</v>
       </c>
-      <c r="I46" s="152">
+      <c r="I46" s="151">
         <f t="shared" si="40"/>
         <v>2.4011726830333004E-2</v>
       </c>
-      <c r="J46" s="152">
+      <c r="J46" s="151">
         <f t="shared" si="40"/>
         <v>-2.0524628461530053E-2</v>
       </c>
-      <c r="K46" s="152">
+      <c r="K46" s="151">
         <f t="shared" si="40"/>
         <v>1.4477567305039678E-2</v>
       </c>
-      <c r="L46" s="152">
+      <c r="L46" s="151">
         <f t="shared" si="40"/>
         <v>5.9538149707850339E-3</v>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7976,216 +7971,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>1.0876766474117481</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="269" t="e">
+      <c r="I48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="269" t="e">
+      <c r="J48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="269" t="e">
+      <c r="K48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L48" s="269" t="e">
+      <c r="L48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>4.7452152299625509E-2</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>6.0668638982508204E-2</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>5.743902171769192E-2</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>7.400074901811407E-2</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="151">
         <f t="shared" si="44"/>
         <v>4.0582619288683681E-2</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="151">
         <f t="shared" si="44"/>
         <v>0.12301749306144014</v>
       </c>
-      <c r="G51" s="152">
+      <c r="G51" s="151">
         <f t="shared" si="44"/>
         <v>-0.2036637627223773</v>
       </c>
-      <c r="H51" s="152">
+      <c r="H51" s="151">
         <f t="shared" si="44"/>
         <v>-6.7846837713483581E-3</v>
       </c>
-      <c r="I51" s="152">
+      <c r="I51" s="151">
         <f t="shared" si="44"/>
         <v>-0.16170451668851366</v>
       </c>
-      <c r="J51" s="152">
+      <c r="J51" s="151">
         <f t="shared" si="44"/>
         <v>5.5001151808339095E-2</v>
       </c>
-      <c r="K51" s="152">
+      <c r="K51" s="151">
         <f t="shared" si="44"/>
         <v>7.9582590478786946E-3</v>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8201,350 +8196,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.5382023677372767</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.3453793007048864</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.13393085739941596</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.11087087354835834</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>0.37504987618040286</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>-0.6025758482051593</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>-3.8930994750992189</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>0.36862117270362221</v>
       </c>
-      <c r="I55" s="152">
+      <c r="I55" s="151">
         <f t="shared" si="47"/>
         <v>0.44722652618531145</v>
       </c>
-      <c r="J55" s="152">
+      <c r="J55" s="151">
         <f t="shared" si="47"/>
         <v>-0.62230436223746732</v>
       </c>
-      <c r="K55" s="152">
+      <c r="K55" s="151">
         <f t="shared" si="47"/>
         <v>0.9538030424339472</v>
       </c>
-      <c r="L55" s="152">
+      <c r="L55" s="151">
         <f t="shared" si="47"/>
         <v>1.8302229197832098</v>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.16027699323804309</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="271" t="e">
+      <c r="I58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="271" t="e">
+      <c r="J58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="271" t="e">
+      <c r="K58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L58" s="271" t="e">
+      <c r="L58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.12058987245710687</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="271" t="e">
+      <c r="I59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="271" t="e">
+      <c r="J59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="271" t="e">
+      <c r="K59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L59" s="271" t="e">
+      <c r="L59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9823,7 +9818,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9841,7 +9836,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9859,25 +9854,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>1678153</v>
       </c>
@@ -9885,12 +9880,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>1489904</v>
       </c>
@@ -9898,28 +9893,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>188249</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9932,7 +9927,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-649866.79999999993</v>
@@ -9941,16 +9936,16 @@
         <f>1-D6/D3</f>
         <v>1.3872512220280271</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.59772187189959824</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9958,7 +9953,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9968,287 +9963,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.54651352629838368</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>238880</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>214992</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>40594</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>142879</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>85727.4</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>9895</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>5937</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>11824</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>52418</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>11851</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>7110.5999999999995</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>24847</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>2484.7000000000003</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>182674</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>91337</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10259,21 +10254,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10286,45 +10281,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>61345</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>3067.25</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10332,17 +10327,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10352,19 +10347,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.78297783247458219</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>306656.40000000002</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.74674773371723946</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10374,17 +10369,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.26146656493541881</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>9595.2999999999993</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>2.3365788319881883E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10393,7 +10388,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10403,17 +10398,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>91337</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.22241733012756784</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10426,7 +10421,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10436,17 +10431,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.05</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>3067.25</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>7.4691478353107995E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10473,12 +10468,12 @@
         <f>SUM(E24:E27)</f>
         <v>410655.95</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>716641</v>
       </c>
@@ -10488,171 +10483,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>70126</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>693</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>346.5</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>11000</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>81126</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>292606</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>29260.600000000002</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10660,25 +10655,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10686,26 +10681,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>201156</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>20115.600000000002</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10713,113 +10708,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>1413348</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>141334.80000000002</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>91529</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>4576.45</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>24707</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>22236.3</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>71887</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10827,17 +10822,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10847,16 +10842,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10866,16 +10861,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.10094511062090222</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>29607.100000000002</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10885,14 +10880,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>161450.40000000002</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10905,7 +10900,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10915,14 +10910,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.14252776109247672</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>26812.75</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10935,13 +10930,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>2095926</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.10394939993110446</v>
       </c>
@@ -10949,12 +10944,12 @@
         <f>SUM(E30:E42)</f>
         <v>217870.25000000003</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>373503</v>
       </c>
@@ -10965,63 +10960,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>2768297</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.22704435253876304</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>628526.20000000007</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>1090144</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>188249</v>
       </c>
@@ -11029,45 +11024,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>188249</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11075,61 +11070,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11143,35 +11138,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>35197.600000000006</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>238880</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>214992</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11185,29 +11180,29 @@
         <f>E61+E62</f>
         <v>250189.6</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>133544</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11221,9 +11216,9 @@
         <f>E63-E64</f>
         <v>116645.6</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11231,28 +11226,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11266,29 +11261,29 @@
         <f>E49-E63</f>
         <v>378336.60000000009</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>956600</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11302,29 +11297,29 @@
         <f>E68-E69</f>
         <v>-578263.39999999991</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11334,66 +11329,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>3011012</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>3011012</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>3011012</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2597400</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.86263355974668987</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2634635.5</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.875</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2597400</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.86263355974668987</v>
       </c>
@@ -11401,50 +11396,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>413612</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>376376.5</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>413612</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>147240</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>4.8900502555287058E-2</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>151755.0048</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>5.04E-2</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>151755.0048</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>5.04E-2</v>
       </c>
@@ -11452,60 +11447,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>27574.666666666668</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>27574.666666666672</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.1579398111554088E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>27574.666666666672</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.1579398111554088E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>238797.33333333334</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>7.9307997886867723E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>197046.82853333332</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>6.5442060188844589E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>234282.32853333332</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>7.7808500442154774E-2</v>
       </c>
@@ -11513,61 +11508,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>24063</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>24063</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>24063</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>7.9916652607163307E-3</v>
       </c>
@@ -11575,59 +11570,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>35067</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.1646250496510809E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>60220.24</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>60220.24</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0.02</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>179667.33333333334</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>5.9670082129640582E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>112763.58853333333</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>3.745039492812826E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>149999.08853333333</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>4.9816835181438444E-2</v>
       </c>
@@ -11635,184 +11630,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>134750.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>4.4752561597230435E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>84572.691399999996</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>2.8087796196096197E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>112499.3164</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>3.7362626386078832E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.73625713077546118</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.46209288360430956</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.61467990031105468</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13559825195460717</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.13627349545150205</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5104761146982302E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>8.5528560389899741E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11320708012161936</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.11377082149403889</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.45</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.61119951330867051</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.77906415089540371</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.45</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.73208835976624664</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2877585600162382E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.3290294096829365E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6302068480129914E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.6632235277463508E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2877585600162382E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.3290294096829365E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11820,55 +11815,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.208675944132576</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>11.228128235633989</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.94320241204607</v>
+        <v>16.982436716756556</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0014822656385434</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>8.0121272109068471</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.803787252828377</v>
+        <v>10.822026331731653</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11878,123 +11873,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1541725.9013429056</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>1545295.9787298304</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5726929129203109</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>5.5823641397030546</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.423766060719176</v>
-      </c>
-      <c r="I97" s="122">
+        <v>8.4432724442468334</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.203315124522645</v>
+        <v>11.229257934427967</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-201043.65575269857</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-1.0984732906007131</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-201087.58032786846</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0987132880900368</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1340638.3210150371</v>
-      </c>
-      <c r="D100" s="109">
+        <v>1344252.3229771317</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.4739796248302746</v>
-      </c>
-      <c r="E100" s="109">
+        <v>4.483890849102341</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4739796248302746</v>
-      </c>
-      <c r="F100" s="109">
+        <v>4.483890849102341</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.8995161987297067</v>
-      </c>
-      <c r="H100" s="109">
+        <v>5.9143450013742296</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.3250527726291397</v>
-      </c>
-      <c r="I100" s="109">
+        <v>7.344799153646119</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.104601836432607</v>
+        <v>10.130784643827253</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12004,58 +11999,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>983077.35664195358</v>
-      </c>
-      <c r="D103" s="109">
+        <v>984736.99923359416</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9735555648782266</v>
-      </c>
-      <c r="E103" s="122">
+        <v>3.9796587624351858</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9781508303773347</v>
-      </c>
-      <c r="F103" s="109">
+        <v>3.9834432495132592</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.6747712527979139</v>
-      </c>
-      <c r="H103" s="122">
+        <v>4.6819514852178656</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3713916752184927</v>
-      </c>
-      <c r="I103" s="109">
+        <v>5.3804597209224712</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1437636279244838</v>
+        <v>7.1558238125085483</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12065,58 +12060,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>773458.59027869697</v>
-      </c>
-      <c r="D106" s="109">
+        <v>774849.88312016043</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>4.2237675948542508</v>
-      </c>
-      <c r="E106" s="122">
+        <v>4.2317748057687634</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>4.2260652276038044</v>
-      </c>
-      <c r="F106" s="109">
+        <v>4.2336670493078001</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.2871437257638103</v>
-      </c>
-      <c r="H106" s="122">
+        <v>5.2981482432960476</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>6.3482222239238162</v>
-      </c>
-      <c r="I106" s="122">
+        <v>6.3626294372842951</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>8.6241827321785465</v>
+        <v>8.6433042281679011</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12125,15 +12120,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A9588A-B0C2-4D6B-AE07-6673825C029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA853F73-13DA-4349-911D-B38FB8723DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="279">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1690,7 +1698,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2342,9 +2350,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2353,9 +2358,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2363,6 +2365,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2840,7 +2854,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2848,7 +2862,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2872,7 +2886,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2881,7 +2895,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2897,7 +2911,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2940,13 +2954,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2955,7 +2972,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2964,7 +2981,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2973,7 +2990,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2991,7 +3008,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3551,7 +3568,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3290294096829365E-2</v>
+        <v>8.1686404894809342E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4026,11 +4043,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -4044,10 +4061,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4268,8 +4285,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4282,8 +4302,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4326,60 +4346,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>5.77</v>
+        <v>5.88</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1056031.0420098598</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1076163.3495698399</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4402,11 +4422,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4426,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4547,7 +4567,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.16027699323804309</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4559,20 +4579,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.5382023677372767</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>7.9307997886867723E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>1.0876766474117481</v>
       </c>
@@ -4581,26 +4601,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>7.9307997886867723E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.858037162125882</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.58923350789010198</v>
+        <v>0.60080293932719753</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>7.9916652607163307E-3</v>
       </c>
@@ -4609,7 +4629,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.7895998892158449</v>
+        <v>8.9621811696693516</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4641,7 +4661,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3290294096829365E-2</v>
+        <v>8.1686404894809342E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4660,10 +4680,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4671,22 +4691,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.483890849102341</v>
+        <v>4.4391850914194775</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>11.650402340401341</v>
+        <v>11.517443400683096</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9143450013742296</v>
-      </c>
-      <c r="G29" s="285">
+        <v>5.8486023994931191</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.130784643827253</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>10.015168174507041</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5717,7 +5737,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7958,7 +7978,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9885,7 +9905,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>1489904</v>
       </c>
@@ -10932,7 +10952,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>2095926</v>
       </c>
@@ -10949,7 +10969,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>373503</v>
       </c>
@@ -11058,11 +11078,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11073,11 +11093,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11089,11 +11109,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11307,19 +11327,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11329,18 +11349,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11707,17 +11727,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13627349545150205</v>
+        <v>0.13364932909158869</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5528560389899741E-2</v>
+        <v>8.3881569753581409E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11377082149403889</v>
+        <v>0.11157998048335523</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11758,17 +11778,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3290294096829365E-2</v>
+        <v>8.1686404894809342E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6632235277463508E-2</v>
+        <v>6.5349123915847476E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3290294096829365E-2</v>
+        <v>8.1686404894809342E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11799,15 +11819,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11828,14 +11848,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.228128235633989</v>
+        <v>11.136972592316296</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.982436716756556</v>
+        <v>16.806655857877935</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11856,14 +11876,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0121272109068471</v>
+        <v>7.9595951468775397</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.822026331731653</v>
+        <v>10.736137943121488</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11906,21 +11926,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1545295.9787298304</v>
+        <v>1529301.015292411</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5823641397030546</v>
+        <v>5.5370436745543481</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4432724442468334</v>
+        <v>8.3558782907016305</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.229257934427967</v>
+        <v>11.113026757641912</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11930,14 +11950,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-201043.65575269857</v>
+        <v>-200931.15139122805</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0984732906007131</v>
+        <v>-1.0978585831348706</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11969,27 +11989,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1344252.3229771317</v>
+        <v>1328369.863901183</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.483890849102341</v>
+        <v>4.4391850914194775</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.483890849102341</v>
+        <v>4.4391850914194775</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.9143450013742296</v>
+        <v>5.8486023994931191</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.344799153646119</v>
+        <v>7.2580197075667616</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.130784643827253</v>
+        <v>10.015168174507041</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12030,27 +12050,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>984736.99923359416</v>
+        <v>976921.69076211215</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9796587624351858</v>
+        <v>3.9504105052199181</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9834432495132592</v>
+        <v>3.9573255294206873</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.6819514852178656</v>
+        <v>4.6475417708469626</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3804597209224712</v>
+        <v>5.3377580122732384</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1558238125085483</v>
+        <v>7.0990320290111724</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12091,27 +12111,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>774849.88312016043</v>
+        <v>768368.79204269464</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>4.2317748057687634</v>
+        <v>4.1947977983196978</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>4.2336670493078001</v>
+        <v>4.1982553104200822</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.2981482432960476</v>
+        <v>5.2480720851700404</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>6.3626294372842951</v>
+        <v>6.2978888599200005</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>8.6433042281679011</v>
+        <v>8.5571001017591062</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA853F73-13DA-4349-911D-B38FB8723DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44A2E64-A8C9-4D74-934A-28F2460C942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1686404894809342E-2</v>
+        <v>8.2967493773331694E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>5.88</v>
+        <v>5.78</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>278</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1076163.3495698399</v>
+        <v>1057861.2517880399</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4446,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.60080293932719753</v>
+        <v>0.59152602943453036</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.9621811696693516</v>
+        <v>8.8237974473029386</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1686404894809342E-2</v>
+        <v>8.2967493773331694E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4691,20 +4691,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4391850914194775</v>
+        <v>1.3747272950694329</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>11.517443400683096</v>
+        <v>8.5088491694937893</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8486023994931191</v>
+        <v>2.9996136455728921</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.015168174507041</v>
+        <v>7.3989992778206872</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9856,7 +9856,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11727,17 +11727,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13364932909158869</v>
+        <v>0.1357453531404092</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3881569753581409E-2</v>
+        <v>8.5197085429203193E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11157998048335523</v>
+        <v>0.11332989067033239</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11778,17 +11778,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1686404894809342E-2</v>
+        <v>8.2967493773331694E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5349123915847476E-2</v>
+        <v>6.6373995018665366E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1686404894809342E-2</v>
+        <v>8.2967493773331694E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11848,14 +11848,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.136972592316296</v>
+        <v>11.186900804131179</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.806655857877935</v>
+        <v>16.912420627806757</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11876,14 +11876,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9595951468775397</v>
+        <v>7.9852339138572273</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.736137943121488</v>
+        <v>10.782687843618982</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11926,21 +11926,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1529301.015292411</v>
+        <v>1538924.9506786109</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5370436745543481</v>
+        <v>5.5618668199037531</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3558782907016305</v>
+        <v>8.4084620737244169</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.113026757641912</v>
+        <v>11.182961355468755</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11950,14 +11950,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-200931.15139122805</v>
+        <v>-200611.5686894258</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0978585831348706</v>
+        <v>-1.0961124297397113</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11967,18 +11967,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-491932.87078795431</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-3.091027095094609</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-2.6878496479083558</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11989,27 +11989,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1328369.863901183</v>
+        <v>846380.51120123093</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.4391850914194775</v>
+        <v>1.3747272950694329</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4391850914194775</v>
+        <v>1.3747272950694329</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.8486023994931191</v>
+        <v>2.9996136455728921</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.2580197075667616</v>
+        <v>4.6244999960763513</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.015168174507041</v>
+        <v>7.3989992778206872</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12050,27 +12050,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>976921.69076211215</v>
+        <v>981157.44180589938</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9504105052199181</v>
+        <v>3.9656639787792001</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9573255294206873</v>
+        <v>3.9700725278847222</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.6475417708469626</v>
+        <v>4.6654870338578824</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3377580122732384</v>
+        <v>5.3609015398310431</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.0990320290111724</v>
+        <v>7.1298121136495887</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12111,27 +12111,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>768368.79204269464</v>
+        <v>489105.24491927138</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>4.1947977983196978</v>
+        <v>2.6701956369243165</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>4.1982553104200822</v>
+        <v>2.6723999114770773</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.2480720851700404</v>
+        <v>3.8325503397153873</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>6.2978888599200005</v>
+        <v>4.9927007679536972</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>8.5571001017591062</v>
+        <v>7.2644056957351379</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004F86F0-DA4F-4C50-9BF3-94885151A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7345A5CE-9CC0-4314-B28D-1B06CB6DC774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -1022,9 +1022,6 @@
     <t>CN</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Reinvest Nonop @</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1058,6 +1055,9 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>Dividend</t>
   </si>
 </sst>
 </file>
@@ -3045,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3068,7 +3068,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3076,7 +3076,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3100,7 +3100,7 @@
         <v>190</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3108,7 +3108,7 @@
         <v>191</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3124,7 +3124,7 @@
         <v>193</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3176,7 +3176,7 @@
         <v>198</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="75"/>
     </row>
@@ -3185,7 +3185,7 @@
         <v>211</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D18" s="75"/>
     </row>
@@ -3194,7 +3194,7 @@
         <v>212</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D19" s="75"/>
     </row>
@@ -3203,7 +3203,7 @@
         <v>201</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D20" s="75"/>
     </row>
@@ -3221,7 +3221,7 @@
         <v>203</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D22" s="75"/>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9264297390615704E-2</v>
+        <v>7.8997747732861209E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="308" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C86" s="84">
         <v>5</v>
@@ -4247,7 +4247,7 @@
         <v>219</v>
       </c>
       <c r="C87" s="112" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D87" s="113">
         <v>0.02</v>
@@ -4515,7 +4515,7 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>1105446.7060207201</v>
+        <v>1109107.1255770798</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4659,7 +4659,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4790,7 +4790,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.61916188977262565</v>
+        <v>0.62125103021713057</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.2360417472510186</v>
+        <v>9.2672054682100136</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9264297390615704E-2</v>
+        <v>7.8997747732861209E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4909,20 +4909,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3925878420820781</v>
+        <v>3.8925208308970722</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.7119111330902994</v>
+        <v>8.0362425264649513</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.724988780522775</v>
+        <v>4.5794362716436146</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.7060096809480871</v>
+        <v>6.9880369795347406</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10060,8 +10060,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.6833894918984549</v>
+        <v>-2.6832213164954477</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11396,7 +11396,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I62" s="306">
         <f>IF(OR(C92="CN",C92="HK"),Dashboard!C14,Dashboard!C10)</f>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.6833894918984549</v>
+        <v>-2.6832213164954477</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.6833894918984549</v>
+        <v>-2.6832213164954477</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11959,17 +11959,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12968645371055021</v>
+        <v>0.12925034463004464</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.13943727735537E-2</v>
+        <v>8.1120660106941439E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10827148981842101</v>
+        <v>0.10790739489162883</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -12010,17 +12010,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9264297390615704E-2</v>
+        <v>7.8997747732861209E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3411437912492569E-2</v>
+        <v>6.3198198186288967E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9264297390615704E-2</v>
+        <v>7.8997747732861209E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12073,21 +12073,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.3842107549068015</v>
+        <v>10.95945736092926</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.437041309408793</v>
+        <v>16.476131714716736</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12108,14 +12108,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9522061093011667</v>
+        <v>7.8534882392846574</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.0847316249092902</v>
+        <v>10.568275880052511</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12158,21 +12158,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1617003.6587022976</v>
+        <v>1499225.3766889023</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.1702708999140654</v>
+        <v>5.4487872313476213</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.8350727767954602</v>
+        <v>8.1915493762674814</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.483692738780075</v>
+        <v>10.894475031584207</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12182,14 +12182,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-200278.6784571012</v>
+        <v>-200266.12644124031</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0942935659335327</v>
+        <v>-1.0942249835447238</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-491116.56867380138</v>
+        <v>-491085.78904709808</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.6833894918984549</v>
+        <v>-2.6832213164954477</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-2.6833894918984549</v>
+        <v>-2.6832213164954477</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12222,23 +12222,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3925878420820781</v>
+        <v>1.6713409313074501</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.3925878420820781</v>
+        <v>1.6713409313074501</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.724988780522775</v>
+        <v>3.0427220037673797</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.0573897189634724</v>
+        <v>4.4141030762273097</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.7060096809480871</v>
+        <v>7.1170287315440355</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12277,23 +12277,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4814324234663907</v>
+        <v>3.8925208308970722</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5711883680783556</v>
+        <v>3.9045716435110607</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.2722734393722241</v>
+        <v>4.5794362716436146</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9733585106660918</v>
+        <v>5.2543008997761689</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.087984086432618</v>
+        <v>6.9880369795347406</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12332,23 +12332,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.4370101327742342</v>
+        <v>2.7819308811022614</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.4818881050802171</v>
+        <v>2.7879562874092554</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.4986311099474996</v>
+        <v>3.8110791377054971</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>5.5153741148147821</v>
+        <v>4.8342019880017393</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>6.8969968836903526</v>
+        <v>7.052532855539388</v>
       </c>
       <c r="K106" s="75"/>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="C108" s="265" t="str">
         <f>Inputs!C87</f>
-        <v>Profit</v>
+        <v>Dividend</v>
       </c>
       <c r="K108" s="75"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7345A5CE-9CC0-4314-B28D-1B06CB6DC774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3276E1-660E-4A64-B7F0-511E1F2A2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2594,6 +2594,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2610,9 +2613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2826,11 +2826,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3045,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3070,6 +3070,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4474,7 +4475,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4497,6 +4498,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4516,7 +4520,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4552,18 +4556,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4579,7 +4586,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
@@ -4608,11 +4615,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>1109107.1255770798</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4635,11 +4642,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4707,10 +4714,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4757,7 +4764,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4898,10 +4905,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4909,22 +4916,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8925208308970722</v>
+        <v>4.2624711578005128</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>8.0362425264649513</v>
+        <v>9.0366743898190443</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5794362716436146</v>
-      </c>
-      <c r="G29" s="312">
+        <v>5.0146719503535451</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.9880369795347406</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>7.8579777302774296</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5906,15 +5913,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5942,7 +5950,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10060,8 +10068,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12069,7 +12077,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -12080,14 +12088,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.95945736092926</v>
+        <v>12.001058680356419</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.476131714716736</v>
+        <v>18.042045059503863</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12108,14 +12116,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8534882392846574</v>
+        <v>8.5998941463241074</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.568275880052511</v>
+        <v>11.572698794272377</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12158,21 +12166,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1499225.3766889023</v>
+        <v>1641713.7389361949</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.4487872313476213</v>
+        <v>5.9666471748228069</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.1915493762674814</v>
+        <v>8.9700850607887705</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.894475031584207</v>
+        <v>12.25072827060969</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12222,23 +12230,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6713409313074501</v>
+        <v>2.1892008747826357</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.6713409313074501</v>
+        <v>2.1892008747826357</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.0427220037673797</v>
+        <v>3.6909198177656171</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.4141030762273097</v>
+        <v>5.1926387607485989</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.1170287315440355</v>
+        <v>8.4732819705695182</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12277,23 +12285,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8925208308970722</v>
+        <v>4.2624711578005128</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9045716435110607</v>
+        <v>4.275667295580293</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.5794362716436146</v>
+        <v>5.0146719503535451</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.2543008997761689</v>
+        <v>5.7536766051267962</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.9880369795347406</v>
+        <v>7.8579777302774296</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12332,23 +12340,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.7819308811022614</v>
+        <v>3.2258360162915745</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.7879562874092554</v>
+        <v>3.2324340851814641</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.8110791377054971</v>
+        <v>4.3527958840595815</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.8342019880017393</v>
+        <v>5.473157682937698</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>7.052532855539388</v>
+        <v>8.1656298504234748</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3276E1-660E-4A64-B7F0-511E1F2A2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA87A38-470B-4569-8513-F07D43399EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2594,31 +2594,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8997747732861209E-2</v>
+        <v>7.9390771353422707E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4556,27 +4556,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4586,40 +4586,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1109107.1255770798</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1103616.49624254</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4642,11 +4642,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4797,7 +4797,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62125103021713057</v>
+        <v>0.61817553006754089</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.2672054682100136</v>
+        <v>9.2213282134168946</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8997747732861209E-2</v>
+        <v>7.9390771353422707E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4905,10 +4905,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4916,22 +4916,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.2624711578005128</v>
+        <v>4.5778644084548432</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.0366743898190443</v>
+        <v>9.0624477749653138</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.0146719503535451</v>
-      </c>
-      <c r="G29" s="313">
+        <v>5.3857228334762866</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.8579777302774296</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>7.880389369535056</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5914,15 +5914,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11295,7 +11295,7 @@
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11306,11 +11306,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11322,11 +11322,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11967,17 +11967,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12925034463004464</v>
+        <v>0.12989338117049262</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1120660106941439E-2</v>
+        <v>8.1524245480607799E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10790739489162883</v>
+        <v>0.10844424760253245</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -12018,17 +12018,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8997747732861209E-2</v>
+        <v>7.9390771353422707E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3198198186288967E-2</v>
+        <v>6.3512617082738171E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8997747732861209E-2</v>
+        <v>7.9390771353422707E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12081,21 +12081,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.001058680356419</v>
+        <v>11.117157664459858</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.042045059503863</v>
+        <v>16.316382321186111</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12116,14 +12116,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5998941463241074</v>
+        <v>8.0982752213895637</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.572698794272377</v>
+        <v>10.7410505716459</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12166,21 +12166,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1641713.7389361949</v>
+        <v>1707392.5532717858</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.9666471748228069</v>
+        <v>6.3562709764243905</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.9700850607887705</v>
+        <v>9.3289445484749507</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.25072827060969</v>
+        <v>11.970844465863262</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12230,23 +12230,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1892008747826357</v>
+        <v>2.5788246763842193</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.1892008747826357</v>
+        <v>2.5788246763842193</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.6909198177656171</v>
+        <v>4.0651614624094989</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.1926387607485989</v>
+        <v>5.551498248434779</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.4732819705695182</v>
+        <v>8.1933981658230906</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12285,23 +12285,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2624711578005128</v>
+        <v>4.5778644084548432</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.275667295580293</v>
+        <v>4.6302151415351238</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.0146719503535451</v>
+        <v>5.3857228334762866</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.7536766051267962</v>
+        <v>6.1412305254174493</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.8579777302774296</v>
+        <v>7.880389369535056</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12340,23 +12340,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.2258360162915745</v>
+        <v>3.578344542419531</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.2324340851814641</v>
+        <v>3.6045199089596718</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.3527958840595815</v>
+        <v>4.7254421479428927</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>5.473157682937698</v>
+        <v>5.8463643869261137</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>8.1656298504234748</v>
+        <v>8.0368937676790733</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04326D9-34A9-4923-9DE1-CAC9F70E26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03430C8-3C32-4543-8F48-A98CFF8D7984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2607,6 +2607,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2623,9 +2626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9388286343854461E-2</v>
+        <v>7.8265269597371415E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4600,27 +4600,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.03</v>
+        <v>6.12</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4630,7 +4630,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
@@ -4659,11 +4659,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>1103616.49624254</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1120088.3842461598</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4686,11 +4686,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.61819488017796431</v>
+        <v>0.62706526683351915</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.2216168591340111</v>
+        <v>9.3539364718528262</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9388286343854461E-2</v>
+        <v>7.8265269597371415E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4949,10 +4949,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6158297218358024</v>
+        <v>4.6008120201689424</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.1545312300659791</v>
+        <v>9.1216739352379896</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4303879080421211</v>
-      </c>
-      <c r="G29" s="313">
+        <v>5.4127200237281681</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.9604619391878089</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>7.9318903784678181</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5958,15 +5958,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.6831373290176646</v>
+        <v>-2.6846623331488644</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.6831373290176646</v>
+        <v>-2.6846623331488644</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.6831373290176646</v>
+        <v>-2.6846623331488644</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12113,17 +12113,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12988931537934889</v>
+        <v>0.12805191740695246</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1521693691191846E-2</v>
+        <v>8.0368498031817892E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1084408531904576</v>
+        <v>0.10690686247540018</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9388286343854461E-2</v>
+        <v>7.8265269597371415E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3510629075083563E-2</v>
+        <v>6.261221567789714E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9388286343854461E-2</v>
+        <v>7.8265269597371415E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12234,14 +12234,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.20934397553032</v>
+        <v>11.167955455938904</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.451635676688255</v>
+        <v>16.370052623569897</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12262,14 +12262,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1654441974149741</v>
+        <v>8.1425130101657324</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.830120584765208</v>
+        <v>10.79124929183569</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12312,21 +12312,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1721545.8482512452</v>
+        <v>1713008.7660337861</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.4089787989781763</v>
+        <v>6.3853147785714928</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.4062760934606491</v>
+        <v>9.3596307180548397</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.092443349697048</v>
+        <v>12.032477370172774</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-200259.85791365305</v>
+        <v>-200373.67881552377</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0941907332218264</v>
+        <v>-1.0948126340729076</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12354,17 +12354,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-491070.41757678974</v>
+        <v>-491349.52532405843</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.6831373290176646</v>
+        <v>-2.6846623331488644</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-2.6831373290176646</v>
+        <v>-2.6846623331488644</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12376,23 +12376,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6316507367386852</v>
+        <v>2.6058398113497212</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.6316507367386852</v>
+        <v>2.6058398113497212</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.1302993839799216</v>
+        <v>4.0929977810913947</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.6289480312211584</v>
+        <v>5.5801557508330681</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.3151152874575569</v>
+        <v>8.2530024029510027</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12431,23 +12431,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6158297218358024</v>
+        <v>4.6008120201689424</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.6686192215808129</v>
+        <v>4.6555082408457578</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.4303879080421211</v>
+        <v>5.4127200237281681</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.1921565945034285</v>
+        <v>6.1699318066105793</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.9604619391878089</v>
+        <v>7.9318903784678181</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12486,23 +12486,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.623740229287244</v>
+        <v>3.6033259157593318</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.6501349791597493</v>
+        <v>3.6306740260977395</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.7803436460110209</v>
+        <v>4.7528589024097814</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>5.9105523128622934</v>
+        <v>5.8750437787218237</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>8.1377886133226838</v>
+        <v>8.0924463907094104</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03430C8-3C32-4543-8F48-A98CFF8D7984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB773EAA-5F5F-44F1-8DC4-B1443B4ADCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,31 +2607,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8265269597371415E-2</v>
+        <v>7.6180311481348073E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4600,27 +4600,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.12</v>
+        <v>6.27</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4630,40 +4630,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1120088.3842461598</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1147541.5309188599</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4686,11 +4686,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62706526683351915</v>
+        <v>0.64422724467186121</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.3539364718528262</v>
+        <v>9.6099418016358555</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8265269597371415E-2</v>
+        <v>7.6180311481348073E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4949,10 +4949,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6008120201689424</v>
+        <v>4.5554831866628387</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.1216739352379896</v>
+        <v>9.026139112957539</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4127200237281681</v>
-      </c>
-      <c r="G29" s="314">
+        <v>5.3593919843092221</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.9318903784678181</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>7.8488166199630784</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5958,15 +5958,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11441,7 +11441,7 @@
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11452,11 +11452,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11468,11 +11468,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.6846623331488644</v>
+        <v>-2.6771915567987223</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.6846623331488644</v>
+        <v>-2.6771915567987223</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.6846623331488644</v>
+        <v>-2.6771915567987223</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12113,17 +12113,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12805191740695246</v>
+        <v>0.12464066122852945</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0368498031817892E-2</v>
+        <v>7.8227510680645818E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10690686247540018</v>
+        <v>0.10405890281560028</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8265269597371415E-2</v>
+        <v>7.6180311481348073E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.261221567789714E-2</v>
+        <v>6.0944249185078458E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8265269597371415E-2</v>
+        <v>7.6180311481348073E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12234,14 +12234,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.167955455938904</v>
+        <v>11.048859096464662</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.370052623569897</v>
+        <v>16.157140790976509</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12262,14 +12262,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1425130101657324</v>
+        <v>8.0689917929891699</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.79124929183569</v>
+        <v>10.678228360524287</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12312,21 +12312,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1713008.7660337861</v>
+        <v>1690729.0676106021</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.3853147785714928</v>
+        <v>6.3172210485037805</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.3596307180548397</v>
+        <v>9.2378976867444091</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.032477370172774</v>
+        <v>11.875980817203034</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-200373.67881552377</v>
+        <v>-199816.08655432859</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.0948126340729076</v>
+        <v>-1.0917660310668322</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12354,17 +12354,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-491349.52532405843</v>
+        <v>-489982.2165313958</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.6846623331488644</v>
+        <v>-2.6771915567987223</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-2.6846623331488644</v>
+        <v>-2.6771915567987223</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12376,23 +12376,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6058398113497212</v>
+        <v>2.5482634606382257</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.6058398113497212</v>
+        <v>2.5482634606382257</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.0929977810913947</v>
+        <v>4.00860177975854</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.5801557508330681</v>
+        <v>5.4689400988788544</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.2530024029510027</v>
+        <v>8.1070232293374787</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12431,23 +12431,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6008120201689424</v>
+        <v>4.5554831866628387</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.6555082408457578</v>
+        <v>4.6134722463051077</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.4127200237281681</v>
+        <v>5.3593919843092221</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.1699318066105793</v>
+        <v>6.1053117223133366</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.9318903784678181</v>
+        <v>7.8488166199630784</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12486,23 +12486,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.6033259157593318</v>
+        <v>3.5518733236505322</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.6306740260977395</v>
+        <v>3.5808678534716667</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.7528589024097814</v>
+        <v>4.6839968820338811</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>5.8750437787218237</v>
+        <v>5.7871259105960959</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>8.0924463907094104</v>
+        <v>7.9779199246502781</v>
       </c>
       <c r="K106" s="75"/>
     </row>
